--- a/src/templates/isopPrueba.xlsx
+++ b/src/templates/isopPrueba.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tesisSanCristobal\documents\isop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tesisSanCristobal\FormsSinAuth\BackendForm\src\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB15F37C-3D8C-4F76-929A-816BE6613A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FA7974-9498-40EB-A55E-8960DF185813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2372,7 +2372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2541,89 +2541,101 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="19" fillId="10" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="10" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2632,86 +2644,12 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="19" fillId="10" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2728,44 +2666,118 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="10" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3265,8 +3277,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="Q170" sqref="Q170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3286,22 +3298,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68"/>
-      <c r="B1" s="69"/>
-      <c r="C1" s="73" t="s">
+      <c r="A1" s="156"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="76" t="s">
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="145" t="s">
         <v>1</v>
       </c>
       <c r="O1" s="2"/>
@@ -3318,20 +3330,20 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="77"/>
+      <c r="A2" s="157"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="146"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
@@ -3346,19 +3358,19 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="71"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
+      <c r="A3" s="84"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
       <c r="N3" s="3" t="s">
         <v>2</v>
       </c>
@@ -3432,22 +3444,22 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="147" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="80"/>
+      <c r="B6" s="148"/>
+      <c r="C6" s="148"/>
+      <c r="D6" s="148"/>
+      <c r="E6" s="148"/>
+      <c r="F6" s="148"/>
+      <c r="G6" s="148"/>
+      <c r="H6" s="148"/>
+      <c r="I6" s="148"/>
+      <c r="J6" s="148"/>
+      <c r="K6" s="148"/>
+      <c r="L6" s="148"/>
+      <c r="M6" s="148"/>
+      <c r="N6" s="149"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -3490,22 +3502,22 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="154" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="66" t="s">
+      <c r="B8" s="74"/>
+      <c r="C8" s="150"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="63"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="152"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="74"/>
       <c r="M8" s="14" t="s">
         <v>6</v>
       </c>
@@ -3524,24 +3536,24 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="154" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="63"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="66" t="s">
+      <c r="B9" s="74"/>
+      <c r="C9" s="150"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="63"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="65"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="75"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -3556,22 +3568,22 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="63"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="67" t="s">
+      <c r="B10" s="74"/>
+      <c r="C10" s="150"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="63"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="63"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="153"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
       <c r="M10" s="16" t="s">
         <v>11</v>
       </c>
@@ -3630,22 +3642,22 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="83" t="s">
+      <c r="A12" s="141" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="84"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="84"/>
-      <c r="L12" s="84"/>
-      <c r="M12" s="84"/>
-      <c r="N12" s="85"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="64"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -3660,23 +3672,23 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="83" t="s">
+      <c r="A13" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="84"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="83" t="s">
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="84"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="86"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="142"/>
       <c r="N13" s="23" t="s">
         <v>15</v>
       </c>
@@ -3697,18 +3709,18 @@
       <c r="A14" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="87"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="88"/>
-      <c r="M14" s="88"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="135"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="79"/>
       <c r="N14" s="25"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -3727,18 +3739,18 @@
       <c r="A15" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="103"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="92"/>
-      <c r="K15" s="92"/>
-      <c r="L15" s="92"/>
-      <c r="M15" s="93"/>
+      <c r="B15" s="140"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="136"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="115"/>
       <c r="N15" s="27"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -3757,18 +3769,18 @@
       <c r="A16" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="103"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="92"/>
-      <c r="L16" s="92"/>
-      <c r="M16" s="93"/>
+      <c r="B16" s="140"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="136"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="115"/>
       <c r="N16" s="27"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -3787,18 +3799,18 @@
       <c r="A17" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="103"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="92"/>
-      <c r="J17" s="92"/>
-      <c r="K17" s="92"/>
-      <c r="L17" s="92"/>
-      <c r="M17" s="93"/>
+      <c r="B17" s="140"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="136"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="76"/>
+      <c r="M17" s="115"/>
       <c r="N17" s="27"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -3817,18 +3829,18 @@
       <c r="A18" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="103"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="98"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="92"/>
-      <c r="J18" s="92"/>
-      <c r="K18" s="92"/>
-      <c r="L18" s="92"/>
-      <c r="M18" s="93"/>
+      <c r="B18" s="140"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="136"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="115"/>
       <c r="N18" s="27"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
@@ -3847,18 +3859,18 @@
       <c r="A19" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="103"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="91"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="92"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="92"/>
-      <c r="L19" s="92"/>
-      <c r="M19" s="93"/>
+      <c r="B19" s="140"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="136"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="76"/>
+      <c r="L19" s="76"/>
+      <c r="M19" s="115"/>
       <c r="N19" s="27"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
@@ -3902,24 +3914,24 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="83" t="s">
+      <c r="A21" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="84"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="94" t="s">
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="142"/>
+      <c r="G21" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
-      <c r="N21" s="96"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="69"/>
+      <c r="N21" s="70"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
@@ -3934,28 +3946,28 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="104" t="s">
+      <c r="A22" s="143" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="105"/>
-      <c r="C22" s="106" t="s">
+      <c r="B22" s="126"/>
+      <c r="C22" s="144" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="97" t="s">
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="126"/>
+      <c r="G22" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="H22" s="92"/>
-      <c r="I22" s="92"/>
-      <c r="J22" s="92"/>
-      <c r="K22" s="98"/>
-      <c r="L22" s="99" t="s">
+      <c r="H22" s="76"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="93"/>
+      <c r="L22" s="139" t="s">
         <v>27</v>
       </c>
-      <c r="M22" s="92"/>
-      <c r="N22" s="100"/>
+      <c r="M22" s="76"/>
+      <c r="N22" s="77"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
@@ -3970,28 +3982,28 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="107">
+      <c r="A23" s="113">
         <v>0</v>
       </c>
-      <c r="B23" s="98"/>
-      <c r="C23" s="108" t="s">
+      <c r="B23" s="93"/>
+      <c r="C23" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="92"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="101" t="s">
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="92"/>
-      <c r="I23" s="92"/>
-      <c r="J23" s="92"/>
-      <c r="K23" s="98"/>
-      <c r="L23" s="102" t="s">
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="93"/>
+      <c r="L23" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="M23" s="92"/>
-      <c r="N23" s="100"/>
+      <c r="M23" s="76"/>
+      <c r="N23" s="77"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
@@ -4006,28 +4018,28 @@
       <c r="Z23" s="2"/>
     </row>
     <row r="24" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="107">
+      <c r="A24" s="113">
         <v>1</v>
       </c>
-      <c r="B24" s="98"/>
-      <c r="C24" s="108" t="s">
+      <c r="B24" s="93"/>
+      <c r="C24" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="101" t="s">
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="115"/>
+      <c r="G24" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="H24" s="92"/>
-      <c r="I24" s="92"/>
-      <c r="J24" s="92"/>
-      <c r="K24" s="98"/>
-      <c r="L24" s="102" t="s">
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="93"/>
+      <c r="L24" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="M24" s="92"/>
-      <c r="N24" s="100"/>
+      <c r="M24" s="76"/>
+      <c r="N24" s="77"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
@@ -4042,28 +4054,28 @@
       <c r="Z24" s="2"/>
     </row>
     <row r="25" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="107">
+      <c r="A25" s="113">
         <v>2</v>
       </c>
-      <c r="B25" s="98"/>
-      <c r="C25" s="108" t="s">
+      <c r="B25" s="93"/>
+      <c r="C25" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="92"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="101" t="s">
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="H25" s="92"/>
-      <c r="I25" s="92"/>
-      <c r="J25" s="92"/>
-      <c r="K25" s="98"/>
-      <c r="L25" s="102" t="s">
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="93"/>
+      <c r="L25" s="117" t="s">
         <v>36</v>
       </c>
-      <c r="M25" s="92"/>
-      <c r="N25" s="100"/>
+      <c r="M25" s="76"/>
+      <c r="N25" s="77"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
@@ -4078,28 +4090,28 @@
       <c r="Z25" s="2"/>
     </row>
     <row r="26" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="107">
+      <c r="A26" s="113">
         <v>3</v>
       </c>
-      <c r="B26" s="98"/>
-      <c r="C26" s="108" t="s">
+      <c r="B26" s="93"/>
+      <c r="C26" s="114" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="92"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="101" t="s">
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="115"/>
+      <c r="G26" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="H26" s="92"/>
-      <c r="I26" s="92"/>
-      <c r="J26" s="92"/>
-      <c r="K26" s="98"/>
-      <c r="L26" s="102" t="s">
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="93"/>
+      <c r="L26" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="M26" s="92"/>
-      <c r="N26" s="100"/>
+      <c r="M26" s="76"/>
+      <c r="N26" s="77"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
@@ -4114,26 +4126,26 @@
       <c r="Z26" s="2"/>
     </row>
     <row r="27" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="107" t="s">
+      <c r="A27" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="98"/>
-      <c r="C27" s="108" t="s">
+      <c r="B27" s="93"/>
+      <c r="C27" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="148"/>
-      <c r="H27" s="92"/>
-      <c r="I27" s="92"/>
-      <c r="J27" s="92"/>
-      <c r="K27" s="98"/>
-      <c r="L27" s="102" t="s">
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="115"/>
+      <c r="G27" s="120"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="93"/>
+      <c r="L27" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="M27" s="92"/>
-      <c r="N27" s="100"/>
+      <c r="M27" s="76"/>
+      <c r="N27" s="77"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
@@ -4148,26 +4160,26 @@
       <c r="Z27" s="2"/>
     </row>
     <row r="28" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="149" t="s">
+      <c r="A28" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="98"/>
-      <c r="C28" s="150" t="s">
+      <c r="B28" s="93"/>
+      <c r="C28" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="93"/>
-      <c r="G28" s="146"/>
-      <c r="H28" s="118"/>
-      <c r="I28" s="118"/>
-      <c r="J28" s="118"/>
-      <c r="K28" s="139"/>
-      <c r="L28" s="147" t="s">
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="115"/>
+      <c r="G28" s="118"/>
+      <c r="H28" s="102"/>
+      <c r="I28" s="102"/>
+      <c r="J28" s="102"/>
+      <c r="K28" s="103"/>
+      <c r="L28" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="M28" s="118"/>
-      <c r="N28" s="119"/>
+      <c r="M28" s="102"/>
+      <c r="N28" s="111"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
@@ -4210,22 +4222,22 @@
       <c r="Z29" s="2"/>
     </row>
     <row r="30" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="151" t="s">
+      <c r="A30" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="95"/>
-      <c r="C30" s="95"/>
-      <c r="D30" s="95"/>
-      <c r="E30" s="95"/>
-      <c r="F30" s="95"/>
-      <c r="G30" s="95"/>
-      <c r="H30" s="95"/>
-      <c r="I30" s="95"/>
-      <c r="J30" s="95"/>
-      <c r="K30" s="95"/>
-      <c r="L30" s="95"/>
-      <c r="M30" s="95"/>
-      <c r="N30" s="96"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="69"/>
+      <c r="N30" s="70"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
@@ -4240,23 +4252,23 @@
       <c r="Z30" s="2"/>
     </row>
     <row r="31" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="152" t="s">
+      <c r="A31" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="118"/>
-      <c r="C31" s="118"/>
-      <c r="D31" s="118"/>
-      <c r="E31" s="139"/>
-      <c r="F31" s="153" t="s">
+      <c r="B31" s="102"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="G31" s="118"/>
-      <c r="H31" s="118"/>
-      <c r="I31" s="118"/>
-      <c r="J31" s="118"/>
-      <c r="K31" s="118"/>
-      <c r="L31" s="118"/>
-      <c r="M31" s="139"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="102"/>
+      <c r="I31" s="102"/>
+      <c r="J31" s="102"/>
+      <c r="K31" s="102"/>
+      <c r="L31" s="102"/>
+      <c r="M31" s="103"/>
       <c r="N31" s="30">
         <f>(F32+F47+F71+F82+F95+F145+F156)/(E32+E47+E71+E82+E95+E145+E156)</f>
         <v>0</v>
@@ -4275,11 +4287,11 @@
       <c r="Z31" s="2"/>
     </row>
     <row r="32" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="120" t="s">
+      <c r="A32" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="74"/>
-      <c r="C32" s="121"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="83"/>
       <c r="D32" s="31" t="s">
         <v>50</v>
       </c>
@@ -4287,20 +4299,20 @@
         <f>COUNTIF(F34:F46,"&lt;&gt;"&amp;$A$27)*3</f>
         <v>39</v>
       </c>
-      <c r="F32" s="123">
+      <c r="F32" s="86">
         <f>SUM(F34:F46)</f>
         <v>0</v>
       </c>
-      <c r="G32" s="112" t="s">
+      <c r="G32" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="H32" s="74"/>
-      <c r="I32" s="74"/>
-      <c r="J32" s="74"/>
-      <c r="K32" s="74"/>
-      <c r="L32" s="74"/>
-      <c r="M32" s="74"/>
-      <c r="N32" s="69"/>
+      <c r="H32" s="82"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="82"/>
+      <c r="K32" s="82"/>
+      <c r="L32" s="82"/>
+      <c r="M32" s="82"/>
+      <c r="N32" s="106"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
@@ -4315,9 +4327,9 @@
       <c r="Z32" s="2"/>
     </row>
     <row r="33" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="71"/>
-      <c r="B33" s="75"/>
-      <c r="C33" s="122"/>
+      <c r="A33" s="84"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="85"/>
       <c r="D33" s="33" t="s">
         <v>52</v>
       </c>
@@ -4325,15 +4337,15 @@
         <f>F32/E32</f>
         <v>0</v>
       </c>
-      <c r="F33" s="124"/>
-      <c r="G33" s="113"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="75"/>
-      <c r="J33" s="75"/>
-      <c r="K33" s="75"/>
-      <c r="L33" s="75"/>
-      <c r="M33" s="75"/>
-      <c r="N33" s="72"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="107"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="66"/>
+      <c r="M33" s="66"/>
+      <c r="N33" s="67"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
@@ -4351,21 +4363,21 @@
       <c r="A34" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="128" t="s">
+      <c r="B34" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="88"/>
-      <c r="D34" s="88"/>
-      <c r="E34" s="89"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="80"/>
       <c r="F34" s="36"/>
-      <c r="G34" s="132"/>
-      <c r="H34" s="88"/>
-      <c r="I34" s="88"/>
-      <c r="J34" s="88"/>
-      <c r="K34" s="88"/>
-      <c r="L34" s="88"/>
-      <c r="M34" s="88"/>
-      <c r="N34" s="133"/>
+      <c r="G34" s="108"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="79"/>
+      <c r="J34" s="79"/>
+      <c r="K34" s="79"/>
+      <c r="L34" s="79"/>
+      <c r="M34" s="79"/>
+      <c r="N34" s="109"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
@@ -4383,21 +4395,21 @@
       <c r="A35" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="109" t="s">
+      <c r="B35" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="92"/>
-      <c r="D35" s="92"/>
-      <c r="E35" s="98"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="93"/>
       <c r="F35" s="37"/>
-      <c r="G35" s="111"/>
-      <c r="H35" s="92"/>
-      <c r="I35" s="92"/>
-      <c r="J35" s="92"/>
-      <c r="K35" s="92"/>
-      <c r="L35" s="92"/>
-      <c r="M35" s="92"/>
-      <c r="N35" s="100"/>
+      <c r="G35" s="97"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="76"/>
+      <c r="J35" s="76"/>
+      <c r="K35" s="76"/>
+      <c r="L35" s="76"/>
+      <c r="M35" s="76"/>
+      <c r="N35" s="77"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
@@ -4415,21 +4427,21 @@
       <c r="A36" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="B36" s="137" t="s">
+      <c r="B36" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="92"/>
-      <c r="D36" s="92"/>
-      <c r="E36" s="98"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="93"/>
       <c r="F36" s="37"/>
-      <c r="G36" s="111"/>
-      <c r="H36" s="92"/>
-      <c r="I36" s="92"/>
-      <c r="J36" s="92"/>
-      <c r="K36" s="92"/>
-      <c r="L36" s="92"/>
-      <c r="M36" s="92"/>
-      <c r="N36" s="100"/>
+      <c r="G36" s="97"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="76"/>
+      <c r="J36" s="76"/>
+      <c r="K36" s="76"/>
+      <c r="L36" s="76"/>
+      <c r="M36" s="76"/>
+      <c r="N36" s="77"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
@@ -4447,21 +4459,21 @@
       <c r="A37" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="109" t="s">
+      <c r="B37" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="92"/>
-      <c r="D37" s="92"/>
-      <c r="E37" s="98"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="93"/>
       <c r="F37" s="37"/>
-      <c r="G37" s="111"/>
-      <c r="H37" s="92"/>
-      <c r="I37" s="92"/>
-      <c r="J37" s="92"/>
-      <c r="K37" s="92"/>
-      <c r="L37" s="92"/>
-      <c r="M37" s="92"/>
-      <c r="N37" s="100"/>
+      <c r="G37" s="97"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="76"/>
+      <c r="J37" s="76"/>
+      <c r="K37" s="76"/>
+      <c r="L37" s="76"/>
+      <c r="M37" s="76"/>
+      <c r="N37" s="77"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
@@ -4479,21 +4491,21 @@
       <c r="A38" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="109" t="s">
+      <c r="B38" s="92" t="s">
         <v>62</v>
       </c>
-      <c r="C38" s="92"/>
-      <c r="D38" s="92"/>
-      <c r="E38" s="98"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="93"/>
       <c r="F38" s="37"/>
-      <c r="G38" s="111"/>
-      <c r="H38" s="92"/>
-      <c r="I38" s="92"/>
-      <c r="J38" s="92"/>
-      <c r="K38" s="92"/>
-      <c r="L38" s="92"/>
-      <c r="M38" s="92"/>
-      <c r="N38" s="100"/>
+      <c r="G38" s="97"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="76"/>
+      <c r="J38" s="76"/>
+      <c r="K38" s="76"/>
+      <c r="L38" s="76"/>
+      <c r="M38" s="76"/>
+      <c r="N38" s="77"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
@@ -4511,21 +4523,21 @@
       <c r="A39" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="110" t="s">
+      <c r="B39" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="C39" s="92"/>
-      <c r="D39" s="92"/>
-      <c r="E39" s="98"/>
+      <c r="C39" s="76"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="93"/>
       <c r="F39" s="37"/>
-      <c r="G39" s="111"/>
-      <c r="H39" s="92"/>
-      <c r="I39" s="92"/>
-      <c r="J39" s="92"/>
-      <c r="K39" s="92"/>
-      <c r="L39" s="92"/>
-      <c r="M39" s="92"/>
-      <c r="N39" s="100"/>
+      <c r="G39" s="97"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="76"/>
+      <c r="J39" s="76"/>
+      <c r="K39" s="76"/>
+      <c r="L39" s="76"/>
+      <c r="M39" s="76"/>
+      <c r="N39" s="77"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
@@ -4543,21 +4555,21 @@
       <c r="A40" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="B40" s="110" t="s">
+      <c r="B40" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="92"/>
-      <c r="D40" s="92"/>
-      <c r="E40" s="98"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="93"/>
       <c r="F40" s="37"/>
-      <c r="G40" s="111"/>
-      <c r="H40" s="92"/>
-      <c r="I40" s="92"/>
-      <c r="J40" s="92"/>
-      <c r="K40" s="92"/>
-      <c r="L40" s="92"/>
-      <c r="M40" s="92"/>
-      <c r="N40" s="100"/>
+      <c r="G40" s="97"/>
+      <c r="H40" s="76"/>
+      <c r="I40" s="76"/>
+      <c r="J40" s="76"/>
+      <c r="K40" s="76"/>
+      <c r="L40" s="76"/>
+      <c r="M40" s="76"/>
+      <c r="N40" s="77"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
@@ -4575,21 +4587,21 @@
       <c r="A41" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="B41" s="109" t="s">
+      <c r="B41" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="C41" s="92"/>
-      <c r="D41" s="92"/>
-      <c r="E41" s="98"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="93"/>
       <c r="F41" s="37"/>
-      <c r="G41" s="111"/>
-      <c r="H41" s="92"/>
-      <c r="I41" s="92"/>
-      <c r="J41" s="92"/>
-      <c r="K41" s="92"/>
-      <c r="L41" s="92"/>
-      <c r="M41" s="92"/>
-      <c r="N41" s="100"/>
+      <c r="G41" s="97"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="76"/>
+      <c r="J41" s="76"/>
+      <c r="K41" s="76"/>
+      <c r="L41" s="76"/>
+      <c r="M41" s="76"/>
+      <c r="N41" s="77"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
@@ -4607,21 +4619,21 @@
       <c r="A42" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="B42" s="109" t="s">
+      <c r="B42" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="C42" s="92"/>
-      <c r="D42" s="92"/>
-      <c r="E42" s="98"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="93"/>
       <c r="F42" s="37"/>
-      <c r="G42" s="111"/>
-      <c r="H42" s="92"/>
-      <c r="I42" s="92"/>
-      <c r="J42" s="92"/>
-      <c r="K42" s="92"/>
-      <c r="L42" s="92"/>
-      <c r="M42" s="92"/>
-      <c r="N42" s="100"/>
+      <c r="G42" s="97"/>
+      <c r="H42" s="76"/>
+      <c r="I42" s="76"/>
+      <c r="J42" s="76"/>
+      <c r="K42" s="76"/>
+      <c r="L42" s="76"/>
+      <c r="M42" s="76"/>
+      <c r="N42" s="77"/>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
@@ -4639,21 +4651,21 @@
       <c r="A43" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="B43" s="109" t="s">
+      <c r="B43" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="C43" s="92"/>
-      <c r="D43" s="92"/>
-      <c r="E43" s="98"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="93"/>
       <c r="F43" s="37"/>
-      <c r="G43" s="111"/>
-      <c r="H43" s="92"/>
-      <c r="I43" s="92"/>
-      <c r="J43" s="92"/>
-      <c r="K43" s="92"/>
-      <c r="L43" s="92"/>
-      <c r="M43" s="92"/>
-      <c r="N43" s="100"/>
+      <c r="G43" s="97"/>
+      <c r="H43" s="76"/>
+      <c r="I43" s="76"/>
+      <c r="J43" s="76"/>
+      <c r="K43" s="76"/>
+      <c r="L43" s="76"/>
+      <c r="M43" s="76"/>
+      <c r="N43" s="77"/>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
@@ -4671,21 +4683,21 @@
       <c r="A44" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="B44" s="109" t="s">
+      <c r="B44" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="C44" s="92"/>
-      <c r="D44" s="92"/>
-      <c r="E44" s="98"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="93"/>
       <c r="F44" s="37"/>
-      <c r="G44" s="111"/>
-      <c r="H44" s="92"/>
-      <c r="I44" s="92"/>
-      <c r="J44" s="92"/>
-      <c r="K44" s="92"/>
-      <c r="L44" s="92"/>
-      <c r="M44" s="92"/>
-      <c r="N44" s="100"/>
+      <c r="G44" s="97"/>
+      <c r="H44" s="76"/>
+      <c r="I44" s="76"/>
+      <c r="J44" s="76"/>
+      <c r="K44" s="76"/>
+      <c r="L44" s="76"/>
+      <c r="M44" s="76"/>
+      <c r="N44" s="77"/>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
@@ -4703,21 +4715,21 @@
       <c r="A45" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="B45" s="109" t="s">
+      <c r="B45" s="92" t="s">
         <v>76</v>
       </c>
-      <c r="C45" s="92"/>
-      <c r="D45" s="92"/>
-      <c r="E45" s="98"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="93"/>
       <c r="F45" s="37"/>
-      <c r="G45" s="111"/>
-      <c r="H45" s="92"/>
-      <c r="I45" s="92"/>
-      <c r="J45" s="92"/>
-      <c r="K45" s="92"/>
-      <c r="L45" s="92"/>
-      <c r="M45" s="92"/>
-      <c r="N45" s="100"/>
+      <c r="G45" s="97"/>
+      <c r="H45" s="76"/>
+      <c r="I45" s="76"/>
+      <c r="J45" s="76"/>
+      <c r="K45" s="76"/>
+      <c r="L45" s="76"/>
+      <c r="M45" s="76"/>
+      <c r="N45" s="77"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
@@ -4735,21 +4747,21 @@
       <c r="A46" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="B46" s="109" t="s">
+      <c r="B46" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="C46" s="92"/>
-      <c r="D46" s="92"/>
-      <c r="E46" s="98"/>
+      <c r="C46" s="76"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="93"/>
       <c r="F46" s="38"/>
-      <c r="G46" s="117"/>
-      <c r="H46" s="118"/>
-      <c r="I46" s="118"/>
-      <c r="J46" s="118"/>
-      <c r="K46" s="118"/>
-      <c r="L46" s="118"/>
-      <c r="M46" s="118"/>
-      <c r="N46" s="119"/>
+      <c r="G46" s="110"/>
+      <c r="H46" s="102"/>
+      <c r="I46" s="102"/>
+      <c r="J46" s="102"/>
+      <c r="K46" s="102"/>
+      <c r="L46" s="102"/>
+      <c r="M46" s="102"/>
+      <c r="N46" s="111"/>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
@@ -4764,11 +4776,11 @@
       <c r="Z46" s="2"/>
     </row>
     <row r="47" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="120" t="s">
+      <c r="A47" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="B47" s="74"/>
-      <c r="C47" s="121"/>
+      <c r="B47" s="82"/>
+      <c r="C47" s="83"/>
       <c r="D47" s="31" t="s">
         <v>50</v>
       </c>
@@ -4776,20 +4788,20 @@
         <f>((COUNTIF(F50:F55,"&lt;&gt;"&amp;$A$27)*3)+(COUNTIF(F67:F70,"&lt;&gt;"&amp;$A$27)*3)+(COUNTIF(F57:F65,"&lt;&gt;"&amp;$A$27)*3))</f>
         <v>57</v>
       </c>
-      <c r="F47" s="123">
+      <c r="F47" s="86">
         <f>F49+F56+F66</f>
         <v>0</v>
       </c>
-      <c r="G47" s="112" t="s">
+      <c r="G47" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="H47" s="74"/>
-      <c r="I47" s="74"/>
-      <c r="J47" s="74"/>
-      <c r="K47" s="74"/>
-      <c r="L47" s="74"/>
-      <c r="M47" s="74"/>
-      <c r="N47" s="69"/>
+      <c r="H47" s="82"/>
+      <c r="I47" s="82"/>
+      <c r="J47" s="82"/>
+      <c r="K47" s="82"/>
+      <c r="L47" s="82"/>
+      <c r="M47" s="82"/>
+      <c r="N47" s="106"/>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
@@ -4804,9 +4816,9 @@
       <c r="Z47" s="2"/>
     </row>
     <row r="48" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="71"/>
-      <c r="B48" s="75"/>
-      <c r="C48" s="122"/>
+      <c r="A48" s="84"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="85"/>
       <c r="D48" s="33" t="s">
         <v>52</v>
       </c>
@@ -4814,15 +4826,15 @@
         <f>F47/E47</f>
         <v>0</v>
       </c>
-      <c r="F48" s="124"/>
-      <c r="G48" s="113"/>
-      <c r="H48" s="75"/>
-      <c r="I48" s="75"/>
-      <c r="J48" s="75"/>
-      <c r="K48" s="75"/>
-      <c r="L48" s="75"/>
-      <c r="M48" s="75"/>
-      <c r="N48" s="72"/>
+      <c r="F48" s="87"/>
+      <c r="G48" s="107"/>
+      <c r="H48" s="66"/>
+      <c r="I48" s="66"/>
+      <c r="J48" s="66"/>
+      <c r="K48" s="66"/>
+      <c r="L48" s="66"/>
+      <c r="M48" s="66"/>
+      <c r="N48" s="67"/>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
@@ -4837,25 +4849,25 @@
       <c r="Z48" s="2"/>
     </row>
     <row r="49" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="125" t="s">
+      <c r="A49" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="B49" s="115"/>
-      <c r="C49" s="115"/>
-      <c r="D49" s="115"/>
-      <c r="E49" s="126"/>
+      <c r="B49" s="89"/>
+      <c r="C49" s="89"/>
+      <c r="D49" s="89"/>
+      <c r="E49" s="90"/>
       <c r="F49" s="39">
         <f>SUM(F50:F55)</f>
         <v>0</v>
       </c>
-      <c r="G49" s="114"/>
-      <c r="H49" s="115"/>
-      <c r="I49" s="115"/>
-      <c r="J49" s="115"/>
-      <c r="K49" s="115"/>
-      <c r="L49" s="115"/>
-      <c r="M49" s="115"/>
-      <c r="N49" s="116"/>
+      <c r="G49" s="128"/>
+      <c r="H49" s="89"/>
+      <c r="I49" s="89"/>
+      <c r="J49" s="89"/>
+      <c r="K49" s="89"/>
+      <c r="L49" s="89"/>
+      <c r="M49" s="89"/>
+      <c r="N49" s="129"/>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
@@ -4873,21 +4885,21 @@
       <c r="A50" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="B50" s="127" t="s">
+      <c r="B50" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="C50" s="115"/>
-      <c r="D50" s="115"/>
-      <c r="E50" s="126"/>
+      <c r="C50" s="89"/>
+      <c r="D50" s="89"/>
+      <c r="E50" s="90"/>
       <c r="F50" s="37"/>
-      <c r="G50" s="111"/>
-      <c r="H50" s="92"/>
-      <c r="I50" s="92"/>
-      <c r="J50" s="92"/>
-      <c r="K50" s="92"/>
-      <c r="L50" s="92"/>
-      <c r="M50" s="92"/>
-      <c r="N50" s="100"/>
+      <c r="G50" s="97"/>
+      <c r="H50" s="76"/>
+      <c r="I50" s="76"/>
+      <c r="J50" s="76"/>
+      <c r="K50" s="76"/>
+      <c r="L50" s="76"/>
+      <c r="M50" s="76"/>
+      <c r="N50" s="77"/>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
@@ -4905,21 +4917,21 @@
       <c r="A51" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="B51" s="128" t="s">
+      <c r="B51" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="C51" s="88"/>
-      <c r="D51" s="88"/>
-      <c r="E51" s="89"/>
+      <c r="C51" s="79"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="80"/>
       <c r="F51" s="37"/>
-      <c r="G51" s="111"/>
-      <c r="H51" s="92"/>
-      <c r="I51" s="92"/>
-      <c r="J51" s="92"/>
-      <c r="K51" s="92"/>
-      <c r="L51" s="92"/>
-      <c r="M51" s="92"/>
-      <c r="N51" s="100"/>
+      <c r="G51" s="97"/>
+      <c r="H51" s="76"/>
+      <c r="I51" s="76"/>
+      <c r="J51" s="76"/>
+      <c r="K51" s="76"/>
+      <c r="L51" s="76"/>
+      <c r="M51" s="76"/>
+      <c r="N51" s="77"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
@@ -4937,21 +4949,21 @@
       <c r="A52" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="B52" s="127" t="s">
+      <c r="B52" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="C52" s="115"/>
-      <c r="D52" s="115"/>
-      <c r="E52" s="126"/>
+      <c r="C52" s="89"/>
+      <c r="D52" s="89"/>
+      <c r="E52" s="90"/>
       <c r="F52" s="37"/>
-      <c r="G52" s="111"/>
-      <c r="H52" s="92"/>
-      <c r="I52" s="92"/>
-      <c r="J52" s="92"/>
-      <c r="K52" s="92"/>
-      <c r="L52" s="92"/>
-      <c r="M52" s="92"/>
-      <c r="N52" s="100"/>
+      <c r="G52" s="97"/>
+      <c r="H52" s="76"/>
+      <c r="I52" s="76"/>
+      <c r="J52" s="76"/>
+      <c r="K52" s="76"/>
+      <c r="L52" s="76"/>
+      <c r="M52" s="76"/>
+      <c r="N52" s="77"/>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
@@ -4969,21 +4981,21 @@
       <c r="A53" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="B53" s="127" t="s">
+      <c r="B53" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="C53" s="115"/>
-      <c r="D53" s="115"/>
-      <c r="E53" s="126"/>
+      <c r="C53" s="89"/>
+      <c r="D53" s="89"/>
+      <c r="E53" s="90"/>
       <c r="F53" s="37"/>
-      <c r="G53" s="111"/>
-      <c r="H53" s="92"/>
-      <c r="I53" s="92"/>
-      <c r="J53" s="92"/>
-      <c r="K53" s="92"/>
-      <c r="L53" s="92"/>
-      <c r="M53" s="92"/>
-      <c r="N53" s="100"/>
+      <c r="G53" s="97"/>
+      <c r="H53" s="76"/>
+      <c r="I53" s="76"/>
+      <c r="J53" s="76"/>
+      <c r="K53" s="76"/>
+      <c r="L53" s="76"/>
+      <c r="M53" s="76"/>
+      <c r="N53" s="77"/>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
@@ -5001,21 +5013,21 @@
       <c r="A54" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="B54" s="127" t="s">
+      <c r="B54" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="C54" s="115"/>
-      <c r="D54" s="115"/>
-      <c r="E54" s="126"/>
+      <c r="C54" s="89"/>
+      <c r="D54" s="89"/>
+      <c r="E54" s="90"/>
       <c r="F54" s="37"/>
-      <c r="G54" s="111"/>
-      <c r="H54" s="92"/>
-      <c r="I54" s="92"/>
-      <c r="J54" s="92"/>
-      <c r="K54" s="92"/>
-      <c r="L54" s="92"/>
-      <c r="M54" s="92"/>
-      <c r="N54" s="100"/>
+      <c r="G54" s="97"/>
+      <c r="H54" s="76"/>
+      <c r="I54" s="76"/>
+      <c r="J54" s="76"/>
+      <c r="K54" s="76"/>
+      <c r="L54" s="76"/>
+      <c r="M54" s="76"/>
+      <c r="N54" s="77"/>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
@@ -5033,21 +5045,21 @@
       <c r="A55" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="B55" s="128" t="s">
+      <c r="B55" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="C55" s="88"/>
-      <c r="D55" s="88"/>
-      <c r="E55" s="89"/>
+      <c r="C55" s="79"/>
+      <c r="D55" s="79"/>
+      <c r="E55" s="80"/>
       <c r="F55" s="37"/>
-      <c r="G55" s="111"/>
-      <c r="H55" s="92"/>
-      <c r="I55" s="92"/>
-      <c r="J55" s="92"/>
-      <c r="K55" s="92"/>
-      <c r="L55" s="92"/>
-      <c r="M55" s="92"/>
-      <c r="N55" s="100"/>
+      <c r="G55" s="97"/>
+      <c r="H55" s="76"/>
+      <c r="I55" s="76"/>
+      <c r="J55" s="76"/>
+      <c r="K55" s="76"/>
+      <c r="L55" s="76"/>
+      <c r="M55" s="76"/>
+      <c r="N55" s="77"/>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
@@ -5062,25 +5074,25 @@
       <c r="Z55" s="2"/>
     </row>
     <row r="56" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="125" t="s">
+      <c r="A56" s="96" t="s">
         <v>93</v>
       </c>
-      <c r="B56" s="115"/>
-      <c r="C56" s="115"/>
-      <c r="D56" s="115"/>
-      <c r="E56" s="126"/>
+      <c r="B56" s="89"/>
+      <c r="C56" s="89"/>
+      <c r="D56" s="89"/>
+      <c r="E56" s="90"/>
       <c r="F56" s="39">
         <f>SUM(F57:F65)</f>
         <v>0</v>
       </c>
-      <c r="G56" s="114"/>
-      <c r="H56" s="115"/>
-      <c r="I56" s="115"/>
-      <c r="J56" s="115"/>
-      <c r="K56" s="115"/>
-      <c r="L56" s="115"/>
-      <c r="M56" s="115"/>
-      <c r="N56" s="116"/>
+      <c r="G56" s="128"/>
+      <c r="H56" s="89"/>
+      <c r="I56" s="89"/>
+      <c r="J56" s="89"/>
+      <c r="K56" s="89"/>
+      <c r="L56" s="89"/>
+      <c r="M56" s="89"/>
+      <c r="N56" s="129"/>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
@@ -5098,21 +5110,21 @@
       <c r="A57" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="B57" s="128" t="s">
+      <c r="B57" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="C57" s="88"/>
-      <c r="D57" s="88"/>
-      <c r="E57" s="89"/>
+      <c r="C57" s="79"/>
+      <c r="D57" s="79"/>
+      <c r="E57" s="80"/>
       <c r="F57" s="37"/>
-      <c r="G57" s="111"/>
-      <c r="H57" s="92"/>
-      <c r="I57" s="92"/>
-      <c r="J57" s="92"/>
-      <c r="K57" s="92"/>
-      <c r="L57" s="92"/>
-      <c r="M57" s="92"/>
-      <c r="N57" s="100"/>
+      <c r="G57" s="97"/>
+      <c r="H57" s="76"/>
+      <c r="I57" s="76"/>
+      <c r="J57" s="76"/>
+      <c r="K57" s="76"/>
+      <c r="L57" s="76"/>
+      <c r="M57" s="76"/>
+      <c r="N57" s="77"/>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
@@ -5130,21 +5142,21 @@
       <c r="A58" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="B58" s="109" t="s">
+      <c r="B58" s="92" t="s">
         <v>97</v>
       </c>
-      <c r="C58" s="92"/>
-      <c r="D58" s="92"/>
-      <c r="E58" s="98"/>
+      <c r="C58" s="76"/>
+      <c r="D58" s="76"/>
+      <c r="E58" s="93"/>
       <c r="F58" s="37"/>
-      <c r="G58" s="111"/>
-      <c r="H58" s="92"/>
-      <c r="I58" s="92"/>
-      <c r="J58" s="92"/>
-      <c r="K58" s="92"/>
-      <c r="L58" s="92"/>
-      <c r="M58" s="92"/>
-      <c r="N58" s="100"/>
+      <c r="G58" s="97"/>
+      <c r="H58" s="76"/>
+      <c r="I58" s="76"/>
+      <c r="J58" s="76"/>
+      <c r="K58" s="76"/>
+      <c r="L58" s="76"/>
+      <c r="M58" s="76"/>
+      <c r="N58" s="77"/>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
@@ -5162,21 +5174,21 @@
       <c r="A59" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="B59" s="128" t="s">
+      <c r="B59" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="C59" s="88"/>
-      <c r="D59" s="88"/>
-      <c r="E59" s="89"/>
+      <c r="C59" s="79"/>
+      <c r="D59" s="79"/>
+      <c r="E59" s="80"/>
       <c r="F59" s="37"/>
-      <c r="G59" s="111"/>
-      <c r="H59" s="92"/>
-      <c r="I59" s="92"/>
-      <c r="J59" s="92"/>
-      <c r="K59" s="92"/>
-      <c r="L59" s="92"/>
-      <c r="M59" s="92"/>
-      <c r="N59" s="100"/>
+      <c r="G59" s="97"/>
+      <c r="H59" s="76"/>
+      <c r="I59" s="76"/>
+      <c r="J59" s="76"/>
+      <c r="K59" s="76"/>
+      <c r="L59" s="76"/>
+      <c r="M59" s="76"/>
+      <c r="N59" s="77"/>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
@@ -5194,21 +5206,21 @@
       <c r="A60" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="B60" s="128" t="s">
+      <c r="B60" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="C60" s="88"/>
-      <c r="D60" s="88"/>
-      <c r="E60" s="89"/>
+      <c r="C60" s="79"/>
+      <c r="D60" s="79"/>
+      <c r="E60" s="80"/>
       <c r="F60" s="37"/>
-      <c r="G60" s="111"/>
-      <c r="H60" s="92"/>
-      <c r="I60" s="92"/>
-      <c r="J60" s="92"/>
-      <c r="K60" s="92"/>
-      <c r="L60" s="92"/>
-      <c r="M60" s="92"/>
-      <c r="N60" s="100"/>
+      <c r="G60" s="97"/>
+      <c r="H60" s="76"/>
+      <c r="I60" s="76"/>
+      <c r="J60" s="76"/>
+      <c r="K60" s="76"/>
+      <c r="L60" s="76"/>
+      <c r="M60" s="76"/>
+      <c r="N60" s="77"/>
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
@@ -5226,21 +5238,21 @@
       <c r="A61" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="B61" s="128" t="s">
+      <c r="B61" s="78" t="s">
         <v>103</v>
       </c>
-      <c r="C61" s="88"/>
-      <c r="D61" s="88"/>
-      <c r="E61" s="89"/>
+      <c r="C61" s="79"/>
+      <c r="D61" s="79"/>
+      <c r="E61" s="80"/>
       <c r="F61" s="37"/>
-      <c r="G61" s="111"/>
-      <c r="H61" s="92"/>
-      <c r="I61" s="92"/>
-      <c r="J61" s="92"/>
-      <c r="K61" s="92"/>
-      <c r="L61" s="92"/>
-      <c r="M61" s="92"/>
-      <c r="N61" s="100"/>
+      <c r="G61" s="97"/>
+      <c r="H61" s="76"/>
+      <c r="I61" s="76"/>
+      <c r="J61" s="76"/>
+      <c r="K61" s="76"/>
+      <c r="L61" s="76"/>
+      <c r="M61" s="76"/>
+      <c r="N61" s="77"/>
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
@@ -5258,21 +5270,21 @@
       <c r="A62" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="B62" s="128" t="s">
+      <c r="B62" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="C62" s="88"/>
-      <c r="D62" s="88"/>
-      <c r="E62" s="89"/>
+      <c r="C62" s="79"/>
+      <c r="D62" s="79"/>
+      <c r="E62" s="80"/>
       <c r="F62" s="37"/>
-      <c r="G62" s="111"/>
-      <c r="H62" s="92"/>
-      <c r="I62" s="92"/>
-      <c r="J62" s="92"/>
-      <c r="K62" s="92"/>
-      <c r="L62" s="92"/>
-      <c r="M62" s="92"/>
-      <c r="N62" s="100"/>
+      <c r="G62" s="97"/>
+      <c r="H62" s="76"/>
+      <c r="I62" s="76"/>
+      <c r="J62" s="76"/>
+      <c r="K62" s="76"/>
+      <c r="L62" s="76"/>
+      <c r="M62" s="76"/>
+      <c r="N62" s="77"/>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
@@ -5290,21 +5302,21 @@
       <c r="A63" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="B63" s="128" t="s">
+      <c r="B63" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="C63" s="88"/>
-      <c r="D63" s="88"/>
-      <c r="E63" s="89"/>
+      <c r="C63" s="79"/>
+      <c r="D63" s="79"/>
+      <c r="E63" s="80"/>
       <c r="F63" s="37"/>
-      <c r="G63" s="111"/>
-      <c r="H63" s="92"/>
-      <c r="I63" s="92"/>
-      <c r="J63" s="92"/>
-      <c r="K63" s="92"/>
-      <c r="L63" s="92"/>
-      <c r="M63" s="92"/>
-      <c r="N63" s="100"/>
+      <c r="G63" s="97"/>
+      <c r="H63" s="76"/>
+      <c r="I63" s="76"/>
+      <c r="J63" s="76"/>
+      <c r="K63" s="76"/>
+      <c r="L63" s="76"/>
+      <c r="M63" s="76"/>
+      <c r="N63" s="77"/>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
@@ -5322,21 +5334,21 @@
       <c r="A64" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="B64" s="128" t="s">
+      <c r="B64" s="78" t="s">
         <v>109</v>
       </c>
-      <c r="C64" s="88"/>
-      <c r="D64" s="88"/>
-      <c r="E64" s="89"/>
+      <c r="C64" s="79"/>
+      <c r="D64" s="79"/>
+      <c r="E64" s="80"/>
       <c r="F64" s="37"/>
-      <c r="G64" s="111"/>
-      <c r="H64" s="92"/>
-      <c r="I64" s="92"/>
-      <c r="J64" s="92"/>
-      <c r="K64" s="92"/>
-      <c r="L64" s="92"/>
-      <c r="M64" s="92"/>
-      <c r="N64" s="100"/>
+      <c r="G64" s="97"/>
+      <c r="H64" s="76"/>
+      <c r="I64" s="76"/>
+      <c r="J64" s="76"/>
+      <c r="K64" s="76"/>
+      <c r="L64" s="76"/>
+      <c r="M64" s="76"/>
+      <c r="N64" s="77"/>
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
@@ -5354,21 +5366,21 @@
       <c r="A65" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="B65" s="128" t="s">
+      <c r="B65" s="78" t="s">
         <v>111</v>
       </c>
-      <c r="C65" s="88"/>
-      <c r="D65" s="88"/>
-      <c r="E65" s="89"/>
+      <c r="C65" s="79"/>
+      <c r="D65" s="79"/>
+      <c r="E65" s="80"/>
       <c r="F65" s="37"/>
-      <c r="G65" s="111"/>
-      <c r="H65" s="92"/>
-      <c r="I65" s="92"/>
-      <c r="J65" s="92"/>
-      <c r="K65" s="92"/>
-      <c r="L65" s="92"/>
-      <c r="M65" s="92"/>
-      <c r="N65" s="100"/>
+      <c r="G65" s="97"/>
+      <c r="H65" s="76"/>
+      <c r="I65" s="76"/>
+      <c r="J65" s="76"/>
+      <c r="K65" s="76"/>
+      <c r="L65" s="76"/>
+      <c r="M65" s="76"/>
+      <c r="N65" s="77"/>
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
@@ -5383,25 +5395,25 @@
       <c r="Z65" s="2"/>
     </row>
     <row r="66" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="141" t="s">
+      <c r="A66" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="B66" s="92"/>
-      <c r="C66" s="92"/>
-      <c r="D66" s="92"/>
-      <c r="E66" s="98"/>
+      <c r="B66" s="76"/>
+      <c r="C66" s="76"/>
+      <c r="D66" s="76"/>
+      <c r="E66" s="93"/>
       <c r="F66" s="39">
         <f>SUM(F67:F70)</f>
         <v>0</v>
       </c>
-      <c r="G66" s="114"/>
-      <c r="H66" s="115"/>
-      <c r="I66" s="115"/>
-      <c r="J66" s="115"/>
-      <c r="K66" s="115"/>
-      <c r="L66" s="115"/>
-      <c r="M66" s="115"/>
-      <c r="N66" s="116"/>
+      <c r="G66" s="128"/>
+      <c r="H66" s="89"/>
+      <c r="I66" s="89"/>
+      <c r="J66" s="89"/>
+      <c r="K66" s="89"/>
+      <c r="L66" s="89"/>
+      <c r="M66" s="89"/>
+      <c r="N66" s="129"/>
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
@@ -5419,21 +5431,21 @@
       <c r="A67" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="B67" s="128" t="s">
+      <c r="B67" s="78" t="s">
         <v>114</v>
       </c>
-      <c r="C67" s="88"/>
-      <c r="D67" s="88"/>
-      <c r="E67" s="89"/>
+      <c r="C67" s="79"/>
+      <c r="D67" s="79"/>
+      <c r="E67" s="80"/>
       <c r="F67" s="37"/>
-      <c r="G67" s="111"/>
-      <c r="H67" s="92"/>
-      <c r="I67" s="92"/>
-      <c r="J67" s="92"/>
-      <c r="K67" s="92"/>
-      <c r="L67" s="92"/>
-      <c r="M67" s="92"/>
-      <c r="N67" s="98"/>
+      <c r="G67" s="97"/>
+      <c r="H67" s="76"/>
+      <c r="I67" s="76"/>
+      <c r="J67" s="76"/>
+      <c r="K67" s="76"/>
+      <c r="L67" s="76"/>
+      <c r="M67" s="76"/>
+      <c r="N67" s="93"/>
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
@@ -5451,21 +5463,21 @@
       <c r="A68" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="B68" s="128" t="s">
+      <c r="B68" s="78" t="s">
         <v>116</v>
       </c>
-      <c r="C68" s="88"/>
-      <c r="D68" s="88"/>
-      <c r="E68" s="89"/>
+      <c r="C68" s="79"/>
+      <c r="D68" s="79"/>
+      <c r="E68" s="80"/>
       <c r="F68" s="37"/>
-      <c r="G68" s="111"/>
-      <c r="H68" s="92"/>
-      <c r="I68" s="92"/>
-      <c r="J68" s="92"/>
-      <c r="K68" s="92"/>
-      <c r="L68" s="92"/>
-      <c r="M68" s="92"/>
-      <c r="N68" s="98"/>
+      <c r="G68" s="97"/>
+      <c r="H68" s="76"/>
+      <c r="I68" s="76"/>
+      <c r="J68" s="76"/>
+      <c r="K68" s="76"/>
+      <c r="L68" s="76"/>
+      <c r="M68" s="76"/>
+      <c r="N68" s="93"/>
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
@@ -5483,21 +5495,21 @@
       <c r="A69" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="B69" s="128" t="s">
+      <c r="B69" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="C69" s="88"/>
-      <c r="D69" s="88"/>
-      <c r="E69" s="89"/>
+      <c r="C69" s="79"/>
+      <c r="D69" s="79"/>
+      <c r="E69" s="80"/>
       <c r="F69" s="43"/>
-      <c r="G69" s="111"/>
-      <c r="H69" s="92"/>
-      <c r="I69" s="92"/>
-      <c r="J69" s="92"/>
-      <c r="K69" s="92"/>
-      <c r="L69" s="92"/>
-      <c r="M69" s="92"/>
-      <c r="N69" s="98"/>
+      <c r="G69" s="97"/>
+      <c r="H69" s="76"/>
+      <c r="I69" s="76"/>
+      <c r="J69" s="76"/>
+      <c r="K69" s="76"/>
+      <c r="L69" s="76"/>
+      <c r="M69" s="76"/>
+      <c r="N69" s="93"/>
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
@@ -5515,21 +5527,21 @@
       <c r="A70" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="B70" s="128" t="s">
+      <c r="B70" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="C70" s="88"/>
-      <c r="D70" s="88"/>
-      <c r="E70" s="89"/>
+      <c r="C70" s="79"/>
+      <c r="D70" s="79"/>
+      <c r="E70" s="80"/>
       <c r="F70" s="37"/>
-      <c r="G70" s="111"/>
-      <c r="H70" s="92"/>
-      <c r="I70" s="92"/>
-      <c r="J70" s="92"/>
-      <c r="K70" s="92"/>
-      <c r="L70" s="92"/>
-      <c r="M70" s="92"/>
-      <c r="N70" s="98"/>
+      <c r="G70" s="97"/>
+      <c r="H70" s="76"/>
+      <c r="I70" s="76"/>
+      <c r="J70" s="76"/>
+      <c r="K70" s="76"/>
+      <c r="L70" s="76"/>
+      <c r="M70" s="76"/>
+      <c r="N70" s="93"/>
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
@@ -5544,11 +5556,11 @@
       <c r="Z70" s="2"/>
     </row>
     <row r="71" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="120" t="s">
+      <c r="A71" s="81" t="s">
         <v>121</v>
       </c>
-      <c r="B71" s="74"/>
-      <c r="C71" s="121"/>
+      <c r="B71" s="82"/>
+      <c r="C71" s="83"/>
       <c r="D71" s="31" t="s">
         <v>50</v>
       </c>
@@ -5556,20 +5568,20 @@
         <f>(COUNTIF(F73:F81,"&lt;&gt;"&amp;$A$27))*3</f>
         <v>27</v>
       </c>
-      <c r="F71" s="154">
+      <c r="F71" s="95">
         <f>SUM(F73:F81)</f>
         <v>0</v>
       </c>
-      <c r="G71" s="129" t="s">
+      <c r="G71" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="H71" s="130"/>
-      <c r="I71" s="130"/>
-      <c r="J71" s="130"/>
-      <c r="K71" s="130"/>
-      <c r="L71" s="130"/>
-      <c r="M71" s="130"/>
-      <c r="N71" s="131"/>
+      <c r="H71" s="132"/>
+      <c r="I71" s="132"/>
+      <c r="J71" s="132"/>
+      <c r="K71" s="132"/>
+      <c r="L71" s="132"/>
+      <c r="M71" s="132"/>
+      <c r="N71" s="133"/>
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
@@ -5584,9 +5596,9 @@
       <c r="Z71" s="2"/>
     </row>
     <row r="72" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="71"/>
-      <c r="B72" s="75"/>
-      <c r="C72" s="122"/>
+      <c r="A72" s="84"/>
+      <c r="B72" s="66"/>
+      <c r="C72" s="85"/>
       <c r="D72" s="33" t="s">
         <v>52</v>
       </c>
@@ -5594,15 +5606,15 @@
         <f>F71/E71</f>
         <v>0</v>
       </c>
-      <c r="F72" s="124"/>
-      <c r="G72" s="113"/>
-      <c r="H72" s="75"/>
-      <c r="I72" s="75"/>
-      <c r="J72" s="75"/>
-      <c r="K72" s="75"/>
-      <c r="L72" s="75"/>
-      <c r="M72" s="75"/>
-      <c r="N72" s="72"/>
+      <c r="F72" s="87"/>
+      <c r="G72" s="107"/>
+      <c r="H72" s="66"/>
+      <c r="I72" s="66"/>
+      <c r="J72" s="66"/>
+      <c r="K72" s="66"/>
+      <c r="L72" s="66"/>
+      <c r="M72" s="66"/>
+      <c r="N72" s="67"/>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
@@ -5620,21 +5632,21 @@
       <c r="A73" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="B73" s="128" t="s">
+      <c r="B73" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="C73" s="88"/>
-      <c r="D73" s="88"/>
-      <c r="E73" s="89"/>
+      <c r="C73" s="79"/>
+      <c r="D73" s="79"/>
+      <c r="E73" s="80"/>
       <c r="F73" s="36"/>
-      <c r="G73" s="132"/>
-      <c r="H73" s="88"/>
-      <c r="I73" s="88"/>
-      <c r="J73" s="88"/>
-      <c r="K73" s="88"/>
-      <c r="L73" s="88"/>
-      <c r="M73" s="88"/>
-      <c r="N73" s="133"/>
+      <c r="G73" s="108"/>
+      <c r="H73" s="79"/>
+      <c r="I73" s="79"/>
+      <c r="J73" s="79"/>
+      <c r="K73" s="79"/>
+      <c r="L73" s="79"/>
+      <c r="M73" s="79"/>
+      <c r="N73" s="109"/>
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
@@ -5652,21 +5664,21 @@
       <c r="A74" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="B74" s="128" t="s">
+      <c r="B74" s="78" t="s">
         <v>125</v>
       </c>
-      <c r="C74" s="88"/>
-      <c r="D74" s="88"/>
-      <c r="E74" s="89"/>
+      <c r="C74" s="79"/>
+      <c r="D74" s="79"/>
+      <c r="E74" s="80"/>
       <c r="F74" s="37"/>
-      <c r="G74" s="111"/>
-      <c r="H74" s="92"/>
-      <c r="I74" s="92"/>
-      <c r="J74" s="92"/>
-      <c r="K74" s="92"/>
-      <c r="L74" s="92"/>
-      <c r="M74" s="92"/>
-      <c r="N74" s="100"/>
+      <c r="G74" s="97"/>
+      <c r="H74" s="76"/>
+      <c r="I74" s="76"/>
+      <c r="J74" s="76"/>
+      <c r="K74" s="76"/>
+      <c r="L74" s="76"/>
+      <c r="M74" s="76"/>
+      <c r="N74" s="77"/>
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
@@ -5684,21 +5696,21 @@
       <c r="A75" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="B75" s="128" t="s">
+      <c r="B75" s="78" t="s">
         <v>127</v>
       </c>
-      <c r="C75" s="88"/>
-      <c r="D75" s="88"/>
-      <c r="E75" s="89"/>
+      <c r="C75" s="79"/>
+      <c r="D75" s="79"/>
+      <c r="E75" s="80"/>
       <c r="F75" s="37"/>
-      <c r="G75" s="111"/>
-      <c r="H75" s="92"/>
-      <c r="I75" s="92"/>
-      <c r="J75" s="92"/>
-      <c r="K75" s="92"/>
-      <c r="L75" s="92"/>
-      <c r="M75" s="92"/>
-      <c r="N75" s="100"/>
+      <c r="G75" s="97"/>
+      <c r="H75" s="76"/>
+      <c r="I75" s="76"/>
+      <c r="J75" s="76"/>
+      <c r="K75" s="76"/>
+      <c r="L75" s="76"/>
+      <c r="M75" s="76"/>
+      <c r="N75" s="77"/>
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
       <c r="Q75" s="2"/>
@@ -5716,21 +5728,21 @@
       <c r="A76" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="B76" s="128" t="s">
+      <c r="B76" s="78" t="s">
         <v>129</v>
       </c>
-      <c r="C76" s="88"/>
-      <c r="D76" s="88"/>
-      <c r="E76" s="89"/>
+      <c r="C76" s="79"/>
+      <c r="D76" s="79"/>
+      <c r="E76" s="80"/>
       <c r="F76" s="37"/>
-      <c r="G76" s="111"/>
-      <c r="H76" s="92"/>
-      <c r="I76" s="92"/>
-      <c r="J76" s="92"/>
-      <c r="K76" s="92"/>
-      <c r="L76" s="92"/>
-      <c r="M76" s="92"/>
-      <c r="N76" s="100"/>
+      <c r="G76" s="97"/>
+      <c r="H76" s="76"/>
+      <c r="I76" s="76"/>
+      <c r="J76" s="76"/>
+      <c r="K76" s="76"/>
+      <c r="L76" s="76"/>
+      <c r="M76" s="76"/>
+      <c r="N76" s="77"/>
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
       <c r="Q76" s="2"/>
@@ -5748,21 +5760,21 @@
       <c r="A77" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="B77" s="128" t="s">
+      <c r="B77" s="78" t="s">
         <v>131</v>
       </c>
-      <c r="C77" s="88"/>
-      <c r="D77" s="88"/>
-      <c r="E77" s="89"/>
+      <c r="C77" s="79"/>
+      <c r="D77" s="79"/>
+      <c r="E77" s="80"/>
       <c r="F77" s="37"/>
-      <c r="G77" s="111"/>
-      <c r="H77" s="92"/>
-      <c r="I77" s="92"/>
-      <c r="J77" s="92"/>
-      <c r="K77" s="92"/>
-      <c r="L77" s="92"/>
-      <c r="M77" s="92"/>
-      <c r="N77" s="100"/>
+      <c r="G77" s="97"/>
+      <c r="H77" s="76"/>
+      <c r="I77" s="76"/>
+      <c r="J77" s="76"/>
+      <c r="K77" s="76"/>
+      <c r="L77" s="76"/>
+      <c r="M77" s="76"/>
+      <c r="N77" s="77"/>
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
       <c r="Q77" s="2"/>
@@ -5780,21 +5792,21 @@
       <c r="A78" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="B78" s="128" t="s">
+      <c r="B78" s="78" t="s">
         <v>133</v>
       </c>
-      <c r="C78" s="88"/>
-      <c r="D78" s="88"/>
-      <c r="E78" s="89"/>
+      <c r="C78" s="79"/>
+      <c r="D78" s="79"/>
+      <c r="E78" s="80"/>
       <c r="F78" s="37"/>
-      <c r="G78" s="111"/>
-      <c r="H78" s="92"/>
-      <c r="I78" s="92"/>
-      <c r="J78" s="92"/>
-      <c r="K78" s="92"/>
-      <c r="L78" s="92"/>
-      <c r="M78" s="92"/>
-      <c r="N78" s="100"/>
+      <c r="G78" s="97"/>
+      <c r="H78" s="76"/>
+      <c r="I78" s="76"/>
+      <c r="J78" s="76"/>
+      <c r="K78" s="76"/>
+      <c r="L78" s="76"/>
+      <c r="M78" s="76"/>
+      <c r="N78" s="77"/>
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
       <c r="Q78" s="2"/>
@@ -5812,21 +5824,21 @@
       <c r="A79" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="B79" s="128" t="s">
+      <c r="B79" s="78" t="s">
         <v>135</v>
       </c>
-      <c r="C79" s="88"/>
-      <c r="D79" s="88"/>
-      <c r="E79" s="89"/>
+      <c r="C79" s="79"/>
+      <c r="D79" s="79"/>
+      <c r="E79" s="80"/>
       <c r="F79" s="37"/>
-      <c r="G79" s="111"/>
-      <c r="H79" s="92"/>
-      <c r="I79" s="92"/>
-      <c r="J79" s="92"/>
-      <c r="K79" s="92"/>
-      <c r="L79" s="92"/>
-      <c r="M79" s="92"/>
-      <c r="N79" s="100"/>
+      <c r="G79" s="97"/>
+      <c r="H79" s="76"/>
+      <c r="I79" s="76"/>
+      <c r="J79" s="76"/>
+      <c r="K79" s="76"/>
+      <c r="L79" s="76"/>
+      <c r="M79" s="76"/>
+      <c r="N79" s="77"/>
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
       <c r="Q79" s="2"/>
@@ -5844,21 +5856,21 @@
       <c r="A80" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="B80" s="128" t="s">
+      <c r="B80" s="78" t="s">
         <v>137</v>
       </c>
-      <c r="C80" s="88"/>
-      <c r="D80" s="88"/>
-      <c r="E80" s="89"/>
+      <c r="C80" s="79"/>
+      <c r="D80" s="79"/>
+      <c r="E80" s="80"/>
       <c r="F80" s="37"/>
-      <c r="G80" s="111"/>
-      <c r="H80" s="92"/>
-      <c r="I80" s="92"/>
-      <c r="J80" s="92"/>
-      <c r="K80" s="92"/>
-      <c r="L80" s="92"/>
-      <c r="M80" s="92"/>
-      <c r="N80" s="100"/>
+      <c r="G80" s="97"/>
+      <c r="H80" s="76"/>
+      <c r="I80" s="76"/>
+      <c r="J80" s="76"/>
+      <c r="K80" s="76"/>
+      <c r="L80" s="76"/>
+      <c r="M80" s="76"/>
+      <c r="N80" s="77"/>
       <c r="O80" s="2"/>
       <c r="P80" s="2"/>
       <c r="Q80" s="2"/>
@@ -5876,21 +5888,21 @@
       <c r="A81" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="B81" s="128" t="s">
+      <c r="B81" s="78" t="s">
         <v>139</v>
       </c>
-      <c r="C81" s="88"/>
-      <c r="D81" s="88"/>
-      <c r="E81" s="89"/>
+      <c r="C81" s="79"/>
+      <c r="D81" s="79"/>
+      <c r="E81" s="80"/>
       <c r="F81" s="38"/>
-      <c r="G81" s="117"/>
-      <c r="H81" s="118"/>
-      <c r="I81" s="118"/>
-      <c r="J81" s="118"/>
-      <c r="K81" s="118"/>
-      <c r="L81" s="118"/>
-      <c r="M81" s="118"/>
-      <c r="N81" s="119"/>
+      <c r="G81" s="110"/>
+      <c r="H81" s="102"/>
+      <c r="I81" s="102"/>
+      <c r="J81" s="102"/>
+      <c r="K81" s="102"/>
+      <c r="L81" s="102"/>
+      <c r="M81" s="102"/>
+      <c r="N81" s="111"/>
       <c r="O81" s="2"/>
       <c r="P81" s="2"/>
       <c r="Q81" s="2"/>
@@ -5905,11 +5917,11 @@
       <c r="Z81" s="2"/>
     </row>
     <row r="82" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="120" t="s">
+      <c r="A82" s="81" t="s">
         <v>140</v>
       </c>
-      <c r="B82" s="74"/>
-      <c r="C82" s="121"/>
+      <c r="B82" s="82"/>
+      <c r="C82" s="83"/>
       <c r="D82" s="31" t="s">
         <v>50</v>
       </c>
@@ -5917,20 +5929,20 @@
         <f>COUNTIF(F84:F94,"&lt;&gt;"&amp;$A$27)*3</f>
         <v>33</v>
       </c>
-      <c r="F82" s="123">
+      <c r="F82" s="86">
         <f>SUM(F84:F94)</f>
         <v>0</v>
       </c>
-      <c r="G82" s="112" t="s">
+      <c r="G82" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="H82" s="74"/>
-      <c r="I82" s="74"/>
-      <c r="J82" s="74"/>
-      <c r="K82" s="74"/>
-      <c r="L82" s="74"/>
-      <c r="M82" s="74"/>
-      <c r="N82" s="69"/>
+      <c r="H82" s="82"/>
+      <c r="I82" s="82"/>
+      <c r="J82" s="82"/>
+      <c r="K82" s="82"/>
+      <c r="L82" s="82"/>
+      <c r="M82" s="82"/>
+      <c r="N82" s="106"/>
       <c r="O82" s="2"/>
       <c r="P82" s="2"/>
       <c r="Q82" s="2"/>
@@ -5945,9 +5957,9 @@
       <c r="Z82" s="2"/>
     </row>
     <row r="83" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="71"/>
-      <c r="B83" s="75"/>
-      <c r="C83" s="122"/>
+      <c r="A83" s="84"/>
+      <c r="B83" s="66"/>
+      <c r="C83" s="85"/>
       <c r="D83" s="33" t="s">
         <v>52</v>
       </c>
@@ -5955,15 +5967,15 @@
         <f>F82/E82</f>
         <v>0</v>
       </c>
-      <c r="F83" s="124"/>
-      <c r="G83" s="113"/>
-      <c r="H83" s="75"/>
-      <c r="I83" s="75"/>
-      <c r="J83" s="75"/>
-      <c r="K83" s="75"/>
-      <c r="L83" s="75"/>
-      <c r="M83" s="75"/>
-      <c r="N83" s="72"/>
+      <c r="F83" s="87"/>
+      <c r="G83" s="107"/>
+      <c r="H83" s="66"/>
+      <c r="I83" s="66"/>
+      <c r="J83" s="66"/>
+      <c r="K83" s="66"/>
+      <c r="L83" s="66"/>
+      <c r="M83" s="66"/>
+      <c r="N83" s="67"/>
       <c r="O83" s="2"/>
       <c r="P83" s="2"/>
       <c r="Q83" s="2"/>
@@ -5981,21 +5993,21 @@
       <c r="A84" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="B84" s="128" t="s">
+      <c r="B84" s="78" t="s">
         <v>142</v>
       </c>
-      <c r="C84" s="88"/>
-      <c r="D84" s="88"/>
-      <c r="E84" s="89"/>
+      <c r="C84" s="79"/>
+      <c r="D84" s="79"/>
+      <c r="E84" s="80"/>
       <c r="F84" s="48"/>
-      <c r="G84" s="134"/>
-      <c r="H84" s="74"/>
-      <c r="I84" s="74"/>
-      <c r="J84" s="74"/>
-      <c r="K84" s="74"/>
-      <c r="L84" s="74"/>
-      <c r="M84" s="74"/>
-      <c r="N84" s="69"/>
+      <c r="G84" s="130"/>
+      <c r="H84" s="82"/>
+      <c r="I84" s="82"/>
+      <c r="J84" s="82"/>
+      <c r="K84" s="82"/>
+      <c r="L84" s="82"/>
+      <c r="M84" s="82"/>
+      <c r="N84" s="106"/>
       <c r="O84" s="2"/>
       <c r="P84" s="2"/>
       <c r="Q84" s="2"/>
@@ -6013,21 +6025,21 @@
       <c r="A85" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="B85" s="128" t="s">
+      <c r="B85" s="78" t="s">
         <v>144</v>
       </c>
-      <c r="C85" s="88"/>
-      <c r="D85" s="88"/>
-      <c r="E85" s="89"/>
+      <c r="C85" s="79"/>
+      <c r="D85" s="79"/>
+      <c r="E85" s="80"/>
       <c r="F85" s="37"/>
-      <c r="G85" s="111"/>
-      <c r="H85" s="92"/>
-      <c r="I85" s="92"/>
-      <c r="J85" s="92"/>
-      <c r="K85" s="92"/>
-      <c r="L85" s="92"/>
-      <c r="M85" s="92"/>
-      <c r="N85" s="100"/>
+      <c r="G85" s="97"/>
+      <c r="H85" s="76"/>
+      <c r="I85" s="76"/>
+      <c r="J85" s="76"/>
+      <c r="K85" s="76"/>
+      <c r="L85" s="76"/>
+      <c r="M85" s="76"/>
+      <c r="N85" s="77"/>
       <c r="O85" s="2"/>
       <c r="P85" s="2"/>
       <c r="Q85" s="2"/>
@@ -6045,21 +6057,21 @@
       <c r="A86" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="B86" s="109" t="s">
+      <c r="B86" s="92" t="s">
         <v>146</v>
       </c>
-      <c r="C86" s="92"/>
-      <c r="D86" s="92"/>
-      <c r="E86" s="98"/>
+      <c r="C86" s="76"/>
+      <c r="D86" s="76"/>
+      <c r="E86" s="93"/>
       <c r="F86" s="37"/>
-      <c r="G86" s="111"/>
-      <c r="H86" s="92"/>
-      <c r="I86" s="92"/>
-      <c r="J86" s="92"/>
-      <c r="K86" s="92"/>
-      <c r="L86" s="92"/>
-      <c r="M86" s="92"/>
-      <c r="N86" s="100"/>
+      <c r="G86" s="97"/>
+      <c r="H86" s="76"/>
+      <c r="I86" s="76"/>
+      <c r="J86" s="76"/>
+      <c r="K86" s="76"/>
+      <c r="L86" s="76"/>
+      <c r="M86" s="76"/>
+      <c r="N86" s="77"/>
       <c r="O86" s="2"/>
       <c r="P86" s="2"/>
       <c r="Q86" s="2"/>
@@ -6077,21 +6089,21 @@
       <c r="A87" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="B87" s="128" t="s">
+      <c r="B87" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="C87" s="88"/>
-      <c r="D87" s="88"/>
-      <c r="E87" s="89"/>
+      <c r="C87" s="79"/>
+      <c r="D87" s="79"/>
+      <c r="E87" s="80"/>
       <c r="F87" s="37"/>
-      <c r="G87" s="111"/>
-      <c r="H87" s="92"/>
-      <c r="I87" s="92"/>
-      <c r="J87" s="92"/>
-      <c r="K87" s="92"/>
-      <c r="L87" s="92"/>
-      <c r="M87" s="92"/>
-      <c r="N87" s="100"/>
+      <c r="G87" s="97"/>
+      <c r="H87" s="76"/>
+      <c r="I87" s="76"/>
+      <c r="J87" s="76"/>
+      <c r="K87" s="76"/>
+      <c r="L87" s="76"/>
+      <c r="M87" s="76"/>
+      <c r="N87" s="77"/>
       <c r="O87" s="2"/>
       <c r="P87" s="2"/>
       <c r="Q87" s="2"/>
@@ -6109,21 +6121,21 @@
       <c r="A88" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="B88" s="128" t="s">
+      <c r="B88" s="78" t="s">
         <v>150</v>
       </c>
-      <c r="C88" s="88"/>
-      <c r="D88" s="88"/>
-      <c r="E88" s="89"/>
+      <c r="C88" s="79"/>
+      <c r="D88" s="79"/>
+      <c r="E88" s="80"/>
       <c r="F88" s="37"/>
-      <c r="G88" s="111"/>
-      <c r="H88" s="92"/>
-      <c r="I88" s="92"/>
-      <c r="J88" s="92"/>
-      <c r="K88" s="92"/>
-      <c r="L88" s="92"/>
-      <c r="M88" s="92"/>
-      <c r="N88" s="100"/>
+      <c r="G88" s="97"/>
+      <c r="H88" s="76"/>
+      <c r="I88" s="76"/>
+      <c r="J88" s="76"/>
+      <c r="K88" s="76"/>
+      <c r="L88" s="76"/>
+      <c r="M88" s="76"/>
+      <c r="N88" s="77"/>
       <c r="O88" s="2"/>
       <c r="P88" s="2"/>
       <c r="Q88" s="2"/>
@@ -6141,21 +6153,21 @@
       <c r="A89" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="B89" s="128" t="s">
+      <c r="B89" s="78" t="s">
         <v>152</v>
       </c>
-      <c r="C89" s="88"/>
-      <c r="D89" s="88"/>
-      <c r="E89" s="89"/>
+      <c r="C89" s="79"/>
+      <c r="D89" s="79"/>
+      <c r="E89" s="80"/>
       <c r="F89" s="37"/>
-      <c r="G89" s="111"/>
-      <c r="H89" s="92"/>
-      <c r="I89" s="92"/>
-      <c r="J89" s="92"/>
-      <c r="K89" s="92"/>
-      <c r="L89" s="92"/>
-      <c r="M89" s="92"/>
-      <c r="N89" s="100"/>
+      <c r="G89" s="97"/>
+      <c r="H89" s="76"/>
+      <c r="I89" s="76"/>
+      <c r="J89" s="76"/>
+      <c r="K89" s="76"/>
+      <c r="L89" s="76"/>
+      <c r="M89" s="76"/>
+      <c r="N89" s="77"/>
       <c r="O89" s="2"/>
       <c r="P89" s="2"/>
       <c r="Q89" s="2"/>
@@ -6173,21 +6185,21 @@
       <c r="A90" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="B90" s="128" t="s">
+      <c r="B90" s="78" t="s">
         <v>154</v>
       </c>
-      <c r="C90" s="88"/>
-      <c r="D90" s="88"/>
-      <c r="E90" s="89"/>
+      <c r="C90" s="79"/>
+      <c r="D90" s="79"/>
+      <c r="E90" s="80"/>
       <c r="F90" s="37"/>
-      <c r="G90" s="111"/>
-      <c r="H90" s="92"/>
-      <c r="I90" s="92"/>
-      <c r="J90" s="92"/>
-      <c r="K90" s="92"/>
-      <c r="L90" s="92"/>
-      <c r="M90" s="92"/>
-      <c r="N90" s="100"/>
+      <c r="G90" s="97"/>
+      <c r="H90" s="76"/>
+      <c r="I90" s="76"/>
+      <c r="J90" s="76"/>
+      <c r="K90" s="76"/>
+      <c r="L90" s="76"/>
+      <c r="M90" s="76"/>
+      <c r="N90" s="77"/>
       <c r="O90" s="2"/>
       <c r="P90" s="2"/>
       <c r="Q90" s="2"/>
@@ -6205,21 +6217,21 @@
       <c r="A91" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="B91" s="128" t="s">
+      <c r="B91" s="78" t="s">
         <v>156</v>
       </c>
-      <c r="C91" s="88"/>
-      <c r="D91" s="88"/>
-      <c r="E91" s="89"/>
+      <c r="C91" s="79"/>
+      <c r="D91" s="79"/>
+      <c r="E91" s="80"/>
       <c r="F91" s="37"/>
-      <c r="G91" s="111"/>
-      <c r="H91" s="92"/>
-      <c r="I91" s="92"/>
-      <c r="J91" s="92"/>
-      <c r="K91" s="92"/>
-      <c r="L91" s="92"/>
-      <c r="M91" s="92"/>
-      <c r="N91" s="100"/>
+      <c r="G91" s="97"/>
+      <c r="H91" s="76"/>
+      <c r="I91" s="76"/>
+      <c r="J91" s="76"/>
+      <c r="K91" s="76"/>
+      <c r="L91" s="76"/>
+      <c r="M91" s="76"/>
+      <c r="N91" s="77"/>
       <c r="O91" s="2"/>
       <c r="P91" s="2"/>
       <c r="Q91" s="2"/>
@@ -6237,21 +6249,21 @@
       <c r="A92" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="B92" s="128" t="s">
+      <c r="B92" s="78" t="s">
         <v>158</v>
       </c>
-      <c r="C92" s="88"/>
-      <c r="D92" s="88"/>
-      <c r="E92" s="89"/>
+      <c r="C92" s="79"/>
+      <c r="D92" s="79"/>
+      <c r="E92" s="80"/>
       <c r="F92" s="37"/>
-      <c r="G92" s="111"/>
-      <c r="H92" s="92"/>
-      <c r="I92" s="92"/>
-      <c r="J92" s="92"/>
-      <c r="K92" s="92"/>
-      <c r="L92" s="92"/>
-      <c r="M92" s="92"/>
-      <c r="N92" s="100"/>
+      <c r="G92" s="97"/>
+      <c r="H92" s="76"/>
+      <c r="I92" s="76"/>
+      <c r="J92" s="76"/>
+      <c r="K92" s="76"/>
+      <c r="L92" s="76"/>
+      <c r="M92" s="76"/>
+      <c r="N92" s="77"/>
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
       <c r="Q92" s="2"/>
@@ -6269,21 +6281,21 @@
       <c r="A93" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="B93" s="128" t="s">
+      <c r="B93" s="78" t="s">
         <v>160</v>
       </c>
-      <c r="C93" s="88"/>
-      <c r="D93" s="88"/>
-      <c r="E93" s="89"/>
+      <c r="C93" s="79"/>
+      <c r="D93" s="79"/>
+      <c r="E93" s="80"/>
       <c r="F93" s="37"/>
-      <c r="G93" s="111"/>
-      <c r="H93" s="92"/>
-      <c r="I93" s="92"/>
-      <c r="J93" s="92"/>
-      <c r="K93" s="92"/>
-      <c r="L93" s="92"/>
-      <c r="M93" s="92"/>
-      <c r="N93" s="100"/>
+      <c r="G93" s="97"/>
+      <c r="H93" s="76"/>
+      <c r="I93" s="76"/>
+      <c r="J93" s="76"/>
+      <c r="K93" s="76"/>
+      <c r="L93" s="76"/>
+      <c r="M93" s="76"/>
+      <c r="N93" s="77"/>
       <c r="O93" s="2"/>
       <c r="P93" s="2"/>
       <c r="Q93" s="2"/>
@@ -6301,21 +6313,21 @@
       <c r="A94" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="B94" s="128" t="s">
+      <c r="B94" s="78" t="s">
         <v>162</v>
       </c>
-      <c r="C94" s="88"/>
-      <c r="D94" s="88"/>
-      <c r="E94" s="89"/>
+      <c r="C94" s="79"/>
+      <c r="D94" s="79"/>
+      <c r="E94" s="80"/>
       <c r="F94" s="38"/>
-      <c r="G94" s="117"/>
-      <c r="H94" s="118"/>
-      <c r="I94" s="118"/>
-      <c r="J94" s="118"/>
-      <c r="K94" s="118"/>
-      <c r="L94" s="118"/>
-      <c r="M94" s="118"/>
-      <c r="N94" s="119"/>
+      <c r="G94" s="110"/>
+      <c r="H94" s="102"/>
+      <c r="I94" s="102"/>
+      <c r="J94" s="102"/>
+      <c r="K94" s="102"/>
+      <c r="L94" s="102"/>
+      <c r="M94" s="102"/>
+      <c r="N94" s="111"/>
       <c r="O94" s="2"/>
       <c r="P94" s="2"/>
       <c r="Q94" s="2"/>
@@ -6330,11 +6342,11 @@
       <c r="Z94" s="2"/>
     </row>
     <row r="95" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="120" t="s">
+      <c r="A95" s="81" t="s">
         <v>163</v>
       </c>
-      <c r="B95" s="74"/>
-      <c r="C95" s="121"/>
+      <c r="B95" s="82"/>
+      <c r="C95" s="83"/>
       <c r="D95" s="31" t="s">
         <v>50</v>
       </c>
@@ -6342,20 +6354,20 @@
         <f>((COUNTIF(F98:F108,"&lt;&gt;"&amp;$A$27)*3)+(COUNTIF(F110:F112,"&lt;&gt;"&amp;$A$27)*3)+(COUNTIF(F114:F117,"&lt;&gt;"&amp;$A$27)*3)+(COUNTIF(F119:F144,"&lt;&gt;"&amp;$A$27)*3))</f>
         <v>132</v>
       </c>
-      <c r="F95" s="123">
+      <c r="F95" s="86">
         <f>SUM(F97+F109+F113+F118)</f>
         <v>0</v>
       </c>
-      <c r="G95" s="112" t="s">
+      <c r="G95" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="H95" s="74"/>
-      <c r="I95" s="74"/>
-      <c r="J95" s="74"/>
-      <c r="K95" s="74"/>
-      <c r="L95" s="74"/>
-      <c r="M95" s="74"/>
-      <c r="N95" s="69"/>
+      <c r="H95" s="82"/>
+      <c r="I95" s="82"/>
+      <c r="J95" s="82"/>
+      <c r="K95" s="82"/>
+      <c r="L95" s="82"/>
+      <c r="M95" s="82"/>
+      <c r="N95" s="106"/>
       <c r="O95" s="2"/>
       <c r="P95" s="2"/>
       <c r="Q95" s="2"/>
@@ -6370,9 +6382,9 @@
       <c r="Z95" s="2"/>
     </row>
     <row r="96" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="71"/>
-      <c r="B96" s="75"/>
-      <c r="C96" s="122"/>
+      <c r="A96" s="84"/>
+      <c r="B96" s="66"/>
+      <c r="C96" s="85"/>
       <c r="D96" s="33" t="s">
         <v>52</v>
       </c>
@@ -6380,15 +6392,15 @@
         <f>F95/E95</f>
         <v>0</v>
       </c>
-      <c r="F96" s="124"/>
-      <c r="G96" s="113"/>
-      <c r="H96" s="75"/>
-      <c r="I96" s="75"/>
-      <c r="J96" s="75"/>
-      <c r="K96" s="75"/>
-      <c r="L96" s="75"/>
-      <c r="M96" s="75"/>
-      <c r="N96" s="72"/>
+      <c r="F96" s="87"/>
+      <c r="G96" s="107"/>
+      <c r="H96" s="66"/>
+      <c r="I96" s="66"/>
+      <c r="J96" s="66"/>
+      <c r="K96" s="66"/>
+      <c r="L96" s="66"/>
+      <c r="M96" s="66"/>
+      <c r="N96" s="67"/>
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
       <c r="Q96" s="2"/>
@@ -6403,25 +6415,25 @@
       <c r="Z96" s="2"/>
     </row>
     <row r="97" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="140" t="s">
+      <c r="A97" s="88" t="s">
         <v>164</v>
       </c>
-      <c r="B97" s="115"/>
-      <c r="C97" s="115"/>
-      <c r="D97" s="115"/>
-      <c r="E97" s="126"/>
+      <c r="B97" s="89"/>
+      <c r="C97" s="89"/>
+      <c r="D97" s="89"/>
+      <c r="E97" s="90"/>
       <c r="F97" s="39">
         <f>SUM(F98:F108)</f>
         <v>0</v>
       </c>
-      <c r="G97" s="114"/>
-      <c r="H97" s="115"/>
-      <c r="I97" s="115"/>
-      <c r="J97" s="115"/>
-      <c r="K97" s="115"/>
-      <c r="L97" s="115"/>
-      <c r="M97" s="115"/>
-      <c r="N97" s="116"/>
+      <c r="G97" s="128"/>
+      <c r="H97" s="89"/>
+      <c r="I97" s="89"/>
+      <c r="J97" s="89"/>
+      <c r="K97" s="89"/>
+      <c r="L97" s="89"/>
+      <c r="M97" s="89"/>
+      <c r="N97" s="129"/>
       <c r="O97" s="2"/>
       <c r="P97" s="2"/>
       <c r="Q97" s="2"/>
@@ -6439,21 +6451,21 @@
       <c r="A98" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="B98" s="127" t="s">
+      <c r="B98" s="91" t="s">
         <v>166</v>
       </c>
-      <c r="C98" s="115"/>
-      <c r="D98" s="115"/>
-      <c r="E98" s="126"/>
+      <c r="C98" s="89"/>
+      <c r="D98" s="89"/>
+      <c r="E98" s="90"/>
       <c r="F98" s="37"/>
-      <c r="G98" s="111"/>
-      <c r="H98" s="92"/>
-      <c r="I98" s="92"/>
-      <c r="J98" s="92"/>
-      <c r="K98" s="92"/>
-      <c r="L98" s="92"/>
-      <c r="M98" s="92"/>
-      <c r="N98" s="100"/>
+      <c r="G98" s="97"/>
+      <c r="H98" s="76"/>
+      <c r="I98" s="76"/>
+      <c r="J98" s="76"/>
+      <c r="K98" s="76"/>
+      <c r="L98" s="76"/>
+      <c r="M98" s="76"/>
+      <c r="N98" s="77"/>
       <c r="O98" s="2"/>
       <c r="P98" s="2"/>
       <c r="Q98" s="2"/>
@@ -6471,21 +6483,21 @@
       <c r="A99" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="B99" s="127" t="s">
+      <c r="B99" s="91" t="s">
         <v>168</v>
       </c>
-      <c r="C99" s="115"/>
-      <c r="D99" s="115"/>
-      <c r="E99" s="126"/>
+      <c r="C99" s="89"/>
+      <c r="D99" s="89"/>
+      <c r="E99" s="90"/>
       <c r="F99" s="37"/>
-      <c r="G99" s="111"/>
-      <c r="H99" s="92"/>
-      <c r="I99" s="92"/>
-      <c r="J99" s="92"/>
-      <c r="K99" s="92"/>
-      <c r="L99" s="92"/>
-      <c r="M99" s="92"/>
-      <c r="N99" s="100"/>
+      <c r="G99" s="97"/>
+      <c r="H99" s="76"/>
+      <c r="I99" s="76"/>
+      <c r="J99" s="76"/>
+      <c r="K99" s="76"/>
+      <c r="L99" s="76"/>
+      <c r="M99" s="76"/>
+      <c r="N99" s="77"/>
       <c r="O99" s="2"/>
       <c r="P99" s="2"/>
       <c r="Q99" s="2"/>
@@ -6503,21 +6515,21 @@
       <c r="A100" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="B100" s="127" t="s">
+      <c r="B100" s="91" t="s">
         <v>170</v>
       </c>
-      <c r="C100" s="115"/>
-      <c r="D100" s="115"/>
-      <c r="E100" s="126"/>
+      <c r="C100" s="89"/>
+      <c r="D100" s="89"/>
+      <c r="E100" s="90"/>
       <c r="F100" s="37"/>
-      <c r="G100" s="111"/>
-      <c r="H100" s="92"/>
-      <c r="I100" s="92"/>
-      <c r="J100" s="92"/>
-      <c r="K100" s="92"/>
-      <c r="L100" s="92"/>
-      <c r="M100" s="92"/>
-      <c r="N100" s="100"/>
+      <c r="G100" s="97"/>
+      <c r="H100" s="76"/>
+      <c r="I100" s="76"/>
+      <c r="J100" s="76"/>
+      <c r="K100" s="76"/>
+      <c r="L100" s="76"/>
+      <c r="M100" s="76"/>
+      <c r="N100" s="77"/>
       <c r="O100" s="2"/>
       <c r="P100" s="2"/>
       <c r="Q100" s="2"/>
@@ -6535,21 +6547,21 @@
       <c r="A101" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="B101" s="128" t="s">
+      <c r="B101" s="78" t="s">
         <v>172</v>
       </c>
-      <c r="C101" s="88"/>
-      <c r="D101" s="88"/>
-      <c r="E101" s="89"/>
+      <c r="C101" s="79"/>
+      <c r="D101" s="79"/>
+      <c r="E101" s="80"/>
       <c r="F101" s="37"/>
-      <c r="G101" s="111"/>
-      <c r="H101" s="92"/>
-      <c r="I101" s="92"/>
-      <c r="J101" s="92"/>
-      <c r="K101" s="92"/>
-      <c r="L101" s="92"/>
-      <c r="M101" s="92"/>
-      <c r="N101" s="100"/>
+      <c r="G101" s="97"/>
+      <c r="H101" s="76"/>
+      <c r="I101" s="76"/>
+      <c r="J101" s="76"/>
+      <c r="K101" s="76"/>
+      <c r="L101" s="76"/>
+      <c r="M101" s="76"/>
+      <c r="N101" s="77"/>
       <c r="O101" s="2"/>
       <c r="P101" s="2"/>
       <c r="Q101" s="2"/>
@@ -6567,21 +6579,21 @@
       <c r="A102" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="B102" s="128" t="s">
+      <c r="B102" s="78" t="s">
         <v>174</v>
       </c>
-      <c r="C102" s="88"/>
-      <c r="D102" s="88"/>
-      <c r="E102" s="89"/>
+      <c r="C102" s="79"/>
+      <c r="D102" s="79"/>
+      <c r="E102" s="80"/>
       <c r="F102" s="37"/>
-      <c r="G102" s="111"/>
-      <c r="H102" s="92"/>
-      <c r="I102" s="92"/>
-      <c r="J102" s="92"/>
-      <c r="K102" s="92"/>
-      <c r="L102" s="92"/>
-      <c r="M102" s="92"/>
-      <c r="N102" s="100"/>
+      <c r="G102" s="97"/>
+      <c r="H102" s="76"/>
+      <c r="I102" s="76"/>
+      <c r="J102" s="76"/>
+      <c r="K102" s="76"/>
+      <c r="L102" s="76"/>
+      <c r="M102" s="76"/>
+      <c r="N102" s="77"/>
       <c r="O102" s="2"/>
       <c r="P102" s="2"/>
       <c r="Q102" s="2"/>
@@ -6599,21 +6611,21 @@
       <c r="A103" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="B103" s="128" t="s">
+      <c r="B103" s="78" t="s">
         <v>176</v>
       </c>
-      <c r="C103" s="88"/>
-      <c r="D103" s="88"/>
-      <c r="E103" s="89"/>
+      <c r="C103" s="79"/>
+      <c r="D103" s="79"/>
+      <c r="E103" s="80"/>
       <c r="F103" s="37"/>
-      <c r="G103" s="111"/>
-      <c r="H103" s="92"/>
-      <c r="I103" s="92"/>
-      <c r="J103" s="92"/>
-      <c r="K103" s="92"/>
-      <c r="L103" s="92"/>
-      <c r="M103" s="92"/>
-      <c r="N103" s="100"/>
+      <c r="G103" s="97"/>
+      <c r="H103" s="76"/>
+      <c r="I103" s="76"/>
+      <c r="J103" s="76"/>
+      <c r="K103" s="76"/>
+      <c r="L103" s="76"/>
+      <c r="M103" s="76"/>
+      <c r="N103" s="77"/>
       <c r="O103" s="2"/>
       <c r="P103" s="2"/>
       <c r="Q103" s="2"/>
@@ -6631,21 +6643,21 @@
       <c r="A104" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="B104" s="128" t="s">
+      <c r="B104" s="78" t="s">
         <v>178</v>
       </c>
-      <c r="C104" s="88"/>
-      <c r="D104" s="88"/>
-      <c r="E104" s="89"/>
+      <c r="C104" s="79"/>
+      <c r="D104" s="79"/>
+      <c r="E104" s="80"/>
       <c r="F104" s="37"/>
-      <c r="G104" s="111"/>
-      <c r="H104" s="92"/>
-      <c r="I104" s="92"/>
-      <c r="J104" s="92"/>
-      <c r="K104" s="92"/>
-      <c r="L104" s="92"/>
-      <c r="M104" s="92"/>
-      <c r="N104" s="100"/>
+      <c r="G104" s="97"/>
+      <c r="H104" s="76"/>
+      <c r="I104" s="76"/>
+      <c r="J104" s="76"/>
+      <c r="K104" s="76"/>
+      <c r="L104" s="76"/>
+      <c r="M104" s="76"/>
+      <c r="N104" s="77"/>
       <c r="O104" s="2"/>
       <c r="P104" s="2"/>
       <c r="Q104" s="2"/>
@@ -6663,21 +6675,21 @@
       <c r="A105" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="B105" s="128" t="s">
+      <c r="B105" s="78" t="s">
         <v>180</v>
       </c>
-      <c r="C105" s="88"/>
-      <c r="D105" s="88"/>
-      <c r="E105" s="89"/>
+      <c r="C105" s="79"/>
+      <c r="D105" s="79"/>
+      <c r="E105" s="80"/>
       <c r="F105" s="37"/>
-      <c r="G105" s="111"/>
-      <c r="H105" s="92"/>
-      <c r="I105" s="92"/>
-      <c r="J105" s="92"/>
-      <c r="K105" s="92"/>
-      <c r="L105" s="92"/>
-      <c r="M105" s="92"/>
-      <c r="N105" s="100"/>
+      <c r="G105" s="97"/>
+      <c r="H105" s="76"/>
+      <c r="I105" s="76"/>
+      <c r="J105" s="76"/>
+      <c r="K105" s="76"/>
+      <c r="L105" s="76"/>
+      <c r="M105" s="76"/>
+      <c r="N105" s="77"/>
       <c r="O105" s="2"/>
       <c r="P105" s="2"/>
       <c r="Q105" s="2"/>
@@ -6695,21 +6707,21 @@
       <c r="A106" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="B106" s="128" t="s">
+      <c r="B106" s="78" t="s">
         <v>182</v>
       </c>
-      <c r="C106" s="88"/>
-      <c r="D106" s="88"/>
-      <c r="E106" s="89"/>
+      <c r="C106" s="79"/>
+      <c r="D106" s="79"/>
+      <c r="E106" s="80"/>
       <c r="F106" s="37"/>
-      <c r="G106" s="111"/>
-      <c r="H106" s="92"/>
-      <c r="I106" s="92"/>
-      <c r="J106" s="92"/>
-      <c r="K106" s="92"/>
-      <c r="L106" s="92"/>
-      <c r="M106" s="92"/>
-      <c r="N106" s="100"/>
+      <c r="G106" s="97"/>
+      <c r="H106" s="76"/>
+      <c r="I106" s="76"/>
+      <c r="J106" s="76"/>
+      <c r="K106" s="76"/>
+      <c r="L106" s="76"/>
+      <c r="M106" s="76"/>
+      <c r="N106" s="77"/>
       <c r="O106" s="2"/>
       <c r="P106" s="2"/>
       <c r="Q106" s="2"/>
@@ -6727,21 +6739,21 @@
       <c r="A107" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="B107" s="128" t="s">
+      <c r="B107" s="78" t="s">
         <v>184</v>
       </c>
-      <c r="C107" s="88"/>
-      <c r="D107" s="88"/>
-      <c r="E107" s="89"/>
+      <c r="C107" s="79"/>
+      <c r="D107" s="79"/>
+      <c r="E107" s="80"/>
       <c r="F107" s="37"/>
-      <c r="G107" s="111"/>
-      <c r="H107" s="92"/>
-      <c r="I107" s="92"/>
-      <c r="J107" s="92"/>
-      <c r="K107" s="92"/>
-      <c r="L107" s="92"/>
-      <c r="M107" s="92"/>
-      <c r="N107" s="100"/>
+      <c r="G107" s="97"/>
+      <c r="H107" s="76"/>
+      <c r="I107" s="76"/>
+      <c r="J107" s="76"/>
+      <c r="K107" s="76"/>
+      <c r="L107" s="76"/>
+      <c r="M107" s="76"/>
+      <c r="N107" s="77"/>
       <c r="O107" s="2"/>
       <c r="P107" s="2"/>
       <c r="Q107" s="2"/>
@@ -6759,21 +6771,21 @@
       <c r="A108" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="B108" s="128" t="s">
+      <c r="B108" s="78" t="s">
         <v>186</v>
       </c>
-      <c r="C108" s="88"/>
-      <c r="D108" s="88"/>
-      <c r="E108" s="89"/>
+      <c r="C108" s="79"/>
+      <c r="D108" s="79"/>
+      <c r="E108" s="80"/>
       <c r="F108" s="37"/>
-      <c r="G108" s="111"/>
-      <c r="H108" s="92"/>
-      <c r="I108" s="92"/>
-      <c r="J108" s="92"/>
-      <c r="K108" s="92"/>
-      <c r="L108" s="92"/>
-      <c r="M108" s="92"/>
-      <c r="N108" s="100"/>
+      <c r="G108" s="97"/>
+      <c r="H108" s="76"/>
+      <c r="I108" s="76"/>
+      <c r="J108" s="76"/>
+      <c r="K108" s="76"/>
+      <c r="L108" s="76"/>
+      <c r="M108" s="76"/>
+      <c r="N108" s="77"/>
       <c r="O108" s="2"/>
       <c r="P108" s="2"/>
       <c r="Q108" s="2"/>
@@ -6788,25 +6800,25 @@
       <c r="Z108" s="2"/>
     </row>
     <row r="109" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="140" t="s">
+      <c r="A109" s="88" t="s">
         <v>187</v>
       </c>
-      <c r="B109" s="115"/>
-      <c r="C109" s="115"/>
-      <c r="D109" s="115"/>
-      <c r="E109" s="126"/>
+      <c r="B109" s="89"/>
+      <c r="C109" s="89"/>
+      <c r="D109" s="89"/>
+      <c r="E109" s="90"/>
       <c r="F109" s="39">
         <f>SUM(F110:F112)</f>
         <v>0</v>
       </c>
-      <c r="G109" s="114"/>
-      <c r="H109" s="115"/>
-      <c r="I109" s="115"/>
-      <c r="J109" s="115"/>
-      <c r="K109" s="115"/>
-      <c r="L109" s="115"/>
-      <c r="M109" s="115"/>
-      <c r="N109" s="116"/>
+      <c r="G109" s="128"/>
+      <c r="H109" s="89"/>
+      <c r="I109" s="89"/>
+      <c r="J109" s="89"/>
+      <c r="K109" s="89"/>
+      <c r="L109" s="89"/>
+      <c r="M109" s="89"/>
+      <c r="N109" s="129"/>
       <c r="O109" s="2"/>
       <c r="P109" s="2"/>
       <c r="Q109" s="2"/>
@@ -6824,21 +6836,21 @@
       <c r="A110" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="B110" s="128" t="s">
+      <c r="B110" s="78" t="s">
         <v>189</v>
       </c>
-      <c r="C110" s="88"/>
-      <c r="D110" s="88"/>
-      <c r="E110" s="89"/>
+      <c r="C110" s="79"/>
+      <c r="D110" s="79"/>
+      <c r="E110" s="80"/>
       <c r="F110" s="36"/>
-      <c r="G110" s="111"/>
-      <c r="H110" s="92"/>
-      <c r="I110" s="92"/>
-      <c r="J110" s="92"/>
-      <c r="K110" s="92"/>
-      <c r="L110" s="92"/>
-      <c r="M110" s="92"/>
-      <c r="N110" s="100"/>
+      <c r="G110" s="97"/>
+      <c r="H110" s="76"/>
+      <c r="I110" s="76"/>
+      <c r="J110" s="76"/>
+      <c r="K110" s="76"/>
+      <c r="L110" s="76"/>
+      <c r="M110" s="76"/>
+      <c r="N110" s="77"/>
       <c r="O110" s="2"/>
       <c r="P110" s="2"/>
       <c r="Q110" s="2"/>
@@ -6856,21 +6868,21 @@
       <c r="A111" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="B111" s="128" t="s">
+      <c r="B111" s="78" t="s">
         <v>191</v>
       </c>
-      <c r="C111" s="88"/>
-      <c r="D111" s="88"/>
-      <c r="E111" s="89"/>
+      <c r="C111" s="79"/>
+      <c r="D111" s="79"/>
+      <c r="E111" s="80"/>
       <c r="F111" s="36"/>
-      <c r="G111" s="111"/>
-      <c r="H111" s="92"/>
-      <c r="I111" s="92"/>
-      <c r="J111" s="92"/>
-      <c r="K111" s="92"/>
-      <c r="L111" s="92"/>
-      <c r="M111" s="92"/>
-      <c r="N111" s="100"/>
+      <c r="G111" s="97"/>
+      <c r="H111" s="76"/>
+      <c r="I111" s="76"/>
+      <c r="J111" s="76"/>
+      <c r="K111" s="76"/>
+      <c r="L111" s="76"/>
+      <c r="M111" s="76"/>
+      <c r="N111" s="77"/>
       <c r="O111" s="2"/>
       <c r="P111" s="2"/>
       <c r="Q111" s="2"/>
@@ -6888,21 +6900,21 @@
       <c r="A112" s="50" t="s">
         <v>192</v>
       </c>
-      <c r="B112" s="128" t="s">
+      <c r="B112" s="78" t="s">
         <v>193</v>
       </c>
-      <c r="C112" s="88"/>
-      <c r="D112" s="88"/>
-      <c r="E112" s="89"/>
+      <c r="C112" s="79"/>
+      <c r="D112" s="79"/>
+      <c r="E112" s="80"/>
       <c r="F112" s="36"/>
-      <c r="G112" s="111"/>
-      <c r="H112" s="92"/>
-      <c r="I112" s="92"/>
-      <c r="J112" s="92"/>
-      <c r="K112" s="92"/>
-      <c r="L112" s="92"/>
-      <c r="M112" s="92"/>
-      <c r="N112" s="100"/>
+      <c r="G112" s="97"/>
+      <c r="H112" s="76"/>
+      <c r="I112" s="76"/>
+      <c r="J112" s="76"/>
+      <c r="K112" s="76"/>
+      <c r="L112" s="76"/>
+      <c r="M112" s="76"/>
+      <c r="N112" s="77"/>
       <c r="O112" s="2"/>
       <c r="P112" s="2"/>
       <c r="Q112" s="2"/>
@@ -6917,25 +6929,25 @@
       <c r="Z112" s="2"/>
     </row>
     <row r="113" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="141" t="s">
+      <c r="A113" s="94" t="s">
         <v>194</v>
       </c>
-      <c r="B113" s="92"/>
-      <c r="C113" s="92"/>
-      <c r="D113" s="92"/>
-      <c r="E113" s="98"/>
+      <c r="B113" s="76"/>
+      <c r="C113" s="76"/>
+      <c r="D113" s="76"/>
+      <c r="E113" s="93"/>
       <c r="F113" s="39">
         <f>SUM(F114:F117)</f>
         <v>0</v>
       </c>
-      <c r="G113" s="135"/>
-      <c r="H113" s="92"/>
-      <c r="I113" s="92"/>
-      <c r="J113" s="92"/>
-      <c r="K113" s="92"/>
-      <c r="L113" s="92"/>
-      <c r="M113" s="92"/>
-      <c r="N113" s="100"/>
+      <c r="G113" s="127"/>
+      <c r="H113" s="76"/>
+      <c r="I113" s="76"/>
+      <c r="J113" s="76"/>
+      <c r="K113" s="76"/>
+      <c r="L113" s="76"/>
+      <c r="M113" s="76"/>
+      <c r="N113" s="77"/>
       <c r="O113" s="2"/>
       <c r="P113" s="2"/>
       <c r="Q113" s="2"/>
@@ -6953,21 +6965,21 @@
       <c r="A114" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="B114" s="128" t="s">
+      <c r="B114" s="78" t="s">
         <v>196</v>
       </c>
-      <c r="C114" s="88"/>
-      <c r="D114" s="88"/>
-      <c r="E114" s="89"/>
+      <c r="C114" s="79"/>
+      <c r="D114" s="79"/>
+      <c r="E114" s="80"/>
       <c r="F114" s="43"/>
-      <c r="G114" s="111"/>
-      <c r="H114" s="92"/>
-      <c r="I114" s="92"/>
-      <c r="J114" s="92"/>
-      <c r="K114" s="92"/>
-      <c r="L114" s="92"/>
-      <c r="M114" s="92"/>
-      <c r="N114" s="100"/>
+      <c r="G114" s="97"/>
+      <c r="H114" s="76"/>
+      <c r="I114" s="76"/>
+      <c r="J114" s="76"/>
+      <c r="K114" s="76"/>
+      <c r="L114" s="76"/>
+      <c r="M114" s="76"/>
+      <c r="N114" s="77"/>
       <c r="O114" s="2"/>
       <c r="P114" s="2"/>
       <c r="Q114" s="2"/>
@@ -6985,21 +6997,21 @@
       <c r="A115" s="50" t="s">
         <v>197</v>
       </c>
-      <c r="B115" s="128" t="s">
+      <c r="B115" s="78" t="s">
         <v>198</v>
       </c>
-      <c r="C115" s="88"/>
-      <c r="D115" s="88"/>
-      <c r="E115" s="89"/>
+      <c r="C115" s="79"/>
+      <c r="D115" s="79"/>
+      <c r="E115" s="80"/>
       <c r="F115" s="43"/>
-      <c r="G115" s="111"/>
-      <c r="H115" s="92"/>
-      <c r="I115" s="92"/>
-      <c r="J115" s="92"/>
-      <c r="K115" s="92"/>
-      <c r="L115" s="92"/>
-      <c r="M115" s="92"/>
-      <c r="N115" s="100"/>
+      <c r="G115" s="97"/>
+      <c r="H115" s="76"/>
+      <c r="I115" s="76"/>
+      <c r="J115" s="76"/>
+      <c r="K115" s="76"/>
+      <c r="L115" s="76"/>
+      <c r="M115" s="76"/>
+      <c r="N115" s="77"/>
       <c r="O115" s="2"/>
       <c r="P115" s="2"/>
       <c r="Q115" s="2"/>
@@ -7017,21 +7029,21 @@
       <c r="A116" s="50" t="s">
         <v>199</v>
       </c>
-      <c r="B116" s="128" t="s">
+      <c r="B116" s="78" t="s">
         <v>200</v>
       </c>
-      <c r="C116" s="88"/>
-      <c r="D116" s="88"/>
-      <c r="E116" s="89"/>
+      <c r="C116" s="79"/>
+      <c r="D116" s="79"/>
+      <c r="E116" s="80"/>
       <c r="F116" s="43"/>
-      <c r="G116" s="111"/>
-      <c r="H116" s="92"/>
-      <c r="I116" s="92"/>
-      <c r="J116" s="92"/>
-      <c r="K116" s="92"/>
-      <c r="L116" s="92"/>
-      <c r="M116" s="92"/>
-      <c r="N116" s="100"/>
+      <c r="G116" s="97"/>
+      <c r="H116" s="76"/>
+      <c r="I116" s="76"/>
+      <c r="J116" s="76"/>
+      <c r="K116" s="76"/>
+      <c r="L116" s="76"/>
+      <c r="M116" s="76"/>
+      <c r="N116" s="77"/>
       <c r="O116" s="2"/>
       <c r="P116" s="2"/>
       <c r="Q116" s="2"/>
@@ -7049,21 +7061,21 @@
       <c r="A117" s="50" t="s">
         <v>201</v>
       </c>
-      <c r="B117" s="127" t="s">
+      <c r="B117" s="91" t="s">
         <v>202</v>
       </c>
-      <c r="C117" s="115"/>
-      <c r="D117" s="115"/>
-      <c r="E117" s="126"/>
+      <c r="C117" s="89"/>
+      <c r="D117" s="89"/>
+      <c r="E117" s="90"/>
       <c r="F117" s="43"/>
-      <c r="G117" s="111"/>
-      <c r="H117" s="92"/>
-      <c r="I117" s="92"/>
-      <c r="J117" s="92"/>
-      <c r="K117" s="92"/>
-      <c r="L117" s="92"/>
-      <c r="M117" s="92"/>
-      <c r="N117" s="100"/>
+      <c r="G117" s="97"/>
+      <c r="H117" s="76"/>
+      <c r="I117" s="76"/>
+      <c r="J117" s="76"/>
+      <c r="K117" s="76"/>
+      <c r="L117" s="76"/>
+      <c r="M117" s="76"/>
+      <c r="N117" s="77"/>
       <c r="O117" s="2"/>
       <c r="P117" s="2"/>
       <c r="Q117" s="2"/>
@@ -7078,25 +7090,25 @@
       <c r="Z117" s="2"/>
     </row>
     <row r="118" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="125" t="s">
+      <c r="A118" s="96" t="s">
         <v>203</v>
       </c>
-      <c r="B118" s="115"/>
-      <c r="C118" s="115"/>
-      <c r="D118" s="115"/>
-      <c r="E118" s="126"/>
+      <c r="B118" s="89"/>
+      <c r="C118" s="89"/>
+      <c r="D118" s="89"/>
+      <c r="E118" s="90"/>
       <c r="F118" s="39">
         <f>SUM(F119:F144)</f>
         <v>0</v>
       </c>
-      <c r="G118" s="114"/>
-      <c r="H118" s="115"/>
-      <c r="I118" s="115"/>
-      <c r="J118" s="115"/>
-      <c r="K118" s="115"/>
-      <c r="L118" s="115"/>
-      <c r="M118" s="115"/>
-      <c r="N118" s="116"/>
+      <c r="G118" s="128"/>
+      <c r="H118" s="89"/>
+      <c r="I118" s="89"/>
+      <c r="J118" s="89"/>
+      <c r="K118" s="89"/>
+      <c r="L118" s="89"/>
+      <c r="M118" s="89"/>
+      <c r="N118" s="129"/>
       <c r="O118" s="2"/>
       <c r="P118" s="2"/>
       <c r="Q118" s="2"/>
@@ -7114,21 +7126,21 @@
       <c r="A119" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="B119" s="128" t="s">
+      <c r="B119" s="78" t="s">
         <v>205</v>
       </c>
-      <c r="C119" s="88"/>
-      <c r="D119" s="88"/>
-      <c r="E119" s="89"/>
+      <c r="C119" s="79"/>
+      <c r="D119" s="79"/>
+      <c r="E119" s="80"/>
       <c r="F119" s="37"/>
-      <c r="G119" s="111"/>
-      <c r="H119" s="92"/>
-      <c r="I119" s="92"/>
-      <c r="J119" s="92"/>
-      <c r="K119" s="92"/>
-      <c r="L119" s="92"/>
-      <c r="M119" s="92"/>
-      <c r="N119" s="100"/>
+      <c r="G119" s="97"/>
+      <c r="H119" s="76"/>
+      <c r="I119" s="76"/>
+      <c r="J119" s="76"/>
+      <c r="K119" s="76"/>
+      <c r="L119" s="76"/>
+      <c r="M119" s="76"/>
+      <c r="N119" s="77"/>
       <c r="O119" s="2"/>
       <c r="P119" s="2"/>
       <c r="Q119" s="2"/>
@@ -7146,21 +7158,21 @@
       <c r="A120" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="B120" s="128" t="s">
+      <c r="B120" s="78" t="s">
         <v>207</v>
       </c>
-      <c r="C120" s="88"/>
-      <c r="D120" s="88"/>
-      <c r="E120" s="89"/>
+      <c r="C120" s="79"/>
+      <c r="D120" s="79"/>
+      <c r="E120" s="80"/>
       <c r="F120" s="37"/>
-      <c r="G120" s="111"/>
-      <c r="H120" s="92"/>
-      <c r="I120" s="92"/>
-      <c r="J120" s="92"/>
-      <c r="K120" s="92"/>
-      <c r="L120" s="92"/>
-      <c r="M120" s="92"/>
-      <c r="N120" s="100"/>
+      <c r="G120" s="97"/>
+      <c r="H120" s="76"/>
+      <c r="I120" s="76"/>
+      <c r="J120" s="76"/>
+      <c r="K120" s="76"/>
+      <c r="L120" s="76"/>
+      <c r="M120" s="76"/>
+      <c r="N120" s="77"/>
       <c r="O120" s="2"/>
       <c r="P120" s="2"/>
       <c r="Q120" s="2"/>
@@ -7178,21 +7190,21 @@
       <c r="A121" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="B121" s="109" t="s">
+      <c r="B121" s="92" t="s">
         <v>209</v>
       </c>
-      <c r="C121" s="92"/>
-      <c r="D121" s="92"/>
-      <c r="E121" s="98"/>
+      <c r="C121" s="76"/>
+      <c r="D121" s="76"/>
+      <c r="E121" s="93"/>
       <c r="F121" s="43"/>
-      <c r="G121" s="111"/>
-      <c r="H121" s="92"/>
-      <c r="I121" s="92"/>
-      <c r="J121" s="92"/>
-      <c r="K121" s="92"/>
-      <c r="L121" s="92"/>
-      <c r="M121" s="92"/>
-      <c r="N121" s="100"/>
+      <c r="G121" s="97"/>
+      <c r="H121" s="76"/>
+      <c r="I121" s="76"/>
+      <c r="J121" s="76"/>
+      <c r="K121" s="76"/>
+      <c r="L121" s="76"/>
+      <c r="M121" s="76"/>
+      <c r="N121" s="77"/>
       <c r="O121" s="2"/>
       <c r="P121" s="2"/>
       <c r="Q121" s="2"/>
@@ -7210,21 +7222,21 @@
       <c r="A122" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="B122" s="128" t="s">
+      <c r="B122" s="78" t="s">
         <v>211</v>
       </c>
-      <c r="C122" s="88"/>
-      <c r="D122" s="88"/>
-      <c r="E122" s="89"/>
+      <c r="C122" s="79"/>
+      <c r="D122" s="79"/>
+      <c r="E122" s="80"/>
       <c r="F122" s="43"/>
-      <c r="G122" s="111"/>
-      <c r="H122" s="92"/>
-      <c r="I122" s="92"/>
-      <c r="J122" s="92"/>
-      <c r="K122" s="92"/>
-      <c r="L122" s="92"/>
-      <c r="M122" s="92"/>
-      <c r="N122" s="100"/>
+      <c r="G122" s="97"/>
+      <c r="H122" s="76"/>
+      <c r="I122" s="76"/>
+      <c r="J122" s="76"/>
+      <c r="K122" s="76"/>
+      <c r="L122" s="76"/>
+      <c r="M122" s="76"/>
+      <c r="N122" s="77"/>
       <c r="O122" s="2"/>
       <c r="P122" s="2"/>
       <c r="Q122" s="2"/>
@@ -7242,21 +7254,21 @@
       <c r="A123" s="50" t="s">
         <v>212</v>
       </c>
-      <c r="B123" s="128" t="s">
+      <c r="B123" s="78" t="s">
         <v>213</v>
       </c>
-      <c r="C123" s="88"/>
-      <c r="D123" s="88"/>
-      <c r="E123" s="89"/>
+      <c r="C123" s="79"/>
+      <c r="D123" s="79"/>
+      <c r="E123" s="80"/>
       <c r="F123" s="43"/>
-      <c r="G123" s="111"/>
-      <c r="H123" s="92"/>
-      <c r="I123" s="92"/>
-      <c r="J123" s="92"/>
-      <c r="K123" s="92"/>
-      <c r="L123" s="92"/>
-      <c r="M123" s="92"/>
-      <c r="N123" s="100"/>
+      <c r="G123" s="97"/>
+      <c r="H123" s="76"/>
+      <c r="I123" s="76"/>
+      <c r="J123" s="76"/>
+      <c r="K123" s="76"/>
+      <c r="L123" s="76"/>
+      <c r="M123" s="76"/>
+      <c r="N123" s="77"/>
       <c r="O123" s="2"/>
       <c r="P123" s="2"/>
       <c r="Q123" s="2"/>
@@ -7274,21 +7286,21 @@
       <c r="A124" s="51" t="s">
         <v>214</v>
       </c>
-      <c r="B124" s="128" t="s">
+      <c r="B124" s="78" t="s">
         <v>215</v>
       </c>
-      <c r="C124" s="88"/>
-      <c r="D124" s="88"/>
-      <c r="E124" s="89"/>
+      <c r="C124" s="79"/>
+      <c r="D124" s="79"/>
+      <c r="E124" s="80"/>
       <c r="F124" s="43"/>
-      <c r="G124" s="111"/>
-      <c r="H124" s="92"/>
-      <c r="I124" s="92"/>
-      <c r="J124" s="92"/>
-      <c r="K124" s="92"/>
-      <c r="L124" s="92"/>
-      <c r="M124" s="92"/>
-      <c r="N124" s="100"/>
+      <c r="G124" s="97"/>
+      <c r="H124" s="76"/>
+      <c r="I124" s="76"/>
+      <c r="J124" s="76"/>
+      <c r="K124" s="76"/>
+      <c r="L124" s="76"/>
+      <c r="M124" s="76"/>
+      <c r="N124" s="77"/>
       <c r="O124" s="2"/>
       <c r="P124" s="2"/>
       <c r="Q124" s="2"/>
@@ -7306,21 +7318,21 @@
       <c r="A125" s="50" t="s">
         <v>216</v>
       </c>
-      <c r="B125" s="128" t="s">
+      <c r="B125" s="78" t="s">
         <v>217</v>
       </c>
-      <c r="C125" s="88"/>
-      <c r="D125" s="88"/>
-      <c r="E125" s="89"/>
+      <c r="C125" s="79"/>
+      <c r="D125" s="79"/>
+      <c r="E125" s="80"/>
       <c r="F125" s="43"/>
-      <c r="G125" s="111"/>
-      <c r="H125" s="92"/>
-      <c r="I125" s="92"/>
-      <c r="J125" s="92"/>
-      <c r="K125" s="92"/>
-      <c r="L125" s="92"/>
-      <c r="M125" s="92"/>
-      <c r="N125" s="100"/>
+      <c r="G125" s="97"/>
+      <c r="H125" s="76"/>
+      <c r="I125" s="76"/>
+      <c r="J125" s="76"/>
+      <c r="K125" s="76"/>
+      <c r="L125" s="76"/>
+      <c r="M125" s="76"/>
+      <c r="N125" s="77"/>
       <c r="O125" s="2"/>
       <c r="P125" s="2"/>
       <c r="Q125" s="2"/>
@@ -7338,21 +7350,21 @@
       <c r="A126" s="51" t="s">
         <v>218</v>
       </c>
-      <c r="B126" s="128" t="s">
+      <c r="B126" s="78" t="s">
         <v>219</v>
       </c>
-      <c r="C126" s="88"/>
-      <c r="D126" s="88"/>
-      <c r="E126" s="89"/>
+      <c r="C126" s="79"/>
+      <c r="D126" s="79"/>
+      <c r="E126" s="80"/>
       <c r="F126" s="43"/>
-      <c r="G126" s="111"/>
-      <c r="H126" s="92"/>
-      <c r="I126" s="92"/>
-      <c r="J126" s="92"/>
-      <c r="K126" s="92"/>
-      <c r="L126" s="92"/>
-      <c r="M126" s="92"/>
-      <c r="N126" s="100"/>
+      <c r="G126" s="97"/>
+      <c r="H126" s="76"/>
+      <c r="I126" s="76"/>
+      <c r="J126" s="76"/>
+      <c r="K126" s="76"/>
+      <c r="L126" s="76"/>
+      <c r="M126" s="76"/>
+      <c r="N126" s="77"/>
       <c r="O126" s="2"/>
       <c r="P126" s="2"/>
       <c r="Q126" s="2"/>
@@ -7370,21 +7382,21 @@
       <c r="A127" s="50" t="s">
         <v>220</v>
       </c>
-      <c r="B127" s="128" t="s">
+      <c r="B127" s="78" t="s">
         <v>221</v>
       </c>
-      <c r="C127" s="88"/>
-      <c r="D127" s="88"/>
-      <c r="E127" s="89"/>
+      <c r="C127" s="79"/>
+      <c r="D127" s="79"/>
+      <c r="E127" s="80"/>
       <c r="F127" s="37"/>
-      <c r="G127" s="111"/>
-      <c r="H127" s="92"/>
-      <c r="I127" s="92"/>
-      <c r="J127" s="92"/>
-      <c r="K127" s="92"/>
-      <c r="L127" s="92"/>
-      <c r="M127" s="92"/>
-      <c r="N127" s="100"/>
+      <c r="G127" s="97"/>
+      <c r="H127" s="76"/>
+      <c r="I127" s="76"/>
+      <c r="J127" s="76"/>
+      <c r="K127" s="76"/>
+      <c r="L127" s="76"/>
+      <c r="M127" s="76"/>
+      <c r="N127" s="77"/>
       <c r="O127" s="2"/>
       <c r="P127" s="2"/>
       <c r="Q127" s="2"/>
@@ -7402,21 +7414,21 @@
       <c r="A128" s="51" t="s">
         <v>222</v>
       </c>
-      <c r="B128" s="128" t="s">
+      <c r="B128" s="78" t="s">
         <v>223</v>
       </c>
-      <c r="C128" s="88"/>
-      <c r="D128" s="88"/>
-      <c r="E128" s="89"/>
+      <c r="C128" s="79"/>
+      <c r="D128" s="79"/>
+      <c r="E128" s="80"/>
       <c r="F128" s="37"/>
-      <c r="G128" s="111"/>
-      <c r="H128" s="92"/>
-      <c r="I128" s="92"/>
-      <c r="J128" s="92"/>
-      <c r="K128" s="92"/>
-      <c r="L128" s="92"/>
-      <c r="M128" s="92"/>
-      <c r="N128" s="100"/>
+      <c r="G128" s="97"/>
+      <c r="H128" s="76"/>
+      <c r="I128" s="76"/>
+      <c r="J128" s="76"/>
+      <c r="K128" s="76"/>
+      <c r="L128" s="76"/>
+      <c r="M128" s="76"/>
+      <c r="N128" s="77"/>
       <c r="O128" s="2"/>
       <c r="P128" s="2"/>
       <c r="Q128" s="2"/>
@@ -7434,21 +7446,21 @@
       <c r="A129" s="50" t="s">
         <v>224</v>
       </c>
-      <c r="B129" s="128" t="s">
+      <c r="B129" s="78" t="s">
         <v>225</v>
       </c>
-      <c r="C129" s="88"/>
-      <c r="D129" s="88"/>
-      <c r="E129" s="89"/>
+      <c r="C129" s="79"/>
+      <c r="D129" s="79"/>
+      <c r="E129" s="80"/>
       <c r="F129" s="37"/>
-      <c r="G129" s="111"/>
-      <c r="H129" s="92"/>
-      <c r="I129" s="92"/>
-      <c r="J129" s="92"/>
-      <c r="K129" s="92"/>
-      <c r="L129" s="92"/>
-      <c r="M129" s="92"/>
-      <c r="N129" s="100"/>
+      <c r="G129" s="97"/>
+      <c r="H129" s="76"/>
+      <c r="I129" s="76"/>
+      <c r="J129" s="76"/>
+      <c r="K129" s="76"/>
+      <c r="L129" s="76"/>
+      <c r="M129" s="76"/>
+      <c r="N129" s="77"/>
       <c r="O129" s="2"/>
       <c r="P129" s="2"/>
       <c r="Q129" s="2"/>
@@ -7466,21 +7478,21 @@
       <c r="A130" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="B130" s="128" t="s">
+      <c r="B130" s="78" t="s">
         <v>227</v>
       </c>
-      <c r="C130" s="88"/>
-      <c r="D130" s="88"/>
-      <c r="E130" s="89"/>
+      <c r="C130" s="79"/>
+      <c r="D130" s="79"/>
+      <c r="E130" s="80"/>
       <c r="F130" s="37"/>
-      <c r="G130" s="111"/>
-      <c r="H130" s="92"/>
-      <c r="I130" s="92"/>
-      <c r="J130" s="92"/>
-      <c r="K130" s="92"/>
-      <c r="L130" s="92"/>
-      <c r="M130" s="92"/>
-      <c r="N130" s="100"/>
+      <c r="G130" s="97"/>
+      <c r="H130" s="76"/>
+      <c r="I130" s="76"/>
+      <c r="J130" s="76"/>
+      <c r="K130" s="76"/>
+      <c r="L130" s="76"/>
+      <c r="M130" s="76"/>
+      <c r="N130" s="77"/>
       <c r="O130" s="2"/>
       <c r="P130" s="2"/>
       <c r="Q130" s="2"/>
@@ -7498,21 +7510,21 @@
       <c r="A131" s="50" t="s">
         <v>228</v>
       </c>
-      <c r="B131" s="128" t="s">
+      <c r="B131" s="78" t="s">
         <v>229</v>
       </c>
-      <c r="C131" s="88"/>
-      <c r="D131" s="88"/>
-      <c r="E131" s="89"/>
+      <c r="C131" s="79"/>
+      <c r="D131" s="79"/>
+      <c r="E131" s="80"/>
       <c r="F131" s="37"/>
-      <c r="G131" s="111"/>
-      <c r="H131" s="92"/>
-      <c r="I131" s="92"/>
-      <c r="J131" s="92"/>
-      <c r="K131" s="92"/>
-      <c r="L131" s="92"/>
-      <c r="M131" s="92"/>
-      <c r="N131" s="100"/>
+      <c r="G131" s="97"/>
+      <c r="H131" s="76"/>
+      <c r="I131" s="76"/>
+      <c r="J131" s="76"/>
+      <c r="K131" s="76"/>
+      <c r="L131" s="76"/>
+      <c r="M131" s="76"/>
+      <c r="N131" s="77"/>
       <c r="O131" s="2"/>
       <c r="P131" s="2"/>
       <c r="Q131" s="2"/>
@@ -7530,21 +7542,21 @@
       <c r="A132" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="B132" s="128" t="s">
+      <c r="B132" s="78" t="s">
         <v>231</v>
       </c>
-      <c r="C132" s="88"/>
-      <c r="D132" s="88"/>
-      <c r="E132" s="89"/>
+      <c r="C132" s="79"/>
+      <c r="D132" s="79"/>
+      <c r="E132" s="80"/>
       <c r="F132" s="37"/>
-      <c r="G132" s="111"/>
-      <c r="H132" s="92"/>
-      <c r="I132" s="92"/>
-      <c r="J132" s="92"/>
-      <c r="K132" s="92"/>
-      <c r="L132" s="92"/>
-      <c r="M132" s="92"/>
-      <c r="N132" s="100"/>
+      <c r="G132" s="97"/>
+      <c r="H132" s="76"/>
+      <c r="I132" s="76"/>
+      <c r="J132" s="76"/>
+      <c r="K132" s="76"/>
+      <c r="L132" s="76"/>
+      <c r="M132" s="76"/>
+      <c r="N132" s="77"/>
       <c r="O132" s="2"/>
       <c r="P132" s="2"/>
       <c r="Q132" s="2"/>
@@ -7562,21 +7574,21 @@
       <c r="A133" s="50" t="s">
         <v>232</v>
       </c>
-      <c r="B133" s="128" t="s">
+      <c r="B133" s="78" t="s">
         <v>233</v>
       </c>
-      <c r="C133" s="88"/>
-      <c r="D133" s="88"/>
-      <c r="E133" s="89"/>
+      <c r="C133" s="79"/>
+      <c r="D133" s="79"/>
+      <c r="E133" s="80"/>
       <c r="F133" s="37"/>
-      <c r="G133" s="111"/>
-      <c r="H133" s="92"/>
-      <c r="I133" s="92"/>
-      <c r="J133" s="92"/>
-      <c r="K133" s="92"/>
-      <c r="L133" s="92"/>
-      <c r="M133" s="92"/>
-      <c r="N133" s="100"/>
+      <c r="G133" s="97"/>
+      <c r="H133" s="76"/>
+      <c r="I133" s="76"/>
+      <c r="J133" s="76"/>
+      <c r="K133" s="76"/>
+      <c r="L133" s="76"/>
+      <c r="M133" s="76"/>
+      <c r="N133" s="77"/>
       <c r="O133" s="2"/>
       <c r="P133" s="2"/>
       <c r="Q133" s="2"/>
@@ -7594,21 +7606,21 @@
       <c r="A134" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="B134" s="128" t="s">
+      <c r="B134" s="78" t="s">
         <v>235</v>
       </c>
-      <c r="C134" s="88"/>
-      <c r="D134" s="88"/>
-      <c r="E134" s="89"/>
+      <c r="C134" s="79"/>
+      <c r="D134" s="79"/>
+      <c r="E134" s="80"/>
       <c r="F134" s="37"/>
-      <c r="G134" s="111"/>
-      <c r="H134" s="92"/>
-      <c r="I134" s="92"/>
-      <c r="J134" s="92"/>
-      <c r="K134" s="92"/>
-      <c r="L134" s="92"/>
-      <c r="M134" s="92"/>
-      <c r="N134" s="100"/>
+      <c r="G134" s="97"/>
+      <c r="H134" s="76"/>
+      <c r="I134" s="76"/>
+      <c r="J134" s="76"/>
+      <c r="K134" s="76"/>
+      <c r="L134" s="76"/>
+      <c r="M134" s="76"/>
+      <c r="N134" s="77"/>
       <c r="O134" s="2"/>
       <c r="P134" s="2"/>
       <c r="Q134" s="2"/>
@@ -7626,21 +7638,21 @@
       <c r="A135" s="50" t="s">
         <v>236</v>
       </c>
-      <c r="B135" s="128" t="s">
+      <c r="B135" s="78" t="s">
         <v>237</v>
       </c>
-      <c r="C135" s="88"/>
-      <c r="D135" s="88"/>
-      <c r="E135" s="89"/>
+      <c r="C135" s="79"/>
+      <c r="D135" s="79"/>
+      <c r="E135" s="80"/>
       <c r="F135" s="37"/>
-      <c r="G135" s="111"/>
-      <c r="H135" s="92"/>
-      <c r="I135" s="92"/>
-      <c r="J135" s="92"/>
-      <c r="K135" s="92"/>
-      <c r="L135" s="92"/>
-      <c r="M135" s="92"/>
-      <c r="N135" s="100"/>
+      <c r="G135" s="97"/>
+      <c r="H135" s="76"/>
+      <c r="I135" s="76"/>
+      <c r="J135" s="76"/>
+      <c r="K135" s="76"/>
+      <c r="L135" s="76"/>
+      <c r="M135" s="76"/>
+      <c r="N135" s="77"/>
       <c r="O135" s="2"/>
       <c r="P135" s="2"/>
       <c r="Q135" s="2"/>
@@ -7658,21 +7670,21 @@
       <c r="A136" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="B136" s="128" t="s">
+      <c r="B136" s="78" t="s">
         <v>239</v>
       </c>
-      <c r="C136" s="88"/>
-      <c r="D136" s="88"/>
-      <c r="E136" s="89"/>
+      <c r="C136" s="79"/>
+      <c r="D136" s="79"/>
+      <c r="E136" s="80"/>
       <c r="F136" s="37"/>
-      <c r="G136" s="111"/>
-      <c r="H136" s="92"/>
-      <c r="I136" s="92"/>
-      <c r="J136" s="92"/>
-      <c r="K136" s="92"/>
-      <c r="L136" s="92"/>
-      <c r="M136" s="92"/>
-      <c r="N136" s="100"/>
+      <c r="G136" s="97"/>
+      <c r="H136" s="76"/>
+      <c r="I136" s="76"/>
+      <c r="J136" s="76"/>
+      <c r="K136" s="76"/>
+      <c r="L136" s="76"/>
+      <c r="M136" s="76"/>
+      <c r="N136" s="77"/>
       <c r="O136" s="2"/>
       <c r="P136" s="2"/>
       <c r="Q136" s="2"/>
@@ -7690,21 +7702,21 @@
       <c r="A137" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="B137" s="128" t="s">
+      <c r="B137" s="78" t="s">
         <v>241</v>
       </c>
-      <c r="C137" s="88"/>
-      <c r="D137" s="88"/>
-      <c r="E137" s="89"/>
+      <c r="C137" s="79"/>
+      <c r="D137" s="79"/>
+      <c r="E137" s="80"/>
       <c r="F137" s="37"/>
-      <c r="G137" s="111"/>
-      <c r="H137" s="92"/>
-      <c r="I137" s="92"/>
-      <c r="J137" s="92"/>
-      <c r="K137" s="92"/>
-      <c r="L137" s="92"/>
-      <c r="M137" s="92"/>
-      <c r="N137" s="100"/>
+      <c r="G137" s="97"/>
+      <c r="H137" s="76"/>
+      <c r="I137" s="76"/>
+      <c r="J137" s="76"/>
+      <c r="K137" s="76"/>
+      <c r="L137" s="76"/>
+      <c r="M137" s="76"/>
+      <c r="N137" s="77"/>
       <c r="O137" s="2"/>
       <c r="P137" s="2"/>
       <c r="Q137" s="2"/>
@@ -7722,21 +7734,21 @@
       <c r="A138" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="B138" s="110" t="s">
+      <c r="B138" s="99" t="s">
         <v>243</v>
       </c>
-      <c r="C138" s="92"/>
-      <c r="D138" s="92"/>
-      <c r="E138" s="98"/>
+      <c r="C138" s="76"/>
+      <c r="D138" s="76"/>
+      <c r="E138" s="93"/>
       <c r="F138" s="37"/>
-      <c r="G138" s="142"/>
-      <c r="H138" s="143"/>
-      <c r="I138" s="143"/>
-      <c r="J138" s="143"/>
-      <c r="K138" s="143"/>
-      <c r="L138" s="143"/>
-      <c r="M138" s="143"/>
-      <c r="N138" s="144"/>
+      <c r="G138" s="123"/>
+      <c r="H138" s="71"/>
+      <c r="I138" s="71"/>
+      <c r="J138" s="71"/>
+      <c r="K138" s="71"/>
+      <c r="L138" s="71"/>
+      <c r="M138" s="71"/>
+      <c r="N138" s="72"/>
       <c r="O138" s="2"/>
       <c r="P138" s="2"/>
       <c r="Q138" s="2"/>
@@ -7754,21 +7766,21 @@
       <c r="A139" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="B139" s="128" t="s">
+      <c r="B139" s="78" t="s">
         <v>245</v>
       </c>
-      <c r="C139" s="88"/>
-      <c r="D139" s="88"/>
-      <c r="E139" s="89"/>
+      <c r="C139" s="79"/>
+      <c r="D139" s="79"/>
+      <c r="E139" s="80"/>
       <c r="F139" s="37"/>
-      <c r="G139" s="111"/>
-      <c r="H139" s="92"/>
-      <c r="I139" s="92"/>
-      <c r="J139" s="92"/>
-      <c r="K139" s="92"/>
-      <c r="L139" s="92"/>
-      <c r="M139" s="92"/>
-      <c r="N139" s="100"/>
+      <c r="G139" s="97"/>
+      <c r="H139" s="76"/>
+      <c r="I139" s="76"/>
+      <c r="J139" s="76"/>
+      <c r="K139" s="76"/>
+      <c r="L139" s="76"/>
+      <c r="M139" s="76"/>
+      <c r="N139" s="77"/>
       <c r="O139" s="2"/>
       <c r="P139" s="2"/>
       <c r="Q139" s="2"/>
@@ -7786,21 +7798,21 @@
       <c r="A140" s="51" t="s">
         <v>246</v>
       </c>
-      <c r="B140" s="128" t="s">
+      <c r="B140" s="78" t="s">
         <v>247</v>
       </c>
-      <c r="C140" s="88"/>
-      <c r="D140" s="88"/>
-      <c r="E140" s="89"/>
+      <c r="C140" s="79"/>
+      <c r="D140" s="79"/>
+      <c r="E140" s="80"/>
       <c r="F140" s="43"/>
-      <c r="G140" s="111"/>
-      <c r="H140" s="92"/>
-      <c r="I140" s="92"/>
-      <c r="J140" s="92"/>
-      <c r="K140" s="92"/>
-      <c r="L140" s="92"/>
-      <c r="M140" s="92"/>
-      <c r="N140" s="100"/>
+      <c r="G140" s="97"/>
+      <c r="H140" s="76"/>
+      <c r="I140" s="76"/>
+      <c r="J140" s="76"/>
+      <c r="K140" s="76"/>
+      <c r="L140" s="76"/>
+      <c r="M140" s="76"/>
+      <c r="N140" s="77"/>
       <c r="O140" s="2"/>
       <c r="P140" s="2"/>
       <c r="Q140" s="2"/>
@@ -7818,21 +7830,21 @@
       <c r="A141" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="B141" s="128" t="s">
+      <c r="B141" s="78" t="s">
         <v>249</v>
       </c>
-      <c r="C141" s="88"/>
-      <c r="D141" s="88"/>
-      <c r="E141" s="89"/>
+      <c r="C141" s="79"/>
+      <c r="D141" s="79"/>
+      <c r="E141" s="80"/>
       <c r="F141" s="37"/>
-      <c r="G141" s="111"/>
-      <c r="H141" s="92"/>
-      <c r="I141" s="92"/>
-      <c r="J141" s="92"/>
-      <c r="K141" s="92"/>
-      <c r="L141" s="92"/>
-      <c r="M141" s="92"/>
-      <c r="N141" s="100"/>
+      <c r="G141" s="97"/>
+      <c r="H141" s="76"/>
+      <c r="I141" s="76"/>
+      <c r="J141" s="76"/>
+      <c r="K141" s="76"/>
+      <c r="L141" s="76"/>
+      <c r="M141" s="76"/>
+      <c r="N141" s="77"/>
       <c r="O141" s="2"/>
       <c r="P141" s="2"/>
       <c r="Q141" s="2"/>
@@ -7850,21 +7862,21 @@
       <c r="A142" s="51" t="s">
         <v>250</v>
       </c>
-      <c r="B142" s="127" t="s">
+      <c r="B142" s="91" t="s">
         <v>251</v>
       </c>
-      <c r="C142" s="115"/>
-      <c r="D142" s="115"/>
-      <c r="E142" s="126"/>
+      <c r="C142" s="89"/>
+      <c r="D142" s="89"/>
+      <c r="E142" s="90"/>
       <c r="F142" s="37"/>
-      <c r="G142" s="111"/>
-      <c r="H142" s="92"/>
-      <c r="I142" s="92"/>
-      <c r="J142" s="92"/>
-      <c r="K142" s="92"/>
-      <c r="L142" s="92"/>
-      <c r="M142" s="92"/>
-      <c r="N142" s="100"/>
+      <c r="G142" s="97"/>
+      <c r="H142" s="76"/>
+      <c r="I142" s="76"/>
+      <c r="J142" s="76"/>
+      <c r="K142" s="76"/>
+      <c r="L142" s="76"/>
+      <c r="M142" s="76"/>
+      <c r="N142" s="77"/>
       <c r="O142" s="2"/>
       <c r="P142" s="2"/>
       <c r="Q142" s="2"/>
@@ -7882,21 +7894,21 @@
       <c r="A143" s="50" t="s">
         <v>252</v>
       </c>
-      <c r="B143" s="127" t="s">
+      <c r="B143" s="91" t="s">
         <v>253</v>
       </c>
-      <c r="C143" s="115"/>
-      <c r="D143" s="115"/>
-      <c r="E143" s="126"/>
+      <c r="C143" s="89"/>
+      <c r="D143" s="89"/>
+      <c r="E143" s="90"/>
       <c r="F143" s="37"/>
-      <c r="G143" s="111"/>
-      <c r="H143" s="92"/>
-      <c r="I143" s="92"/>
-      <c r="J143" s="92"/>
-      <c r="K143" s="92"/>
-      <c r="L143" s="92"/>
-      <c r="M143" s="92"/>
-      <c r="N143" s="100"/>
+      <c r="G143" s="97"/>
+      <c r="H143" s="76"/>
+      <c r="I143" s="76"/>
+      <c r="J143" s="76"/>
+      <c r="K143" s="76"/>
+      <c r="L143" s="76"/>
+      <c r="M143" s="76"/>
+      <c r="N143" s="77"/>
       <c r="O143" s="2"/>
       <c r="P143" s="2"/>
       <c r="Q143" s="2"/>
@@ -7914,21 +7926,21 @@
       <c r="A144" s="51" t="s">
         <v>254</v>
       </c>
-      <c r="B144" s="127" t="s">
+      <c r="B144" s="91" t="s">
         <v>255</v>
       </c>
-      <c r="C144" s="115"/>
-      <c r="D144" s="115"/>
-      <c r="E144" s="126"/>
+      <c r="C144" s="89"/>
+      <c r="D144" s="89"/>
+      <c r="E144" s="90"/>
       <c r="F144" s="37"/>
-      <c r="G144" s="117"/>
-      <c r="H144" s="118"/>
-      <c r="I144" s="118"/>
-      <c r="J144" s="118"/>
-      <c r="K144" s="118"/>
-      <c r="L144" s="118"/>
-      <c r="M144" s="118"/>
-      <c r="N144" s="119"/>
+      <c r="G144" s="110"/>
+      <c r="H144" s="102"/>
+      <c r="I144" s="102"/>
+      <c r="J144" s="102"/>
+      <c r="K144" s="102"/>
+      <c r="L144" s="102"/>
+      <c r="M144" s="102"/>
+      <c r="N144" s="111"/>
       <c r="O144" s="2"/>
       <c r="P144" s="2"/>
       <c r="Q144" s="2"/>
@@ -7943,11 +7955,11 @@
       <c r="Z144" s="2"/>
     </row>
     <row r="145" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="120" t="s">
+      <c r="A145" s="81" t="s">
         <v>256</v>
       </c>
-      <c r="B145" s="74"/>
-      <c r="C145" s="121"/>
+      <c r="B145" s="82"/>
+      <c r="C145" s="83"/>
       <c r="D145" s="31" t="s">
         <v>50</v>
       </c>
@@ -7955,20 +7967,20 @@
         <f>COUNTIF(F147:F155,"&lt;&gt;"&amp;$A$27)*3</f>
         <v>27</v>
       </c>
-      <c r="F145" s="123">
+      <c r="F145" s="86">
         <f>SUM(F147:F155)</f>
         <v>0</v>
       </c>
-      <c r="G145" s="112" t="s">
+      <c r="G145" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="H145" s="74"/>
-      <c r="I145" s="74"/>
-      <c r="J145" s="74"/>
-      <c r="K145" s="74"/>
-      <c r="L145" s="74"/>
-      <c r="M145" s="74"/>
-      <c r="N145" s="69"/>
+      <c r="H145" s="82"/>
+      <c r="I145" s="82"/>
+      <c r="J145" s="82"/>
+      <c r="K145" s="82"/>
+      <c r="L145" s="82"/>
+      <c r="M145" s="82"/>
+      <c r="N145" s="106"/>
       <c r="O145" s="2"/>
       <c r="P145" s="2"/>
       <c r="Q145" s="2"/>
@@ -7983,9 +7995,9 @@
       <c r="Z145" s="2"/>
     </row>
     <row r="146" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="71"/>
-      <c r="B146" s="75"/>
-      <c r="C146" s="122"/>
+      <c r="A146" s="84"/>
+      <c r="B146" s="66"/>
+      <c r="C146" s="85"/>
       <c r="D146" s="33" t="s">
         <v>52</v>
       </c>
@@ -7993,15 +8005,15 @@
         <f>F145/E145</f>
         <v>0</v>
       </c>
-      <c r="F146" s="124"/>
-      <c r="G146" s="113"/>
-      <c r="H146" s="75"/>
-      <c r="I146" s="75"/>
-      <c r="J146" s="75"/>
-      <c r="K146" s="75"/>
-      <c r="L146" s="75"/>
-      <c r="M146" s="75"/>
-      <c r="N146" s="72"/>
+      <c r="F146" s="87"/>
+      <c r="G146" s="107"/>
+      <c r="H146" s="66"/>
+      <c r="I146" s="66"/>
+      <c r="J146" s="66"/>
+      <c r="K146" s="66"/>
+      <c r="L146" s="66"/>
+      <c r="M146" s="66"/>
+      <c r="N146" s="67"/>
       <c r="O146" s="52"/>
       <c r="P146" s="52"/>
       <c r="Q146" s="52"/>
@@ -8019,21 +8031,21 @@
       <c r="A147" s="45" t="s">
         <v>257</v>
       </c>
-      <c r="B147" s="136" t="s">
+      <c r="B147" s="125" t="s">
         <v>258</v>
       </c>
-      <c r="C147" s="95"/>
-      <c r="D147" s="95"/>
-      <c r="E147" s="105"/>
+      <c r="C147" s="69"/>
+      <c r="D147" s="69"/>
+      <c r="E147" s="126"/>
       <c r="F147" s="36"/>
-      <c r="G147" s="132"/>
-      <c r="H147" s="88"/>
-      <c r="I147" s="88"/>
-      <c r="J147" s="88"/>
-      <c r="K147" s="88"/>
-      <c r="L147" s="88"/>
-      <c r="M147" s="88"/>
-      <c r="N147" s="133"/>
+      <c r="G147" s="108"/>
+      <c r="H147" s="79"/>
+      <c r="I147" s="79"/>
+      <c r="J147" s="79"/>
+      <c r="K147" s="79"/>
+      <c r="L147" s="79"/>
+      <c r="M147" s="79"/>
+      <c r="N147" s="109"/>
       <c r="O147" s="52"/>
       <c r="P147" s="52"/>
       <c r="Q147" s="52"/>
@@ -8051,21 +8063,21 @@
       <c r="A148" s="35" t="s">
         <v>259</v>
       </c>
-      <c r="B148" s="137" t="s">
+      <c r="B148" s="98" t="s">
         <v>260</v>
       </c>
-      <c r="C148" s="92"/>
-      <c r="D148" s="92"/>
-      <c r="E148" s="98"/>
+      <c r="C148" s="76"/>
+      <c r="D148" s="76"/>
+      <c r="E148" s="93"/>
       <c r="F148" s="37"/>
-      <c r="G148" s="111"/>
-      <c r="H148" s="92"/>
-      <c r="I148" s="92"/>
-      <c r="J148" s="92"/>
-      <c r="K148" s="92"/>
-      <c r="L148" s="92"/>
-      <c r="M148" s="92"/>
-      <c r="N148" s="100"/>
+      <c r="G148" s="97"/>
+      <c r="H148" s="76"/>
+      <c r="I148" s="76"/>
+      <c r="J148" s="76"/>
+      <c r="K148" s="76"/>
+      <c r="L148" s="76"/>
+      <c r="M148" s="76"/>
+      <c r="N148" s="77"/>
       <c r="O148" s="52"/>
       <c r="P148" s="52"/>
       <c r="Q148" s="52"/>
@@ -8083,21 +8095,21 @@
       <c r="A149" s="45" t="s">
         <v>261</v>
       </c>
-      <c r="B149" s="109" t="s">
+      <c r="B149" s="92" t="s">
         <v>262</v>
       </c>
-      <c r="C149" s="92"/>
-      <c r="D149" s="92"/>
-      <c r="E149" s="98"/>
+      <c r="C149" s="76"/>
+      <c r="D149" s="76"/>
+      <c r="E149" s="93"/>
       <c r="F149" s="37"/>
-      <c r="G149" s="111"/>
-      <c r="H149" s="92"/>
-      <c r="I149" s="92"/>
-      <c r="J149" s="92"/>
-      <c r="K149" s="92"/>
-      <c r="L149" s="92"/>
-      <c r="M149" s="92"/>
-      <c r="N149" s="100"/>
+      <c r="G149" s="97"/>
+      <c r="H149" s="76"/>
+      <c r="I149" s="76"/>
+      <c r="J149" s="76"/>
+      <c r="K149" s="76"/>
+      <c r="L149" s="76"/>
+      <c r="M149" s="76"/>
+      <c r="N149" s="77"/>
       <c r="O149" s="52"/>
       <c r="P149" s="52"/>
       <c r="Q149" s="52"/>
@@ -8115,21 +8127,21 @@
       <c r="A150" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="B150" s="109" t="s">
+      <c r="B150" s="92" t="s">
         <v>264</v>
       </c>
-      <c r="C150" s="92"/>
-      <c r="D150" s="92"/>
-      <c r="E150" s="98"/>
+      <c r="C150" s="76"/>
+      <c r="D150" s="76"/>
+      <c r="E150" s="93"/>
       <c r="F150" s="37"/>
-      <c r="G150" s="111"/>
-      <c r="H150" s="92"/>
-      <c r="I150" s="92"/>
-      <c r="J150" s="92"/>
-      <c r="K150" s="92"/>
-      <c r="L150" s="92"/>
-      <c r="M150" s="92"/>
-      <c r="N150" s="100"/>
+      <c r="G150" s="97"/>
+      <c r="H150" s="76"/>
+      <c r="I150" s="76"/>
+      <c r="J150" s="76"/>
+      <c r="K150" s="76"/>
+      <c r="L150" s="76"/>
+      <c r="M150" s="76"/>
+      <c r="N150" s="77"/>
       <c r="O150" s="52"/>
       <c r="P150" s="52"/>
       <c r="Q150" s="52"/>
@@ -8147,21 +8159,21 @@
       <c r="A151" s="45" t="s">
         <v>265</v>
       </c>
-      <c r="B151" s="137" t="s">
+      <c r="B151" s="98" t="s">
         <v>266</v>
       </c>
-      <c r="C151" s="92"/>
-      <c r="D151" s="92"/>
-      <c r="E151" s="98"/>
+      <c r="C151" s="76"/>
+      <c r="D151" s="76"/>
+      <c r="E151" s="93"/>
       <c r="F151" s="37"/>
-      <c r="G151" s="111"/>
-      <c r="H151" s="92"/>
-      <c r="I151" s="92"/>
-      <c r="J151" s="92"/>
-      <c r="K151" s="92"/>
-      <c r="L151" s="92"/>
-      <c r="M151" s="92"/>
-      <c r="N151" s="100"/>
+      <c r="G151" s="97"/>
+      <c r="H151" s="76"/>
+      <c r="I151" s="76"/>
+      <c r="J151" s="76"/>
+      <c r="K151" s="76"/>
+      <c r="L151" s="76"/>
+      <c r="M151" s="76"/>
+      <c r="N151" s="77"/>
       <c r="O151" s="52"/>
       <c r="P151" s="52"/>
       <c r="Q151" s="52"/>
@@ -8179,21 +8191,21 @@
       <c r="A152" s="35" t="s">
         <v>267</v>
       </c>
-      <c r="B152" s="109" t="s">
+      <c r="B152" s="92" t="s">
         <v>268</v>
       </c>
-      <c r="C152" s="92"/>
-      <c r="D152" s="92"/>
-      <c r="E152" s="98"/>
+      <c r="C152" s="76"/>
+      <c r="D152" s="76"/>
+      <c r="E152" s="93"/>
       <c r="F152" s="37"/>
-      <c r="G152" s="111"/>
-      <c r="H152" s="92"/>
-      <c r="I152" s="92"/>
-      <c r="J152" s="92"/>
-      <c r="K152" s="92"/>
-      <c r="L152" s="92"/>
-      <c r="M152" s="92"/>
-      <c r="N152" s="100"/>
+      <c r="G152" s="97"/>
+      <c r="H152" s="76"/>
+      <c r="I152" s="76"/>
+      <c r="J152" s="76"/>
+      <c r="K152" s="76"/>
+      <c r="L152" s="76"/>
+      <c r="M152" s="76"/>
+      <c r="N152" s="77"/>
       <c r="O152" s="52"/>
       <c r="P152" s="52"/>
       <c r="Q152" s="52"/>
@@ -8211,21 +8223,21 @@
       <c r="A153" s="45" t="s">
         <v>269</v>
       </c>
-      <c r="B153" s="109" t="s">
+      <c r="B153" s="92" t="s">
         <v>270</v>
       </c>
-      <c r="C153" s="92"/>
-      <c r="D153" s="92"/>
-      <c r="E153" s="98"/>
+      <c r="C153" s="76"/>
+      <c r="D153" s="76"/>
+      <c r="E153" s="93"/>
       <c r="F153" s="37"/>
-      <c r="G153" s="111"/>
-      <c r="H153" s="92"/>
-      <c r="I153" s="92"/>
-      <c r="J153" s="92"/>
-      <c r="K153" s="92"/>
-      <c r="L153" s="92"/>
-      <c r="M153" s="92"/>
-      <c r="N153" s="100"/>
+      <c r="G153" s="97"/>
+      <c r="H153" s="76"/>
+      <c r="I153" s="76"/>
+      <c r="J153" s="76"/>
+      <c r="K153" s="76"/>
+      <c r="L153" s="76"/>
+      <c r="M153" s="76"/>
+      <c r="N153" s="77"/>
       <c r="O153" s="52"/>
       <c r="P153" s="52"/>
       <c r="Q153" s="52"/>
@@ -8243,21 +8255,21 @@
       <c r="A154" s="35" t="s">
         <v>271</v>
       </c>
-      <c r="B154" s="109" t="s">
+      <c r="B154" s="92" t="s">
         <v>272</v>
       </c>
-      <c r="C154" s="92"/>
-      <c r="D154" s="92"/>
-      <c r="E154" s="98"/>
+      <c r="C154" s="76"/>
+      <c r="D154" s="76"/>
+      <c r="E154" s="93"/>
       <c r="F154" s="37"/>
-      <c r="G154" s="111"/>
-      <c r="H154" s="92"/>
-      <c r="I154" s="92"/>
-      <c r="J154" s="92"/>
-      <c r="K154" s="92"/>
-      <c r="L154" s="92"/>
-      <c r="M154" s="92"/>
-      <c r="N154" s="100"/>
+      <c r="G154" s="97"/>
+      <c r="H154" s="76"/>
+      <c r="I154" s="76"/>
+      <c r="J154" s="76"/>
+      <c r="K154" s="76"/>
+      <c r="L154" s="76"/>
+      <c r="M154" s="76"/>
+      <c r="N154" s="77"/>
       <c r="O154" s="52"/>
       <c r="P154" s="52"/>
       <c r="Q154" s="52"/>
@@ -8275,21 +8287,21 @@
       <c r="A155" s="45" t="s">
         <v>273</v>
       </c>
-      <c r="B155" s="138" t="s">
+      <c r="B155" s="124" t="s">
         <v>274</v>
       </c>
-      <c r="C155" s="118"/>
-      <c r="D155" s="118"/>
-      <c r="E155" s="139"/>
+      <c r="C155" s="102"/>
+      <c r="D155" s="102"/>
+      <c r="E155" s="103"/>
       <c r="F155" s="37"/>
-      <c r="G155" s="111"/>
-      <c r="H155" s="92"/>
-      <c r="I155" s="92"/>
-      <c r="J155" s="92"/>
-      <c r="K155" s="92"/>
-      <c r="L155" s="92"/>
-      <c r="M155" s="92"/>
-      <c r="N155" s="100"/>
+      <c r="G155" s="97"/>
+      <c r="H155" s="76"/>
+      <c r="I155" s="76"/>
+      <c r="J155" s="76"/>
+      <c r="K155" s="76"/>
+      <c r="L155" s="76"/>
+      <c r="M155" s="76"/>
+      <c r="N155" s="77"/>
       <c r="O155" s="52"/>
       <c r="P155" s="52"/>
       <c r="Q155" s="52"/>
@@ -8304,11 +8316,11 @@
       <c r="Z155" s="52"/>
     </row>
     <row r="156" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="120" t="s">
+      <c r="A156" s="81" t="s">
         <v>275</v>
       </c>
-      <c r="B156" s="74"/>
-      <c r="C156" s="121"/>
+      <c r="B156" s="82"/>
+      <c r="C156" s="83"/>
       <c r="D156" s="31" t="s">
         <v>50</v>
       </c>
@@ -8316,20 +8328,20 @@
         <f>COUNTIF(F158:F171,"&lt;&gt;"&amp;$A$27)*3</f>
         <v>42</v>
       </c>
-      <c r="F156" s="123">
+      <c r="F156" s="86">
         <f>SUM(F158:F171)</f>
         <v>0</v>
       </c>
-      <c r="G156" s="112" t="s">
+      <c r="G156" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="H156" s="74"/>
-      <c r="I156" s="74"/>
-      <c r="J156" s="74"/>
-      <c r="K156" s="74"/>
-      <c r="L156" s="74"/>
-      <c r="M156" s="74"/>
-      <c r="N156" s="69"/>
+      <c r="H156" s="82"/>
+      <c r="I156" s="82"/>
+      <c r="J156" s="82"/>
+      <c r="K156" s="82"/>
+      <c r="L156" s="82"/>
+      <c r="M156" s="82"/>
+      <c r="N156" s="106"/>
       <c r="O156" s="52"/>
       <c r="P156" s="52"/>
       <c r="Q156" s="52"/>
@@ -8344,9 +8356,9 @@
       <c r="Z156" s="52"/>
     </row>
     <row r="157" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="71"/>
-      <c r="B157" s="75"/>
-      <c r="C157" s="122"/>
+      <c r="A157" s="84"/>
+      <c r="B157" s="66"/>
+      <c r="C157" s="85"/>
       <c r="D157" s="33" t="s">
         <v>52</v>
       </c>
@@ -8354,15 +8366,15 @@
         <f>F156/E156</f>
         <v>0</v>
       </c>
-      <c r="F157" s="124"/>
-      <c r="G157" s="113"/>
-      <c r="H157" s="75"/>
-      <c r="I157" s="75"/>
-      <c r="J157" s="75"/>
-      <c r="K157" s="75"/>
-      <c r="L157" s="75"/>
-      <c r="M157" s="75"/>
-      <c r="N157" s="72"/>
+      <c r="F157" s="87"/>
+      <c r="G157" s="107"/>
+      <c r="H157" s="66"/>
+      <c r="I157" s="66"/>
+      <c r="J157" s="66"/>
+      <c r="K157" s="66"/>
+      <c r="L157" s="66"/>
+      <c r="M157" s="66"/>
+      <c r="N157" s="67"/>
       <c r="O157" s="52"/>
       <c r="P157" s="52"/>
       <c r="Q157" s="52"/>
@@ -8380,21 +8392,21 @@
       <c r="A158" s="53" t="s">
         <v>276</v>
       </c>
-      <c r="B158" s="128" t="s">
+      <c r="B158" s="78" t="s">
         <v>277</v>
       </c>
-      <c r="C158" s="88"/>
-      <c r="D158" s="88"/>
-      <c r="E158" s="89"/>
+      <c r="C158" s="79"/>
+      <c r="D158" s="79"/>
+      <c r="E158" s="80"/>
       <c r="F158" s="36"/>
-      <c r="G158" s="132"/>
-      <c r="H158" s="88"/>
-      <c r="I158" s="88"/>
-      <c r="J158" s="88"/>
-      <c r="K158" s="88"/>
-      <c r="L158" s="88"/>
-      <c r="M158" s="88"/>
-      <c r="N158" s="133"/>
+      <c r="G158" s="108"/>
+      <c r="H158" s="79"/>
+      <c r="I158" s="79"/>
+      <c r="J158" s="79"/>
+      <c r="K158" s="79"/>
+      <c r="L158" s="79"/>
+      <c r="M158" s="79"/>
+      <c r="N158" s="109"/>
       <c r="O158" s="52"/>
       <c r="P158" s="52"/>
       <c r="Q158" s="52"/>
@@ -8412,21 +8424,21 @@
       <c r="A159" s="50" t="s">
         <v>278</v>
       </c>
-      <c r="B159" s="128" t="s">
+      <c r="B159" s="78" t="s">
         <v>279</v>
       </c>
-      <c r="C159" s="88"/>
-      <c r="D159" s="88"/>
-      <c r="E159" s="89"/>
+      <c r="C159" s="79"/>
+      <c r="D159" s="79"/>
+      <c r="E159" s="80"/>
       <c r="F159" s="43"/>
-      <c r="G159" s="111"/>
-      <c r="H159" s="92"/>
-      <c r="I159" s="92"/>
-      <c r="J159" s="92"/>
-      <c r="K159" s="92"/>
-      <c r="L159" s="92"/>
-      <c r="M159" s="92"/>
-      <c r="N159" s="100"/>
+      <c r="G159" s="97"/>
+      <c r="H159" s="76"/>
+      <c r="I159" s="76"/>
+      <c r="J159" s="76"/>
+      <c r="K159" s="76"/>
+      <c r="L159" s="76"/>
+      <c r="M159" s="76"/>
+      <c r="N159" s="77"/>
       <c r="O159" s="52"/>
       <c r="P159" s="52"/>
       <c r="Q159" s="52"/>
@@ -8444,21 +8456,21 @@
       <c r="A160" s="53" t="s">
         <v>280</v>
       </c>
-      <c r="B160" s="128" t="s">
+      <c r="B160" s="78" t="s">
         <v>281</v>
       </c>
-      <c r="C160" s="88"/>
-      <c r="D160" s="88"/>
-      <c r="E160" s="89"/>
+      <c r="C160" s="79"/>
+      <c r="D160" s="79"/>
+      <c r="E160" s="80"/>
       <c r="F160" s="37"/>
-      <c r="G160" s="111"/>
-      <c r="H160" s="92"/>
-      <c r="I160" s="92"/>
-      <c r="J160" s="92"/>
-      <c r="K160" s="92"/>
-      <c r="L160" s="92"/>
-      <c r="M160" s="92"/>
-      <c r="N160" s="100"/>
+      <c r="G160" s="97"/>
+      <c r="H160" s="76"/>
+      <c r="I160" s="76"/>
+      <c r="J160" s="76"/>
+      <c r="K160" s="76"/>
+      <c r="L160" s="76"/>
+      <c r="M160" s="76"/>
+      <c r="N160" s="77"/>
       <c r="O160" s="52"/>
       <c r="P160" s="52"/>
       <c r="Q160" s="52"/>
@@ -8476,21 +8488,21 @@
       <c r="A161" s="50" t="s">
         <v>282</v>
       </c>
-      <c r="B161" s="128" t="s">
+      <c r="B161" s="78" t="s">
         <v>283</v>
       </c>
-      <c r="C161" s="88"/>
-      <c r="D161" s="88"/>
-      <c r="E161" s="89"/>
+      <c r="C161" s="79"/>
+      <c r="D161" s="79"/>
+      <c r="E161" s="80"/>
       <c r="F161" s="37"/>
-      <c r="G161" s="111"/>
-      <c r="H161" s="92"/>
-      <c r="I161" s="92"/>
-      <c r="J161" s="92"/>
-      <c r="K161" s="92"/>
-      <c r="L161" s="92"/>
-      <c r="M161" s="92"/>
-      <c r="N161" s="100"/>
+      <c r="G161" s="97"/>
+      <c r="H161" s="76"/>
+      <c r="I161" s="76"/>
+      <c r="J161" s="76"/>
+      <c r="K161" s="76"/>
+      <c r="L161" s="76"/>
+      <c r="M161" s="76"/>
+      <c r="N161" s="77"/>
       <c r="O161" s="52"/>
       <c r="P161" s="52"/>
       <c r="Q161" s="52"/>
@@ -8508,21 +8520,21 @@
       <c r="A162" s="53" t="s">
         <v>284</v>
       </c>
-      <c r="B162" s="128" t="s">
+      <c r="B162" s="78" t="s">
         <v>285</v>
       </c>
-      <c r="C162" s="88"/>
-      <c r="D162" s="88"/>
-      <c r="E162" s="89"/>
+      <c r="C162" s="79"/>
+      <c r="D162" s="79"/>
+      <c r="E162" s="80"/>
       <c r="F162" s="37"/>
-      <c r="G162" s="111"/>
-      <c r="H162" s="92"/>
-      <c r="I162" s="92"/>
-      <c r="J162" s="92"/>
-      <c r="K162" s="92"/>
-      <c r="L162" s="92"/>
-      <c r="M162" s="92"/>
-      <c r="N162" s="100"/>
+      <c r="G162" s="97"/>
+      <c r="H162" s="76"/>
+      <c r="I162" s="76"/>
+      <c r="J162" s="76"/>
+      <c r="K162" s="76"/>
+      <c r="L162" s="76"/>
+      <c r="M162" s="76"/>
+      <c r="N162" s="77"/>
       <c r="O162" s="52"/>
       <c r="P162" s="52"/>
       <c r="Q162" s="52"/>
@@ -8540,21 +8552,21 @@
       <c r="A163" s="50" t="s">
         <v>286</v>
       </c>
-      <c r="B163" s="128" t="s">
+      <c r="B163" s="78" t="s">
         <v>287</v>
       </c>
-      <c r="C163" s="88"/>
-      <c r="D163" s="88"/>
-      <c r="E163" s="89"/>
+      <c r="C163" s="79"/>
+      <c r="D163" s="79"/>
+      <c r="E163" s="80"/>
       <c r="F163" s="43"/>
-      <c r="G163" s="111"/>
-      <c r="H163" s="92"/>
-      <c r="I163" s="92"/>
-      <c r="J163" s="92"/>
-      <c r="K163" s="92"/>
-      <c r="L163" s="92"/>
-      <c r="M163" s="92"/>
-      <c r="N163" s="100"/>
+      <c r="G163" s="97"/>
+      <c r="H163" s="76"/>
+      <c r="I163" s="76"/>
+      <c r="J163" s="76"/>
+      <c r="K163" s="76"/>
+      <c r="L163" s="76"/>
+      <c r="M163" s="76"/>
+      <c r="N163" s="77"/>
       <c r="O163" s="52"/>
       <c r="P163" s="52"/>
       <c r="Q163" s="52"/>
@@ -8572,21 +8584,21 @@
       <c r="A164" s="53" t="s">
         <v>288</v>
       </c>
-      <c r="B164" s="128" t="s">
+      <c r="B164" s="78" t="s">
         <v>289</v>
       </c>
-      <c r="C164" s="88"/>
-      <c r="D164" s="88"/>
-      <c r="E164" s="89"/>
+      <c r="C164" s="79"/>
+      <c r="D164" s="79"/>
+      <c r="E164" s="80"/>
       <c r="F164" s="43"/>
-      <c r="G164" s="111"/>
-      <c r="H164" s="92"/>
-      <c r="I164" s="92"/>
-      <c r="J164" s="92"/>
-      <c r="K164" s="92"/>
-      <c r="L164" s="92"/>
-      <c r="M164" s="92"/>
-      <c r="N164" s="100"/>
+      <c r="G164" s="97"/>
+      <c r="H164" s="76"/>
+      <c r="I164" s="76"/>
+      <c r="J164" s="76"/>
+      <c r="K164" s="76"/>
+      <c r="L164" s="76"/>
+      <c r="M164" s="76"/>
+      <c r="N164" s="77"/>
       <c r="O164" s="52"/>
       <c r="P164" s="52"/>
       <c r="Q164" s="52"/>
@@ -8604,21 +8616,21 @@
       <c r="A165" s="50" t="s">
         <v>290</v>
       </c>
-      <c r="B165" s="128" t="s">
+      <c r="B165" s="78" t="s">
         <v>291</v>
       </c>
-      <c r="C165" s="88"/>
-      <c r="D165" s="88"/>
-      <c r="E165" s="89"/>
+      <c r="C165" s="79"/>
+      <c r="D165" s="79"/>
+      <c r="E165" s="80"/>
       <c r="F165" s="37"/>
-      <c r="G165" s="111"/>
-      <c r="H165" s="92"/>
-      <c r="I165" s="92"/>
-      <c r="J165" s="92"/>
-      <c r="K165" s="92"/>
-      <c r="L165" s="92"/>
-      <c r="M165" s="92"/>
-      <c r="N165" s="100"/>
+      <c r="G165" s="97"/>
+      <c r="H165" s="76"/>
+      <c r="I165" s="76"/>
+      <c r="J165" s="76"/>
+      <c r="K165" s="76"/>
+      <c r="L165" s="76"/>
+      <c r="M165" s="76"/>
+      <c r="N165" s="77"/>
       <c r="O165" s="52"/>
       <c r="P165" s="52"/>
       <c r="Q165" s="52"/>
@@ -8636,21 +8648,21 @@
       <c r="A166" s="53" t="s">
         <v>292</v>
       </c>
-      <c r="B166" s="128" t="s">
+      <c r="B166" s="78" t="s">
         <v>293</v>
       </c>
-      <c r="C166" s="88"/>
-      <c r="D166" s="88"/>
-      <c r="E166" s="89"/>
+      <c r="C166" s="79"/>
+      <c r="D166" s="79"/>
+      <c r="E166" s="80"/>
       <c r="F166" s="37"/>
-      <c r="G166" s="111"/>
-      <c r="H166" s="92"/>
-      <c r="I166" s="92"/>
-      <c r="J166" s="92"/>
-      <c r="K166" s="92"/>
-      <c r="L166" s="92"/>
-      <c r="M166" s="92"/>
-      <c r="N166" s="100"/>
+      <c r="G166" s="97"/>
+      <c r="H166" s="76"/>
+      <c r="I166" s="76"/>
+      <c r="J166" s="76"/>
+      <c r="K166" s="76"/>
+      <c r="L166" s="76"/>
+      <c r="M166" s="76"/>
+      <c r="N166" s="77"/>
       <c r="O166" s="52"/>
       <c r="P166" s="52"/>
       <c r="Q166" s="52"/>
@@ -8668,21 +8680,21 @@
       <c r="A167" s="54" t="s">
         <v>294</v>
       </c>
-      <c r="B167" s="128" t="s">
+      <c r="B167" s="78" t="s">
         <v>295</v>
       </c>
-      <c r="C167" s="88"/>
-      <c r="D167" s="88"/>
-      <c r="E167" s="89"/>
+      <c r="C167" s="79"/>
+      <c r="D167" s="79"/>
+      <c r="E167" s="80"/>
       <c r="F167" s="37"/>
-      <c r="G167" s="111"/>
-      <c r="H167" s="92"/>
-      <c r="I167" s="92"/>
-      <c r="J167" s="92"/>
-      <c r="K167" s="92"/>
-      <c r="L167" s="92"/>
-      <c r="M167" s="92"/>
-      <c r="N167" s="100"/>
+      <c r="G167" s="97"/>
+      <c r="H167" s="76"/>
+      <c r="I167" s="76"/>
+      <c r="J167" s="76"/>
+      <c r="K167" s="76"/>
+      <c r="L167" s="76"/>
+      <c r="M167" s="76"/>
+      <c r="N167" s="77"/>
       <c r="O167" s="52"/>
       <c r="P167" s="52"/>
       <c r="Q167" s="52"/>
@@ -8700,21 +8712,21 @@
       <c r="A168" s="53" t="s">
         <v>296</v>
       </c>
-      <c r="B168" s="128" t="s">
+      <c r="B168" s="78" t="s">
         <v>297</v>
       </c>
-      <c r="C168" s="88"/>
-      <c r="D168" s="88"/>
-      <c r="E168" s="89"/>
+      <c r="C168" s="79"/>
+      <c r="D168" s="79"/>
+      <c r="E168" s="80"/>
       <c r="F168" s="37"/>
-      <c r="G168" s="111"/>
-      <c r="H168" s="92"/>
-      <c r="I168" s="92"/>
-      <c r="J168" s="92"/>
-      <c r="K168" s="92"/>
-      <c r="L168" s="92"/>
-      <c r="M168" s="92"/>
-      <c r="N168" s="100"/>
+      <c r="G168" s="97"/>
+      <c r="H168" s="76"/>
+      <c r="I168" s="76"/>
+      <c r="J168" s="76"/>
+      <c r="K168" s="76"/>
+      <c r="L168" s="76"/>
+      <c r="M168" s="76"/>
+      <c r="N168" s="77"/>
       <c r="O168" s="52"/>
       <c r="P168" s="52"/>
       <c r="Q168" s="52"/>
@@ -8732,21 +8744,21 @@
       <c r="A169" s="54" t="s">
         <v>298</v>
       </c>
-      <c r="B169" s="128" t="s">
+      <c r="B169" s="78" t="s">
         <v>299</v>
       </c>
-      <c r="C169" s="88"/>
-      <c r="D169" s="88"/>
-      <c r="E169" s="89"/>
+      <c r="C169" s="79"/>
+      <c r="D169" s="79"/>
+      <c r="E169" s="80"/>
       <c r="F169" s="37"/>
-      <c r="G169" s="111"/>
-      <c r="H169" s="92"/>
-      <c r="I169" s="92"/>
-      <c r="J169" s="92"/>
-      <c r="K169" s="92"/>
-      <c r="L169" s="92"/>
-      <c r="M169" s="92"/>
-      <c r="N169" s="100"/>
+      <c r="G169" s="97"/>
+      <c r="H169" s="76"/>
+      <c r="I169" s="76"/>
+      <c r="J169" s="76"/>
+      <c r="K169" s="76"/>
+      <c r="L169" s="76"/>
+      <c r="M169" s="76"/>
+      <c r="N169" s="77"/>
       <c r="O169" s="52"/>
       <c r="P169" s="52"/>
       <c r="Q169" s="52"/>
@@ -8764,21 +8776,21 @@
       <c r="A170" s="53" t="s">
         <v>300</v>
       </c>
-      <c r="B170" s="128" t="s">
+      <c r="B170" s="78" t="s">
         <v>301</v>
       </c>
-      <c r="C170" s="88"/>
-      <c r="D170" s="88"/>
-      <c r="E170" s="89"/>
+      <c r="C170" s="79"/>
+      <c r="D170" s="79"/>
+      <c r="E170" s="80"/>
       <c r="F170" s="37"/>
-      <c r="G170" s="111"/>
-      <c r="H170" s="92"/>
-      <c r="I170" s="92"/>
-      <c r="J170" s="92"/>
-      <c r="K170" s="92"/>
-      <c r="L170" s="92"/>
-      <c r="M170" s="92"/>
-      <c r="N170" s="100"/>
+      <c r="G170" s="97"/>
+      <c r="H170" s="76"/>
+      <c r="I170" s="76"/>
+      <c r="J170" s="76"/>
+      <c r="K170" s="76"/>
+      <c r="L170" s="76"/>
+      <c r="M170" s="76"/>
+      <c r="N170" s="77"/>
       <c r="O170" s="52"/>
       <c r="P170" s="52"/>
       <c r="Q170" s="52"/>
@@ -8796,21 +8808,21 @@
       <c r="A171" s="54" t="s">
         <v>302</v>
       </c>
-      <c r="B171" s="128" t="s">
+      <c r="B171" s="78" t="s">
         <v>303</v>
       </c>
-      <c r="C171" s="88"/>
-      <c r="D171" s="88"/>
-      <c r="E171" s="89"/>
+      <c r="C171" s="79"/>
+      <c r="D171" s="79"/>
+      <c r="E171" s="80"/>
       <c r="F171" s="38"/>
-      <c r="G171" s="117"/>
-      <c r="H171" s="118"/>
-      <c r="I171" s="118"/>
-      <c r="J171" s="118"/>
-      <c r="K171" s="118"/>
-      <c r="L171" s="118"/>
-      <c r="M171" s="118"/>
-      <c r="N171" s="119"/>
+      <c r="G171" s="110"/>
+      <c r="H171" s="102"/>
+      <c r="I171" s="102"/>
+      <c r="J171" s="102"/>
+      <c r="K171" s="102"/>
+      <c r="L171" s="102"/>
+      <c r="M171" s="102"/>
+      <c r="N171" s="111"/>
       <c r="O171" s="52"/>
       <c r="P171" s="52"/>
       <c r="Q171" s="52"/>
@@ -8853,22 +8865,22 @@
       <c r="Z172" s="52"/>
     </row>
     <row r="173" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="145" t="s">
+      <c r="A173" s="112" t="s">
         <v>304</v>
       </c>
-      <c r="B173" s="84"/>
-      <c r="C173" s="84"/>
-      <c r="D173" s="84"/>
-      <c r="E173" s="84"/>
-      <c r="F173" s="84"/>
-      <c r="G173" s="84"/>
-      <c r="H173" s="84"/>
-      <c r="I173" s="84"/>
-      <c r="J173" s="84"/>
-      <c r="K173" s="84"/>
-      <c r="L173" s="84"/>
-      <c r="M173" s="84"/>
-      <c r="N173" s="85"/>
+      <c r="B173" s="63"/>
+      <c r="C173" s="63"/>
+      <c r="D173" s="63"/>
+      <c r="E173" s="63"/>
+      <c r="F173" s="63"/>
+      <c r="G173" s="63"/>
+      <c r="H173" s="63"/>
+      <c r="I173" s="63"/>
+      <c r="J173" s="63"/>
+      <c r="K173" s="63"/>
+      <c r="L173" s="63"/>
+      <c r="M173" s="63"/>
+      <c r="N173" s="64"/>
       <c r="O173" s="2"/>
       <c r="P173" s="2"/>
       <c r="Q173" s="2"/>
@@ -8882,23 +8894,23 @@
       <c r="Y173" s="2"/>
       <c r="Z173" s="2"/>
     </row>
-    <row r="174" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A174" s="157" t="s">
+    <row r="174" spans="1:26" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A174" s="68" t="s">
         <v>305</v>
       </c>
-      <c r="B174" s="84"/>
-      <c r="C174" s="84"/>
-      <c r="D174" s="84"/>
-      <c r="E174" s="84"/>
-      <c r="F174" s="84"/>
-      <c r="G174" s="84"/>
-      <c r="H174" s="84"/>
-      <c r="I174" s="84"/>
-      <c r="J174" s="84"/>
-      <c r="K174" s="84"/>
-      <c r="L174" s="84"/>
-      <c r="M174" s="84"/>
-      <c r="N174" s="85"/>
+      <c r="B174" s="63"/>
+      <c r="C174" s="63"/>
+      <c r="D174" s="63"/>
+      <c r="E174" s="63"/>
+      <c r="F174" s="63"/>
+      <c r="G174" s="63"/>
+      <c r="H174" s="63"/>
+      <c r="I174" s="63"/>
+      <c r="J174" s="63"/>
+      <c r="K174" s="63"/>
+      <c r="L174" s="63"/>
+      <c r="M174" s="63"/>
+      <c r="N174" s="64"/>
       <c r="O174" s="2"/>
       <c r="P174" s="2"/>
       <c r="Q174" s="2"/>
@@ -8913,20 +8925,20 @@
       <c r="Z174" s="2"/>
     </row>
     <row r="175" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="158"/>
-      <c r="B175" s="95"/>
-      <c r="C175" s="95"/>
-      <c r="D175" s="95"/>
-      <c r="E175" s="95"/>
-      <c r="F175" s="95"/>
-      <c r="G175" s="95"/>
-      <c r="H175" s="95"/>
-      <c r="I175" s="95"/>
-      <c r="J175" s="95"/>
-      <c r="K175" s="95"/>
-      <c r="L175" s="95"/>
-      <c r="M175" s="95"/>
-      <c r="N175" s="96"/>
+      <c r="A175" s="159"/>
+      <c r="B175" s="160"/>
+      <c r="C175" s="160"/>
+      <c r="D175" s="160"/>
+      <c r="E175" s="160"/>
+      <c r="F175" s="160"/>
+      <c r="G175" s="160"/>
+      <c r="H175" s="160"/>
+      <c r="I175" s="160"/>
+      <c r="J175" s="160"/>
+      <c r="K175" s="160"/>
+      <c r="L175" s="160"/>
+      <c r="M175" s="160"/>
+      <c r="N175" s="161"/>
       <c r="O175" s="2"/>
       <c r="P175" s="2"/>
       <c r="Q175" s="2"/>
@@ -8940,21 +8952,21 @@
       <c r="Y175" s="2"/>
       <c r="Z175" s="2"/>
     </row>
-    <row r="176" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="159"/>
-      <c r="B176" s="143"/>
-      <c r="C176" s="143"/>
-      <c r="D176" s="143"/>
-      <c r="E176" s="143"/>
-      <c r="F176" s="143"/>
-      <c r="G176" s="143"/>
-      <c r="H176" s="143"/>
-      <c r="I176" s="143"/>
-      <c r="J176" s="143"/>
-      <c r="K176" s="143"/>
-      <c r="L176" s="143"/>
-      <c r="M176" s="143"/>
-      <c r="N176" s="144"/>
+    <row r="176" spans="1:26" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="162"/>
+      <c r="B176" s="163"/>
+      <c r="C176" s="163"/>
+      <c r="D176" s="163"/>
+      <c r="E176" s="163"/>
+      <c r="F176" s="163"/>
+      <c r="G176" s="163"/>
+      <c r="H176" s="163"/>
+      <c r="I176" s="163"/>
+      <c r="J176" s="163"/>
+      <c r="K176" s="163"/>
+      <c r="L176" s="163"/>
+      <c r="M176" s="163"/>
+      <c r="N176" s="164"/>
       <c r="O176" s="2"/>
       <c r="P176" s="2"/>
       <c r="Q176" s="2"/>
@@ -8968,23 +8980,23 @@
       <c r="Y176" s="2"/>
       <c r="Z176" s="2"/>
     </row>
-    <row r="177" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="160" t="s">
+    <row r="177" spans="1:26" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="73" t="s">
         <v>306</v>
       </c>
-      <c r="B177" s="84"/>
-      <c r="C177" s="84"/>
-      <c r="D177" s="84"/>
-      <c r="E177" s="84"/>
-      <c r="F177" s="84"/>
-      <c r="G177" s="84"/>
-      <c r="H177" s="84"/>
-      <c r="I177" s="84"/>
-      <c r="J177" s="84"/>
-      <c r="K177" s="84"/>
-      <c r="L177" s="84"/>
-      <c r="M177" s="84"/>
-      <c r="N177" s="85"/>
+      <c r="B177" s="63"/>
+      <c r="C177" s="63"/>
+      <c r="D177" s="63"/>
+      <c r="E177" s="63"/>
+      <c r="F177" s="63"/>
+      <c r="G177" s="63"/>
+      <c r="H177" s="63"/>
+      <c r="I177" s="63"/>
+      <c r="J177" s="63"/>
+      <c r="K177" s="63"/>
+      <c r="L177" s="63"/>
+      <c r="M177" s="63"/>
+      <c r="N177" s="64"/>
       <c r="O177" s="2"/>
       <c r="P177" s="2"/>
       <c r="Q177" s="2"/>
@@ -8999,20 +9011,20 @@
       <c r="Z177" s="2"/>
     </row>
     <row r="178" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="161"/>
-      <c r="B178" s="63"/>
-      <c r="C178" s="63"/>
-      <c r="D178" s="63"/>
-      <c r="E178" s="63"/>
-      <c r="F178" s="63"/>
-      <c r="G178" s="63"/>
-      <c r="H178" s="63"/>
-      <c r="I178" s="63"/>
-      <c r="J178" s="63"/>
-      <c r="K178" s="63"/>
-      <c r="L178" s="63"/>
-      <c r="M178" s="63"/>
-      <c r="N178" s="65"/>
+      <c r="A178" s="159"/>
+      <c r="B178" s="160"/>
+      <c r="C178" s="160"/>
+      <c r="D178" s="160"/>
+      <c r="E178" s="160"/>
+      <c r="F178" s="160"/>
+      <c r="G178" s="160"/>
+      <c r="H178" s="160"/>
+      <c r="I178" s="160"/>
+      <c r="J178" s="160"/>
+      <c r="K178" s="160"/>
+      <c r="L178" s="160"/>
+      <c r="M178" s="160"/>
+      <c r="N178" s="161"/>
       <c r="O178" s="2"/>
       <c r="P178" s="2"/>
       <c r="Q178" s="2"/>
@@ -9027,20 +9039,20 @@
       <c r="Z178" s="2"/>
     </row>
     <row r="179" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="162"/>
-      <c r="B179" s="92"/>
-      <c r="C179" s="92"/>
-      <c r="D179" s="92"/>
-      <c r="E179" s="92"/>
-      <c r="F179" s="92"/>
-      <c r="G179" s="92"/>
-      <c r="H179" s="92"/>
-      <c r="I179" s="92"/>
-      <c r="J179" s="92"/>
-      <c r="K179" s="92"/>
-      <c r="L179" s="92"/>
-      <c r="M179" s="92"/>
-      <c r="N179" s="100"/>
+      <c r="A179" s="165"/>
+      <c r="B179" s="166"/>
+      <c r="C179" s="166"/>
+      <c r="D179" s="166"/>
+      <c r="E179" s="166"/>
+      <c r="F179" s="166"/>
+      <c r="G179" s="166"/>
+      <c r="H179" s="166"/>
+      <c r="I179" s="166"/>
+      <c r="J179" s="166"/>
+      <c r="K179" s="166"/>
+      <c r="L179" s="166"/>
+      <c r="M179" s="166"/>
+      <c r="N179" s="167"/>
       <c r="O179" s="2"/>
       <c r="P179" s="2"/>
       <c r="Q179" s="2"/>
@@ -9054,21 +9066,21 @@
       <c r="Y179" s="2"/>
       <c r="Z179" s="2"/>
     </row>
-    <row r="180" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="163"/>
-      <c r="B180" s="63"/>
-      <c r="C180" s="63"/>
-      <c r="D180" s="63"/>
-      <c r="E180" s="63"/>
-      <c r="F180" s="63"/>
-      <c r="G180" s="63"/>
-      <c r="H180" s="63"/>
-      <c r="I180" s="63"/>
-      <c r="J180" s="63"/>
-      <c r="K180" s="63"/>
-      <c r="L180" s="63"/>
-      <c r="M180" s="63"/>
-      <c r="N180" s="65"/>
+    <row r="180" spans="1:26" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="162"/>
+      <c r="B180" s="163"/>
+      <c r="C180" s="163"/>
+      <c r="D180" s="163"/>
+      <c r="E180" s="163"/>
+      <c r="F180" s="163"/>
+      <c r="G180" s="163"/>
+      <c r="H180" s="163"/>
+      <c r="I180" s="163"/>
+      <c r="J180" s="163"/>
+      <c r="K180" s="163"/>
+      <c r="L180" s="163"/>
+      <c r="M180" s="163"/>
+      <c r="N180" s="164"/>
       <c r="O180" s="2"/>
       <c r="P180" s="2"/>
       <c r="Q180" s="2"/>
@@ -9082,23 +9094,23 @@
       <c r="Y180" s="2"/>
       <c r="Z180" s="2"/>
     </row>
-    <row r="181" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="155" t="s">
+    <row r="181" spans="1:26" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="62" t="s">
         <v>307</v>
       </c>
-      <c r="B181" s="84"/>
-      <c r="C181" s="84"/>
-      <c r="D181" s="84"/>
-      <c r="E181" s="84"/>
-      <c r="F181" s="84"/>
-      <c r="G181" s="84"/>
-      <c r="H181" s="84"/>
-      <c r="I181" s="84"/>
-      <c r="J181" s="84"/>
-      <c r="K181" s="84"/>
-      <c r="L181" s="84"/>
-      <c r="M181" s="84"/>
-      <c r="N181" s="85"/>
+      <c r="B181" s="63"/>
+      <c r="C181" s="63"/>
+      <c r="D181" s="63"/>
+      <c r="E181" s="63"/>
+      <c r="F181" s="63"/>
+      <c r="G181" s="63"/>
+      <c r="H181" s="63"/>
+      <c r="I181" s="63"/>
+      <c r="J181" s="63"/>
+      <c r="K181" s="63"/>
+      <c r="L181" s="63"/>
+      <c r="M181" s="63"/>
+      <c r="N181" s="64"/>
       <c r="O181" s="2"/>
       <c r="P181" s="2"/>
       <c r="Q181" s="2"/>
@@ -9113,22 +9125,22 @@
       <c r="Z181" s="2"/>
     </row>
     <row r="182" spans="1:26" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="156" t="s">
+      <c r="A182" s="65" t="s">
         <v>308</v>
       </c>
-      <c r="B182" s="75"/>
-      <c r="C182" s="75"/>
-      <c r="D182" s="75"/>
-      <c r="E182" s="75"/>
-      <c r="F182" s="75"/>
-      <c r="G182" s="75"/>
-      <c r="H182" s="75"/>
-      <c r="I182" s="75"/>
-      <c r="J182" s="75"/>
-      <c r="K182" s="75"/>
-      <c r="L182" s="75"/>
-      <c r="M182" s="75"/>
-      <c r="N182" s="72"/>
+      <c r="B182" s="66"/>
+      <c r="C182" s="66"/>
+      <c r="D182" s="66"/>
+      <c r="E182" s="66"/>
+      <c r="F182" s="66"/>
+      <c r="G182" s="66"/>
+      <c r="H182" s="66"/>
+      <c r="I182" s="66"/>
+      <c r="J182" s="66"/>
+      <c r="K182" s="66"/>
+      <c r="L182" s="66"/>
+      <c r="M182" s="66"/>
+      <c r="N182" s="67"/>
       <c r="O182" s="2"/>
       <c r="P182" s="2"/>
       <c r="Q182" s="2"/>
@@ -32047,90 +32059,218 @@
       <c r="Z1000" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="347">
-    <mergeCell ref="A181:N181"/>
-    <mergeCell ref="A182:N182"/>
-    <mergeCell ref="A174:N174"/>
-    <mergeCell ref="A175:N175"/>
-    <mergeCell ref="A176:N176"/>
-    <mergeCell ref="A177:N177"/>
-    <mergeCell ref="A178:N178"/>
-    <mergeCell ref="A179:N179"/>
-    <mergeCell ref="A180:N180"/>
-    <mergeCell ref="B101:E101"/>
-    <mergeCell ref="B102:E102"/>
-    <mergeCell ref="B103:E103"/>
-    <mergeCell ref="B104:E104"/>
-    <mergeCell ref="B105:E105"/>
-    <mergeCell ref="B106:E106"/>
-    <mergeCell ref="B107:E107"/>
-    <mergeCell ref="B108:E108"/>
-    <mergeCell ref="B123:E123"/>
-    <mergeCell ref="B92:E92"/>
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="B94:E94"/>
-    <mergeCell ref="A95:C96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="A97:E97"/>
-    <mergeCell ref="B98:E98"/>
-    <mergeCell ref="B99:E99"/>
-    <mergeCell ref="B100:E100"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="B87:E87"/>
-    <mergeCell ref="B88:E88"/>
-    <mergeCell ref="B89:E89"/>
-    <mergeCell ref="B90:E90"/>
-    <mergeCell ref="B91:E91"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="A82:C83"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="A71:C72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="G38:N38"/>
-    <mergeCell ref="G39:N39"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="G37:N37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="G35:N35"/>
-    <mergeCell ref="G36:N36"/>
-    <mergeCell ref="A30:N30"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="F31:M31"/>
-    <mergeCell ref="A32:C33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:N33"/>
-    <mergeCell ref="G34:N34"/>
-    <mergeCell ref="G169:N169"/>
-    <mergeCell ref="G170:N170"/>
+  <mergeCells count="344">
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="A6:N6"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:N9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="A12:N12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:M13"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="C1:M3"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:M14"/>
+    <mergeCell ref="F19:M19"/>
+    <mergeCell ref="G21:N21"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:M15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:M16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:M17"/>
+    <mergeCell ref="F18:M18"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="G40:N40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="G41:N41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="G42:N42"/>
+    <mergeCell ref="G43:N43"/>
+    <mergeCell ref="G47:N48"/>
+    <mergeCell ref="G49:N49"/>
+    <mergeCell ref="G44:N44"/>
+    <mergeCell ref="G45:N45"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="G46:N46"/>
+    <mergeCell ref="A47:C48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="G50:N50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="G51:N51"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="G52:N52"/>
+    <mergeCell ref="G53:N53"/>
+    <mergeCell ref="G54:N54"/>
+    <mergeCell ref="G55:N55"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="G56:N56"/>
+    <mergeCell ref="G57:N57"/>
+    <mergeCell ref="G58:N58"/>
+    <mergeCell ref="G59:N59"/>
+    <mergeCell ref="G60:N60"/>
+    <mergeCell ref="G61:N61"/>
+    <mergeCell ref="G62:N62"/>
+    <mergeCell ref="G63:N63"/>
+    <mergeCell ref="G64:N64"/>
+    <mergeCell ref="G65:N65"/>
+    <mergeCell ref="G66:N66"/>
+    <mergeCell ref="G67:N67"/>
+    <mergeCell ref="G68:N68"/>
+    <mergeCell ref="G69:N69"/>
+    <mergeCell ref="G70:N70"/>
+    <mergeCell ref="G71:N72"/>
+    <mergeCell ref="G73:N73"/>
+    <mergeCell ref="G74:N74"/>
+    <mergeCell ref="G75:N75"/>
+    <mergeCell ref="G134:N134"/>
+    <mergeCell ref="G135:N135"/>
+    <mergeCell ref="G127:N127"/>
+    <mergeCell ref="G128:N128"/>
+    <mergeCell ref="G129:N129"/>
+    <mergeCell ref="G130:N130"/>
+    <mergeCell ref="G131:N131"/>
+    <mergeCell ref="G132:N132"/>
+    <mergeCell ref="G133:N133"/>
+    <mergeCell ref="G76:N76"/>
+    <mergeCell ref="G77:N77"/>
+    <mergeCell ref="G78:N78"/>
+    <mergeCell ref="G79:N79"/>
+    <mergeCell ref="G80:N80"/>
+    <mergeCell ref="G81:N81"/>
+    <mergeCell ref="G82:N83"/>
+    <mergeCell ref="G84:N84"/>
+    <mergeCell ref="G85:N85"/>
+    <mergeCell ref="G86:N86"/>
+    <mergeCell ref="G87:N87"/>
+    <mergeCell ref="G88:N88"/>
+    <mergeCell ref="G89:N89"/>
+    <mergeCell ref="G90:N90"/>
+    <mergeCell ref="G91:N91"/>
+    <mergeCell ref="G92:N92"/>
+    <mergeCell ref="G93:N93"/>
+    <mergeCell ref="G94:N94"/>
+    <mergeCell ref="G95:N96"/>
+    <mergeCell ref="G97:N97"/>
+    <mergeCell ref="G98:N98"/>
+    <mergeCell ref="G99:N99"/>
+    <mergeCell ref="G100:N100"/>
+    <mergeCell ref="G101:N101"/>
+    <mergeCell ref="G102:N102"/>
+    <mergeCell ref="G103:N103"/>
+    <mergeCell ref="G104:N104"/>
+    <mergeCell ref="G105:N105"/>
+    <mergeCell ref="G106:N106"/>
+    <mergeCell ref="G107:N107"/>
+    <mergeCell ref="G108:N108"/>
+    <mergeCell ref="G109:N109"/>
+    <mergeCell ref="G110:N110"/>
+    <mergeCell ref="G111:N111"/>
+    <mergeCell ref="G112:N112"/>
+    <mergeCell ref="G113:N113"/>
+    <mergeCell ref="G114:N114"/>
+    <mergeCell ref="G115:N115"/>
+    <mergeCell ref="G116:N116"/>
+    <mergeCell ref="G117:N117"/>
+    <mergeCell ref="G118:N118"/>
+    <mergeCell ref="G119:N119"/>
+    <mergeCell ref="G120:N120"/>
+    <mergeCell ref="G121:N121"/>
+    <mergeCell ref="G122:N122"/>
+    <mergeCell ref="G123:N123"/>
+    <mergeCell ref="G124:N124"/>
+    <mergeCell ref="G125:N125"/>
+    <mergeCell ref="G126:N126"/>
+    <mergeCell ref="B130:E130"/>
+    <mergeCell ref="B140:E140"/>
+    <mergeCell ref="B141:E141"/>
+    <mergeCell ref="B142:E142"/>
+    <mergeCell ref="B143:E143"/>
+    <mergeCell ref="B144:E144"/>
+    <mergeCell ref="A145:C146"/>
+    <mergeCell ref="F145:F146"/>
+    <mergeCell ref="B147:E147"/>
+    <mergeCell ref="B148:E148"/>
+    <mergeCell ref="B149:E149"/>
+    <mergeCell ref="B150:E150"/>
+    <mergeCell ref="B151:E151"/>
+    <mergeCell ref="B152:E152"/>
+    <mergeCell ref="B153:E153"/>
+    <mergeCell ref="B154:E154"/>
+    <mergeCell ref="B155:E155"/>
+    <mergeCell ref="A156:C157"/>
+    <mergeCell ref="F156:F157"/>
+    <mergeCell ref="B165:E165"/>
+    <mergeCell ref="B166:E166"/>
+    <mergeCell ref="B167:E167"/>
+    <mergeCell ref="B168:E168"/>
+    <mergeCell ref="B169:E169"/>
+    <mergeCell ref="B170:E170"/>
+    <mergeCell ref="B171:E171"/>
+    <mergeCell ref="B158:E158"/>
+    <mergeCell ref="B159:E159"/>
+    <mergeCell ref="B160:E160"/>
+    <mergeCell ref="B161:E161"/>
+    <mergeCell ref="B162:E162"/>
+    <mergeCell ref="B163:E163"/>
+    <mergeCell ref="B164:E164"/>
+    <mergeCell ref="G136:N136"/>
+    <mergeCell ref="G137:N137"/>
+    <mergeCell ref="G138:N138"/>
+    <mergeCell ref="G139:N139"/>
+    <mergeCell ref="B124:E124"/>
+    <mergeCell ref="B125:E125"/>
+    <mergeCell ref="B126:E126"/>
+    <mergeCell ref="B127:E127"/>
+    <mergeCell ref="B128:E128"/>
+    <mergeCell ref="B129:E129"/>
+    <mergeCell ref="B131:E131"/>
+    <mergeCell ref="B132:E132"/>
+    <mergeCell ref="B133:E133"/>
+    <mergeCell ref="B134:E134"/>
+    <mergeCell ref="B135:E135"/>
+    <mergeCell ref="B136:E136"/>
+    <mergeCell ref="B137:E137"/>
+    <mergeCell ref="B138:E138"/>
+    <mergeCell ref="B139:E139"/>
+    <mergeCell ref="G159:N159"/>
+    <mergeCell ref="G140:N140"/>
+    <mergeCell ref="G141:N141"/>
+    <mergeCell ref="G142:N142"/>
+    <mergeCell ref="G143:N143"/>
+    <mergeCell ref="G144:N144"/>
+    <mergeCell ref="G145:N146"/>
+    <mergeCell ref="G147:N147"/>
+    <mergeCell ref="G148:N148"/>
+    <mergeCell ref="G149:N149"/>
     <mergeCell ref="G171:N171"/>
     <mergeCell ref="A173:N173"/>
     <mergeCell ref="A24:B24"/>
@@ -32155,6 +32295,15 @@
     <mergeCell ref="C28:F28"/>
     <mergeCell ref="G160:N160"/>
     <mergeCell ref="G161:N161"/>
+    <mergeCell ref="A30:N30"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="F31:M31"/>
+    <mergeCell ref="A32:C33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:N33"/>
+    <mergeCell ref="G34:N34"/>
+    <mergeCell ref="G169:N169"/>
+    <mergeCell ref="G170:N170"/>
     <mergeCell ref="G162:N162"/>
     <mergeCell ref="G163:N163"/>
     <mergeCell ref="G164:N164"/>
@@ -32170,31 +32319,76 @@
     <mergeCell ref="G155:N155"/>
     <mergeCell ref="G156:N157"/>
     <mergeCell ref="G158:N158"/>
-    <mergeCell ref="G159:N159"/>
-    <mergeCell ref="G140:N140"/>
-    <mergeCell ref="G141:N141"/>
-    <mergeCell ref="G142:N142"/>
-    <mergeCell ref="G143:N143"/>
-    <mergeCell ref="G144:N144"/>
-    <mergeCell ref="G145:N146"/>
-    <mergeCell ref="G147:N147"/>
-    <mergeCell ref="G148:N148"/>
-    <mergeCell ref="G149:N149"/>
+    <mergeCell ref="G38:N38"/>
+    <mergeCell ref="G39:N39"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="G37:N37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="G35:N35"/>
+    <mergeCell ref="G36:N36"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="A71:C72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="A82:C83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="B89:E89"/>
+    <mergeCell ref="B90:E90"/>
+    <mergeCell ref="B91:E91"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="B94:E94"/>
+    <mergeCell ref="A95:C96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="A97:E97"/>
+    <mergeCell ref="B98:E98"/>
+    <mergeCell ref="B99:E99"/>
+    <mergeCell ref="B100:E100"/>
+    <mergeCell ref="B101:E101"/>
+    <mergeCell ref="B102:E102"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="B104:E104"/>
+    <mergeCell ref="B105:E105"/>
+    <mergeCell ref="B106:E106"/>
+    <mergeCell ref="B107:E107"/>
+    <mergeCell ref="B108:E108"/>
+    <mergeCell ref="B123:E123"/>
     <mergeCell ref="A118:E118"/>
     <mergeCell ref="B119:E119"/>
     <mergeCell ref="B120:E120"/>
     <mergeCell ref="B121:E121"/>
     <mergeCell ref="B122:E122"/>
-    <mergeCell ref="G136:N136"/>
-    <mergeCell ref="G137:N137"/>
-    <mergeCell ref="G138:N138"/>
-    <mergeCell ref="G139:N139"/>
-    <mergeCell ref="B124:E124"/>
-    <mergeCell ref="B125:E125"/>
-    <mergeCell ref="B126:E126"/>
-    <mergeCell ref="B127:E127"/>
-    <mergeCell ref="B128:E128"/>
-    <mergeCell ref="B129:E129"/>
     <mergeCell ref="A109:E109"/>
     <mergeCell ref="B110:E110"/>
     <mergeCell ref="B111:E111"/>
@@ -32204,197 +32398,12 @@
     <mergeCell ref="B115:E115"/>
     <mergeCell ref="B116:E116"/>
     <mergeCell ref="B117:E117"/>
-    <mergeCell ref="B165:E165"/>
-    <mergeCell ref="B166:E166"/>
-    <mergeCell ref="B167:E167"/>
-    <mergeCell ref="B168:E168"/>
-    <mergeCell ref="B169:E169"/>
-    <mergeCell ref="B170:E170"/>
-    <mergeCell ref="B171:E171"/>
-    <mergeCell ref="B158:E158"/>
-    <mergeCell ref="B159:E159"/>
-    <mergeCell ref="B160:E160"/>
-    <mergeCell ref="B161:E161"/>
-    <mergeCell ref="B162:E162"/>
-    <mergeCell ref="B163:E163"/>
-    <mergeCell ref="B164:E164"/>
-    <mergeCell ref="B149:E149"/>
-    <mergeCell ref="B150:E150"/>
-    <mergeCell ref="B151:E151"/>
-    <mergeCell ref="B152:E152"/>
-    <mergeCell ref="B153:E153"/>
-    <mergeCell ref="B154:E154"/>
-    <mergeCell ref="B155:E155"/>
-    <mergeCell ref="A156:C157"/>
-    <mergeCell ref="F156:F157"/>
-    <mergeCell ref="B140:E140"/>
-    <mergeCell ref="B141:E141"/>
-    <mergeCell ref="B142:E142"/>
-    <mergeCell ref="B143:E143"/>
-    <mergeCell ref="B144:E144"/>
-    <mergeCell ref="A145:C146"/>
-    <mergeCell ref="F145:F146"/>
-    <mergeCell ref="B147:E147"/>
-    <mergeCell ref="B148:E148"/>
-    <mergeCell ref="B131:E131"/>
-    <mergeCell ref="B132:E132"/>
-    <mergeCell ref="B133:E133"/>
-    <mergeCell ref="B134:E134"/>
-    <mergeCell ref="B135:E135"/>
-    <mergeCell ref="B136:E136"/>
-    <mergeCell ref="B137:E137"/>
-    <mergeCell ref="B138:E138"/>
-    <mergeCell ref="B139:E139"/>
-    <mergeCell ref="G119:N119"/>
-    <mergeCell ref="G120:N120"/>
-    <mergeCell ref="G121:N121"/>
-    <mergeCell ref="G122:N122"/>
-    <mergeCell ref="G123:N123"/>
-    <mergeCell ref="G124:N124"/>
-    <mergeCell ref="G125:N125"/>
-    <mergeCell ref="G126:N126"/>
-    <mergeCell ref="B130:E130"/>
-    <mergeCell ref="G110:N110"/>
-    <mergeCell ref="G111:N111"/>
-    <mergeCell ref="G112:N112"/>
-    <mergeCell ref="G113:N113"/>
-    <mergeCell ref="G114:N114"/>
-    <mergeCell ref="G115:N115"/>
-    <mergeCell ref="G116:N116"/>
-    <mergeCell ref="G117:N117"/>
-    <mergeCell ref="G118:N118"/>
-    <mergeCell ref="G101:N101"/>
-    <mergeCell ref="G102:N102"/>
-    <mergeCell ref="G103:N103"/>
-    <mergeCell ref="G104:N104"/>
-    <mergeCell ref="G105:N105"/>
-    <mergeCell ref="G106:N106"/>
-    <mergeCell ref="G107:N107"/>
-    <mergeCell ref="G108:N108"/>
-    <mergeCell ref="G109:N109"/>
-    <mergeCell ref="G91:N91"/>
-    <mergeCell ref="G92:N92"/>
-    <mergeCell ref="G93:N93"/>
-    <mergeCell ref="G94:N94"/>
-    <mergeCell ref="G95:N96"/>
-    <mergeCell ref="G97:N97"/>
-    <mergeCell ref="G98:N98"/>
-    <mergeCell ref="G99:N99"/>
-    <mergeCell ref="G100:N100"/>
-    <mergeCell ref="G75:N75"/>
-    <mergeCell ref="G134:N134"/>
-    <mergeCell ref="G135:N135"/>
-    <mergeCell ref="G127:N127"/>
-    <mergeCell ref="G128:N128"/>
-    <mergeCell ref="G129:N129"/>
-    <mergeCell ref="G130:N130"/>
-    <mergeCell ref="G131:N131"/>
-    <mergeCell ref="G132:N132"/>
-    <mergeCell ref="G133:N133"/>
-    <mergeCell ref="G76:N76"/>
-    <mergeCell ref="G77:N77"/>
-    <mergeCell ref="G78:N78"/>
-    <mergeCell ref="G79:N79"/>
-    <mergeCell ref="G80:N80"/>
-    <mergeCell ref="G81:N81"/>
-    <mergeCell ref="G82:N83"/>
-    <mergeCell ref="G84:N84"/>
-    <mergeCell ref="G85:N85"/>
-    <mergeCell ref="G86:N86"/>
-    <mergeCell ref="G87:N87"/>
-    <mergeCell ref="G88:N88"/>
-    <mergeCell ref="G89:N89"/>
-    <mergeCell ref="G90:N90"/>
-    <mergeCell ref="G65:N65"/>
-    <mergeCell ref="G66:N66"/>
-    <mergeCell ref="G67:N67"/>
-    <mergeCell ref="G68:N68"/>
-    <mergeCell ref="G69:N69"/>
-    <mergeCell ref="G70:N70"/>
-    <mergeCell ref="G71:N72"/>
-    <mergeCell ref="G73:N73"/>
-    <mergeCell ref="G74:N74"/>
-    <mergeCell ref="G56:N56"/>
-    <mergeCell ref="G57:N57"/>
-    <mergeCell ref="G58:N58"/>
-    <mergeCell ref="G59:N59"/>
-    <mergeCell ref="G60:N60"/>
-    <mergeCell ref="G61:N61"/>
-    <mergeCell ref="G62:N62"/>
-    <mergeCell ref="G63:N63"/>
-    <mergeCell ref="G64:N64"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="G50:N50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="G51:N51"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="G52:N52"/>
-    <mergeCell ref="G53:N53"/>
-    <mergeCell ref="G54:N54"/>
-    <mergeCell ref="G55:N55"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="G47:N48"/>
-    <mergeCell ref="G49:N49"/>
-    <mergeCell ref="G44:N44"/>
-    <mergeCell ref="G45:N45"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="G46:N46"/>
-    <mergeCell ref="A47:C48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="G40:N40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="G41:N41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="G42:N42"/>
-    <mergeCell ref="G43:N43"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:M14"/>
-    <mergeCell ref="F19:M19"/>
-    <mergeCell ref="G21:N21"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:M15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:M16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:M17"/>
-    <mergeCell ref="F18:M18"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="A6:N6"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:N9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="A12:N12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="F13:M13"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="A1:B3"/>
-    <mergeCell ref="C1:M3"/>
+    <mergeCell ref="A181:N181"/>
+    <mergeCell ref="A182:N182"/>
+    <mergeCell ref="A174:N174"/>
+    <mergeCell ref="A177:N177"/>
+    <mergeCell ref="A175:N176"/>
+    <mergeCell ref="A178:N180"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Error en ingreso de datos - En estas celdas solo se puede ingresar 1, 0 ó N/A._x000a_Por Favor verifique el dato ingresado, gracias." sqref="F34:F46 F50:F55 F57:F65 F67:F70 F73:F81 F84:F94 F98:F108 F110:F112 F114:F117 F119:F144 F147:F155 F158:F171" xr:uid="{00000000-0002-0000-0000-000001000000}">
